--- a/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
+++ b/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2607 +454,6157 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671527700000</v>
+        <v>1671527640000</v>
       </c>
       <c r="B2">
-        <v>10474400</v>
+        <v>4208600</v>
       </c>
       <c r="C2">
-        <v>8737700</v>
+        <v>3538000</v>
       </c>
       <c r="D2">
-        <v>2307300</v>
+        <v>2215600</v>
       </c>
       <c r="E2">
-        <v>192596758000</v>
+        <v>79641391000</v>
       </c>
       <c r="F2">
-        <v>146944989000</v>
+        <v>57781616000</v>
       </c>
       <c r="G2">
-        <v>36996428000</v>
+        <v>35294560000</v>
       </c>
       <c r="H2">
-        <v>21519400</v>
+        <v>9962200</v>
       </c>
       <c r="I2">
-        <v>376538175000</v>
+        <v>172717567000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-20T09:15:00.000Z</v>
+        <v>2022-12-20T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>376538175000</v>
+        <v>172717567000</v>
       </c>
       <c r="L2">
-        <v>21519400</v>
+        <v>9962200</v>
       </c>
       <c r="M2">
-        <v>-1736700</v>
+        <v>-670600</v>
       </c>
       <c r="N2">
-        <v>-45651769000</v>
+        <v>-21859775000</v>
       </c>
       <c r="O2">
-        <v>-1736700</v>
+        <v>-670600</v>
       </c>
       <c r="P2">
-        <v>-45651769000</v>
+        <v>-21859775000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671528000000</v>
+        <v>1671527760000</v>
       </c>
       <c r="B3">
-        <v>9008900</v>
+        <v>2073700</v>
       </c>
       <c r="C3">
-        <v>7619200</v>
+        <v>2956100</v>
       </c>
       <c r="D3">
-        <v>62000</v>
+        <v>32600</v>
       </c>
       <c r="E3">
-        <v>146696871000</v>
+        <v>38283752000</v>
       </c>
       <c r="F3">
-        <v>130802516000</v>
+        <v>51184613000</v>
       </c>
       <c r="G3">
-        <v>962707000</v>
+        <v>547685000</v>
       </c>
       <c r="H3">
-        <v>16690100</v>
+        <v>5062400</v>
       </c>
       <c r="I3">
-        <v>278462094000</v>
+        <v>90016050000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-20T09:20:00.000Z</v>
+        <v>2022-12-20T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>655000269000</v>
+        <v>262733617000</v>
       </c>
       <c r="L3">
-        <v>38209500</v>
+        <v>15024600</v>
       </c>
       <c r="M3">
-        <v>-1389700</v>
+        <v>882400</v>
       </c>
       <c r="N3">
-        <v>-15894355000</v>
+        <v>12900861000</v>
       </c>
       <c r="O3">
-        <v>-3126400</v>
+        <v>211800</v>
       </c>
       <c r="P3">
-        <v>-61546124000</v>
+        <v>-8958914000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671528300000</v>
+        <v>1671527880000</v>
       </c>
       <c r="B4">
-        <v>4193200</v>
+        <v>4192100</v>
       </c>
       <c r="C4">
-        <v>9170200</v>
+        <v>2243600</v>
       </c>
       <c r="D4">
-        <v>94400</v>
+        <v>59100</v>
       </c>
       <c r="E4">
-        <v>67128564000</v>
+        <v>74671615000</v>
       </c>
       <c r="F4">
-        <v>148565577000</v>
+        <v>37978760000</v>
       </c>
       <c r="G4">
-        <v>1594563000</v>
+        <v>1154183000</v>
       </c>
       <c r="H4">
-        <v>13457800</v>
+        <v>6494800</v>
       </c>
       <c r="I4">
-        <v>217288704000</v>
+        <v>113804558000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-20T09:25:00.000Z</v>
+        <v>2022-12-20T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>872288973000</v>
+        <v>376538175000</v>
       </c>
       <c r="L4">
-        <v>51667300</v>
+        <v>21519400</v>
       </c>
       <c r="M4">
-        <v>4977000</v>
+        <v>-1948500</v>
       </c>
       <c r="N4">
-        <v>81437013000</v>
+        <v>-36692855000</v>
       </c>
       <c r="O4">
-        <v>1850600</v>
+        <v>-1736700</v>
       </c>
       <c r="P4">
-        <v>19890889000</v>
+        <v>-45651769000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671528600000</v>
+        <v>1671528000000</v>
       </c>
       <c r="B5">
-        <v>7071200</v>
+        <v>4680400</v>
       </c>
       <c r="C5">
-        <v>5326700</v>
+        <v>2207800</v>
       </c>
       <c r="D5">
-        <v>27400</v>
+        <v>22800</v>
       </c>
       <c r="E5">
-        <v>117327687000</v>
+        <v>74909887000</v>
       </c>
       <c r="F5">
-        <v>82628526000</v>
+        <v>37056605000</v>
       </c>
       <c r="G5">
-        <v>535380000</v>
+        <v>309217000</v>
       </c>
       <c r="H5">
-        <v>12425300</v>
+        <v>6911000</v>
       </c>
       <c r="I5">
-        <v>200491593000</v>
+        <v>112275709000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-20T09:30:00.000Z</v>
+        <v>2022-12-20T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1072780566000</v>
+        <v>488813884000</v>
       </c>
       <c r="L5">
-        <v>64092600</v>
+        <v>28430400</v>
       </c>
       <c r="M5">
-        <v>-1744500</v>
+        <v>-2472600</v>
       </c>
       <c r="N5">
-        <v>-34699161000</v>
+        <v>-37853282000</v>
       </c>
       <c r="O5">
-        <v>106100</v>
+        <v>-4209300</v>
       </c>
       <c r="P5">
-        <v>-14808272000</v>
+        <v>-83505051000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671528900000</v>
+        <v>1671528120000</v>
       </c>
       <c r="B6">
-        <v>12131900</v>
+        <v>2860500</v>
       </c>
       <c r="C6">
-        <v>3118700</v>
+        <v>3384800</v>
       </c>
       <c r="D6">
-        <v>131700</v>
+        <v>15300</v>
       </c>
       <c r="E6">
-        <v>201744226000</v>
+        <v>48253850000</v>
       </c>
       <c r="F6">
-        <v>52549374000</v>
+        <v>59100870000</v>
       </c>
       <c r="G6">
-        <v>1993301000</v>
+        <v>305085000</v>
       </c>
       <c r="H6">
-        <v>15382300</v>
+        <v>6260600</v>
       </c>
       <c r="I6">
-        <v>256286901000</v>
+        <v>107659805000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-20T09:35:00.000Z</v>
+        <v>2022-12-20T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1329067467000</v>
+        <v>596473689000</v>
       </c>
       <c r="L6">
-        <v>79474900</v>
+        <v>34691000</v>
       </c>
       <c r="M6">
-        <v>-9013200</v>
+        <v>524300</v>
       </c>
       <c r="N6">
-        <v>-149194852000</v>
+        <v>10847020000</v>
       </c>
       <c r="O6">
-        <v>-8907100</v>
+        <v>-3685000</v>
       </c>
       <c r="P6">
-        <v>-164003124000</v>
+        <v>-72658031000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671529200000</v>
+        <v>1671528240000</v>
       </c>
       <c r="B7">
-        <v>8068500</v>
+        <v>2539600</v>
       </c>
       <c r="C7">
-        <v>6026400</v>
+        <v>3585300</v>
       </c>
       <c r="D7">
-        <v>82300</v>
+        <v>62700</v>
       </c>
       <c r="E7">
-        <v>138864066000</v>
+        <v>39689712000</v>
       </c>
       <c r="F7">
-        <v>105899593000</v>
+        <v>60381593000</v>
       </c>
       <c r="G7">
-        <v>1618357000</v>
+        <v>1125645000</v>
       </c>
       <c r="H7">
-        <v>14177200</v>
+        <v>6187600</v>
       </c>
       <c r="I7">
-        <v>246382016000</v>
+        <v>101196950000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-20T09:40:00.000Z</v>
+        <v>2022-12-20T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1575449483000</v>
+        <v>697670639000</v>
       </c>
       <c r="L7">
-        <v>93652100</v>
+        <v>40878600</v>
       </c>
       <c r="M7">
-        <v>-2042100</v>
+        <v>1045700</v>
       </c>
       <c r="N7">
-        <v>-32964473000</v>
+        <v>20691881000</v>
       </c>
       <c r="O7">
-        <v>-10949200</v>
+        <v>-2639300</v>
       </c>
       <c r="P7">
-        <v>-196967597000</v>
+        <v>-51966150000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671529500000</v>
+        <v>1671528360000</v>
       </c>
       <c r="B8">
-        <v>6853300</v>
+        <v>1229100</v>
       </c>
       <c r="C8">
-        <v>4181500</v>
+        <v>3735300</v>
       </c>
       <c r="D8">
-        <v>81200</v>
+        <v>37200</v>
       </c>
       <c r="E8">
-        <v>115702645000</v>
+        <v>19139168000</v>
       </c>
       <c r="F8">
-        <v>72757909000</v>
+        <v>60019057000</v>
       </c>
       <c r="G8">
-        <v>1575332000</v>
+        <v>612460000</v>
       </c>
       <c r="H8">
-        <v>11116000</v>
+        <v>5001600</v>
       </c>
       <c r="I8">
-        <v>190035886000</v>
+        <v>79770685000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-20T09:45:00.000Z</v>
+        <v>2022-12-20T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1765485369000</v>
+        <v>777441324000</v>
       </c>
       <c r="L8">
-        <v>104768100</v>
+        <v>45880200</v>
       </c>
       <c r="M8">
-        <v>-2671800</v>
+        <v>2506200</v>
       </c>
       <c r="N8">
-        <v>-42944736000</v>
+        <v>40879889000</v>
       </c>
       <c r="O8">
-        <v>-13621000</v>
+        <v>-133100</v>
       </c>
       <c r="P8">
-        <v>-239912333000</v>
+        <v>-11086261000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671529800000</v>
+        <v>1671528480000</v>
       </c>
       <c r="B9">
-        <v>16810700</v>
+        <v>1892500</v>
       </c>
       <c r="C9">
-        <v>2837600</v>
+        <v>3876200</v>
       </c>
       <c r="D9">
-        <v>102000</v>
+        <v>18400</v>
       </c>
       <c r="E9">
-        <v>268203904000</v>
+        <v>31832818000</v>
       </c>
       <c r="F9">
-        <v>51778385000</v>
+        <v>62809968000</v>
       </c>
       <c r="G9">
-        <v>2051169000</v>
+        <v>204863000</v>
       </c>
       <c r="H9">
-        <v>19750300</v>
+        <v>5787100</v>
       </c>
       <c r="I9">
-        <v>322033458000</v>
+        <v>94847649000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-20T09:50:00.000Z</v>
+        <v>2022-12-20T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2087518827000</v>
+        <v>872288973000</v>
       </c>
       <c r="L9">
-        <v>124518400</v>
+        <v>51667300</v>
       </c>
       <c r="M9">
-        <v>-13973100</v>
+        <v>1983700</v>
       </c>
       <c r="N9">
-        <v>-216425519000</v>
+        <v>30977150000</v>
       </c>
       <c r="O9">
-        <v>-27594100</v>
+        <v>1850600</v>
       </c>
       <c r="P9">
-        <v>-456337852000</v>
+        <v>19890889000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671530100000</v>
+        <v>1671528600000</v>
       </c>
       <c r="B10">
-        <v>16448800</v>
+        <v>1894800</v>
       </c>
       <c r="C10">
-        <v>7491800</v>
+        <v>2866200</v>
       </c>
       <c r="D10">
-        <v>245500</v>
+        <v>3500</v>
       </c>
       <c r="E10">
-        <v>266563221000</v>
+        <v>33317348000</v>
       </c>
       <c r="F10">
-        <v>132713148000</v>
+        <v>44263537000</v>
       </c>
       <c r="G10">
-        <v>3810755000</v>
+        <v>76928000</v>
       </c>
       <c r="H10">
-        <v>24186100</v>
+        <v>4764500</v>
       </c>
       <c r="I10">
-        <v>403087124000</v>
+        <v>77657813000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-20T09:55:00.000Z</v>
+        <v>2022-12-20T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2490605951000</v>
+        <v>949946786000</v>
       </c>
       <c r="L10">
-        <v>148704500</v>
+        <v>56431800</v>
       </c>
       <c r="M10">
-        <v>-8957000</v>
+        <v>971400</v>
       </c>
       <c r="N10">
-        <v>-133850073000</v>
+        <v>10946189000</v>
       </c>
       <c r="O10">
-        <v>-36551100</v>
+        <v>2822000</v>
       </c>
       <c r="P10">
-        <v>-590187925000</v>
+        <v>30837078000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671530400000</v>
+        <v>1671528720000</v>
       </c>
       <c r="B11">
-        <v>5149700</v>
+        <v>3719200</v>
       </c>
       <c r="C11">
-        <v>5335300</v>
+        <v>1720300</v>
       </c>
       <c r="D11">
-        <v>32500</v>
+        <v>23300</v>
       </c>
       <c r="E11">
-        <v>95866865000</v>
+        <v>58739520000</v>
       </c>
       <c r="F11">
-        <v>96704030000</v>
+        <v>25689023000</v>
       </c>
       <c r="G11">
-        <v>792339000</v>
+        <v>445860000</v>
       </c>
       <c r="H11">
-        <v>10517500</v>
+        <v>5462800</v>
       </c>
       <c r="I11">
-        <v>193363234000</v>
+        <v>84874403000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-20T10:00:00.000Z</v>
+        <v>2022-12-20T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2683969185000</v>
+        <v>1034821189000</v>
       </c>
       <c r="L11">
-        <v>159222000</v>
+        <v>61894600</v>
       </c>
       <c r="M11">
-        <v>185600</v>
+        <v>-1998900</v>
       </c>
       <c r="N11">
-        <v>837165000</v>
+        <v>-33050497000</v>
       </c>
       <c r="O11">
-        <v>-36365500</v>
+        <v>823100</v>
       </c>
       <c r="P11">
-        <v>-589350760000</v>
+        <v>-2213419000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671530700000</v>
+        <v>1671528840000</v>
       </c>
       <c r="B12">
-        <v>9066900</v>
+        <v>4066900</v>
       </c>
       <c r="C12">
-        <v>3422200</v>
+        <v>1614100</v>
       </c>
       <c r="D12">
-        <v>73900</v>
+        <v>9500</v>
       </c>
       <c r="E12">
-        <v>146455163000</v>
+        <v>68026640000</v>
       </c>
       <c r="F12">
-        <v>58637889000</v>
+        <v>27552665000</v>
       </c>
       <c r="G12">
-        <v>1357844000</v>
+        <v>75148000</v>
       </c>
       <c r="H12">
-        <v>12563000</v>
+        <v>5690500</v>
       </c>
       <c r="I12">
-        <v>206450896000</v>
+        <v>95654453000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-20T10:05:00.000Z</v>
+        <v>2022-12-20T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2890420081000</v>
+        <v>1130475642000</v>
       </c>
       <c r="L12">
-        <v>171785000</v>
+        <v>67585100</v>
       </c>
       <c r="M12">
-        <v>-5644700</v>
+        <v>-2452800</v>
       </c>
       <c r="N12">
-        <v>-87817274000</v>
+        <v>-40473975000</v>
       </c>
       <c r="O12">
-        <v>-42010200</v>
+        <v>-1629700</v>
       </c>
       <c r="P12">
-        <v>-677168034000</v>
+        <v>-42687394000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671531000000</v>
+        <v>1671528960000</v>
       </c>
       <c r="B13">
-        <v>19321000</v>
+        <v>4654100</v>
       </c>
       <c r="C13">
-        <v>4180400</v>
+        <v>1232500</v>
       </c>
       <c r="D13">
-        <v>114000</v>
+        <v>108300</v>
       </c>
       <c r="E13">
-        <v>314807935000</v>
+        <v>76110710000</v>
       </c>
       <c r="F13">
-        <v>73703836000</v>
+        <v>19987901000</v>
       </c>
       <c r="G13">
-        <v>1786018000</v>
+        <v>1562920000</v>
       </c>
       <c r="H13">
-        <v>23615400</v>
+        <v>5994900</v>
       </c>
       <c r="I13">
-        <v>390297789000</v>
+        <v>97661531000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-20T10:10:00.000Z</v>
+        <v>2022-12-20T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>3280717870000</v>
+        <v>1228137173000</v>
       </c>
       <c r="L13">
-        <v>195400400</v>
+        <v>73580000</v>
       </c>
       <c r="M13">
-        <v>-15140600</v>
+        <v>-3421600</v>
       </c>
       <c r="N13">
-        <v>-241104099000</v>
+        <v>-56122809000</v>
       </c>
       <c r="O13">
-        <v>-57150800</v>
+        <v>-5051300</v>
       </c>
       <c r="P13">
-        <v>-918272133000</v>
+        <v>-98810203000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671531300000</v>
+        <v>1671529080000</v>
       </c>
       <c r="B14">
-        <v>10622900</v>
+        <v>4868100</v>
       </c>
       <c r="C14">
-        <v>10163800</v>
+        <v>1012300</v>
       </c>
       <c r="D14">
-        <v>152200</v>
+        <v>14500</v>
       </c>
       <c r="E14">
-        <v>174331112000</v>
+        <v>82877695000</v>
       </c>
       <c r="F14">
-        <v>179220045000</v>
+        <v>17684774000</v>
       </c>
       <c r="G14">
-        <v>3305558000</v>
+        <v>367825000</v>
       </c>
       <c r="H14">
-        <v>20938900</v>
+        <v>5894900</v>
       </c>
       <c r="I14">
-        <v>356856715000</v>
+        <v>100930294000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-20T10:15:00.000Z</v>
+        <v>2022-12-20T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3637574585000</v>
+        <v>1329067467000</v>
       </c>
       <c r="L14">
-        <v>216339300</v>
+        <v>79474900</v>
       </c>
       <c r="M14">
-        <v>-459100</v>
+        <v>-3855800</v>
       </c>
       <c r="N14">
-        <v>4888933000</v>
+        <v>-65192921000</v>
       </c>
       <c r="O14">
-        <v>-57609900</v>
+        <v>-8907100</v>
       </c>
       <c r="P14">
-        <v>-913383200000</v>
+        <v>-164003124000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671531600000</v>
+        <v>1671529200000</v>
       </c>
       <c r="B15">
-        <v>15420500</v>
+        <v>4420300</v>
       </c>
       <c r="C15">
-        <v>3984700</v>
+        <v>1959500</v>
       </c>
       <c r="D15">
-        <v>238200</v>
+        <v>71900</v>
       </c>
       <c r="E15">
-        <v>250726764000</v>
+        <v>71310882000</v>
       </c>
       <c r="F15">
-        <v>68731750000</v>
+        <v>37924688000</v>
       </c>
       <c r="G15">
-        <v>4546693000</v>
+        <v>1395487000</v>
       </c>
       <c r="H15">
-        <v>19643400</v>
+        <v>6451700</v>
       </c>
       <c r="I15">
-        <v>324005207000</v>
+        <v>110631057000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-20T10:20:00.000Z</v>
+        <v>2022-12-20T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3961579792000</v>
+        <v>1439698524000</v>
       </c>
       <c r="L15">
-        <v>235982700</v>
+        <v>85926600</v>
       </c>
       <c r="M15">
-        <v>-11435800</v>
+        <v>-2460800</v>
       </c>
       <c r="N15">
-        <v>-181995014000</v>
+        <v>-33386194000</v>
       </c>
       <c r="O15">
-        <v>-69045700</v>
+        <v>-11367900</v>
       </c>
       <c r="P15">
-        <v>-1095378214000</v>
+        <v>-197389318000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671531900000</v>
+        <v>1671529320000</v>
       </c>
       <c r="B16">
-        <v>25740700</v>
+        <v>2791000</v>
       </c>
       <c r="C16">
-        <v>4665400</v>
+        <v>2683100</v>
       </c>
       <c r="D16">
-        <v>215900</v>
+        <v>9400</v>
       </c>
       <c r="E16">
-        <v>418253131000</v>
+        <v>50629376000</v>
       </c>
       <c r="F16">
-        <v>85607410000</v>
+        <v>44878216000</v>
       </c>
       <c r="G16">
-        <v>3748487000</v>
+        <v>199975000</v>
       </c>
       <c r="H16">
-        <v>30622000</v>
+        <v>5483500</v>
       </c>
       <c r="I16">
-        <v>507609028000</v>
+        <v>95707567000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-20T10:25:00.000Z</v>
+        <v>2022-12-20T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>4469188820000</v>
+        <v>1535406091000</v>
       </c>
       <c r="L16">
-        <v>266604700</v>
+        <v>91410100</v>
       </c>
       <c r="M16">
-        <v>-21075300</v>
+        <v>-107900</v>
       </c>
       <c r="N16">
-        <v>-332645721000</v>
+        <v>-5751160000</v>
       </c>
       <c r="O16">
-        <v>-90121000</v>
+        <v>-11475800</v>
       </c>
       <c r="P16">
-        <v>-1428023935000</v>
+        <v>-203140478000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671532200000</v>
+        <v>1671529440000</v>
       </c>
       <c r="B17">
-        <v>10471100</v>
+        <v>1803300</v>
       </c>
       <c r="C17">
-        <v>10812200</v>
+        <v>2232700</v>
       </c>
       <c r="D17">
-        <v>205900</v>
+        <v>66700</v>
       </c>
       <c r="E17">
-        <v>149342171000</v>
+        <v>34546852000</v>
       </c>
       <c r="F17">
-        <v>176807488000</v>
+        <v>37142303000</v>
       </c>
       <c r="G17">
-        <v>3582663000</v>
+        <v>1267340000</v>
       </c>
       <c r="H17">
-        <v>21489200</v>
+        <v>4102700</v>
       </c>
       <c r="I17">
-        <v>329732322000</v>
+        <v>72956495000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-20T10:30:00.000Z</v>
+        <v>2022-12-20T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>4798921142000</v>
+        <v>1608362586000</v>
       </c>
       <c r="L17">
-        <v>288093900</v>
+        <v>95512800</v>
       </c>
       <c r="M17">
-        <v>341100</v>
+        <v>429400</v>
       </c>
       <c r="N17">
-        <v>27465317000</v>
+        <v>2595451000</v>
       </c>
       <c r="O17">
-        <v>-89779900</v>
+        <v>-11046400</v>
       </c>
       <c r="P17">
-        <v>-1400558618000</v>
+        <v>-200545027000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671532500000</v>
+        <v>1671529560000</v>
       </c>
       <c r="B18">
-        <v>4621900</v>
+        <v>2153400</v>
       </c>
       <c r="C18">
-        <v>6335400</v>
+        <v>1385600</v>
       </c>
       <c r="D18">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="E18">
-        <v>75237400000</v>
+        <v>37050350000</v>
       </c>
       <c r="F18">
-        <v>110468416000</v>
+        <v>24339248000</v>
       </c>
       <c r="G18">
-        <v>461646000</v>
+        <v>171582000</v>
       </c>
       <c r="H18">
-        <v>10984300</v>
+        <v>3549000</v>
       </c>
       <c r="I18">
-        <v>186167462000</v>
+        <v>61561180000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-20T10:35:00.000Z</v>
+        <v>2022-12-20T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>4985088604000</v>
+        <v>1669923766000</v>
       </c>
       <c r="L18">
-        <v>299078200</v>
+        <v>99061800</v>
       </c>
       <c r="M18">
-        <v>1713500</v>
+        <v>-767800</v>
       </c>
       <c r="N18">
-        <v>35231016000</v>
+        <v>-12711102000</v>
       </c>
       <c r="O18">
-        <v>-88066400</v>
+        <v>-11814200</v>
       </c>
       <c r="P18">
-        <v>-1365327602000</v>
+        <v>-213256129000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671532800000</v>
+        <v>1671529680000</v>
       </c>
       <c r="B19">
-        <v>5134500</v>
+        <v>3753800</v>
       </c>
       <c r="C19">
-        <v>5409500</v>
+        <v>1947000</v>
       </c>
       <c r="D19">
-        <v>48200</v>
+        <v>5500</v>
       </c>
       <c r="E19">
-        <v>92375502000</v>
+        <v>61029251000</v>
       </c>
       <c r="F19">
-        <v>91361075000</v>
+        <v>34373047000</v>
       </c>
       <c r="G19">
-        <v>756421000</v>
+        <v>159305000</v>
       </c>
       <c r="H19">
-        <v>10592200</v>
+        <v>5706300</v>
       </c>
       <c r="I19">
-        <v>184492998000</v>
+        <v>95561603000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-20T10:40:00.000Z</v>
+        <v>2022-12-20T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>5169581602000</v>
+        <v>1765485369000</v>
       </c>
       <c r="L19">
-        <v>309670400</v>
+        <v>104768100</v>
       </c>
       <c r="M19">
-        <v>275000</v>
+        <v>-1806800</v>
       </c>
       <c r="N19">
-        <v>-1014427000</v>
+        <v>-26656204000</v>
       </c>
       <c r="O19">
-        <v>-87791400</v>
+        <v>-13621000</v>
       </c>
       <c r="P19">
-        <v>-1366342029000</v>
+        <v>-239912333000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671533100000</v>
+        <v>1671529800000</v>
       </c>
       <c r="B20">
-        <v>7386000</v>
+        <v>3861300</v>
       </c>
       <c r="C20">
-        <v>2883900</v>
+        <v>1205800</v>
       </c>
       <c r="D20">
-        <v>52400</v>
+        <v>45600</v>
       </c>
       <c r="E20">
-        <v>133183097000</v>
+        <v>60933965000</v>
       </c>
       <c r="F20">
-        <v>58460164000</v>
+        <v>23205613000</v>
       </c>
       <c r="G20">
-        <v>777448000</v>
+        <v>794338000</v>
       </c>
       <c r="H20">
-        <v>10322300</v>
+        <v>5112700</v>
       </c>
       <c r="I20">
-        <v>192420709000</v>
+        <v>84933916000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-20T10:45:00.000Z</v>
+        <v>2022-12-20T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>5362002311000</v>
+        <v>1850419285000</v>
       </c>
       <c r="L20">
-        <v>319992700</v>
+        <v>109880800</v>
       </c>
       <c r="M20">
-        <v>-4502100</v>
+        <v>-2655500</v>
       </c>
       <c r="N20">
-        <v>-74722933000</v>
+        <v>-37728352000</v>
       </c>
       <c r="O20">
-        <v>-92293500</v>
+        <v>-16276500</v>
       </c>
       <c r="P20">
-        <v>-1441064962000</v>
+        <v>-277640685000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671533400000</v>
+        <v>1671529920000</v>
       </c>
       <c r="B21">
-        <v>3474400</v>
+        <v>8370900</v>
       </c>
       <c r="C21">
-        <v>3687100</v>
+        <v>1042300</v>
       </c>
       <c r="D21">
-        <v>24200</v>
+        <v>39900</v>
       </c>
       <c r="E21">
-        <v>60207699000</v>
+        <v>131677683000</v>
       </c>
       <c r="F21">
-        <v>66952543000</v>
+        <v>19138408000</v>
       </c>
       <c r="G21">
-        <v>349299000</v>
+        <v>534672000</v>
       </c>
       <c r="H21">
-        <v>7185700</v>
+        <v>9453100</v>
       </c>
       <c r="I21">
-        <v>127509541000</v>
+        <v>151350763000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-20T10:50:00.000Z</v>
+        <v>2022-12-20T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>5489511852000</v>
+        <v>2001770048000</v>
       </c>
       <c r="L21">
-        <v>327178400</v>
+        <v>119333900</v>
       </c>
       <c r="M21">
-        <v>212700</v>
+        <v>-7328600</v>
       </c>
       <c r="N21">
-        <v>6744844000</v>
+        <v>-112539275000</v>
       </c>
       <c r="O21">
-        <v>-92080800</v>
+        <v>-23605100</v>
       </c>
       <c r="P21">
-        <v>-1434320118000</v>
+        <v>-390179960000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671533700000</v>
+        <v>1671530040000</v>
       </c>
       <c r="B22">
-        <v>2516500</v>
+        <v>8607800</v>
       </c>
       <c r="C22">
-        <v>4658600</v>
+        <v>1765100</v>
       </c>
       <c r="D22">
-        <v>15500</v>
+        <v>43800</v>
       </c>
       <c r="E22">
-        <v>44475629000</v>
+        <v>140406470000</v>
       </c>
       <c r="F22">
-        <v>83985522000</v>
+        <v>28426529000</v>
       </c>
       <c r="G22">
-        <v>453799000</v>
+        <v>1176727000</v>
       </c>
       <c r="H22">
-        <v>7190600</v>
+        <v>10416700</v>
       </c>
       <c r="I22">
-        <v>128914950000</v>
+        <v>170009726000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-20T10:55:00.000Z</v>
+        <v>2022-12-20T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>5618426802000</v>
+        <v>2171779774000</v>
       </c>
       <c r="L22">
-        <v>334369000</v>
+        <v>129750600</v>
       </c>
       <c r="M22">
-        <v>2142100</v>
+        <v>-6842700</v>
       </c>
       <c r="N22">
-        <v>39509893000</v>
+        <v>-111979941000</v>
       </c>
       <c r="O22">
-        <v>-89938700</v>
+        <v>-30447800</v>
       </c>
       <c r="P22">
-        <v>-1394810225000</v>
+        <v>-502159901000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671534000000</v>
+        <v>1671530160000</v>
       </c>
       <c r="B23">
-        <v>3915600</v>
+        <v>7826100</v>
       </c>
       <c r="C23">
-        <v>4931900</v>
+        <v>2764900</v>
       </c>
       <c r="D23">
-        <v>40200</v>
+        <v>104300</v>
       </c>
       <c r="E23">
-        <v>71763344000</v>
+        <v>134348901000</v>
       </c>
       <c r="F23">
-        <v>84457578000</v>
+        <v>52432143000</v>
       </c>
       <c r="G23">
-        <v>874519000</v>
+        <v>1860443000</v>
       </c>
       <c r="H23">
-        <v>8887700</v>
+        <v>10695300</v>
       </c>
       <c r="I23">
-        <v>157095441000</v>
+        <v>188641487000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-20T11:00:00.000Z</v>
+        <v>2022-12-20T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>5775522243000</v>
+        <v>2360421261000</v>
       </c>
       <c r="L23">
-        <v>343256700</v>
+        <v>140445900</v>
       </c>
       <c r="M23">
-        <v>1016300</v>
+        <v>-5061200</v>
       </c>
       <c r="N23">
-        <v>12694234000</v>
+        <v>-81916758000</v>
       </c>
       <c r="O23">
-        <v>-88922400</v>
+        <v>-35509000</v>
       </c>
       <c r="P23">
-        <v>-1382115991000</v>
+        <v>-584076659000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671534300000</v>
+        <v>1671530280000</v>
       </c>
       <c r="B24">
-        <v>5427200</v>
+        <v>4593400</v>
       </c>
       <c r="C24">
-        <v>2432800</v>
+        <v>3551300</v>
       </c>
       <c r="D24">
-        <v>26200</v>
+        <v>113900</v>
       </c>
       <c r="E24">
-        <v>92076407000</v>
+        <v>67400106000</v>
       </c>
       <c r="F24">
-        <v>44977851000</v>
+        <v>61288840000</v>
       </c>
       <c r="G24">
-        <v>439889000</v>
+        <v>1495744000</v>
       </c>
       <c r="H24">
-        <v>7886200</v>
+        <v>8258600</v>
       </c>
       <c r="I24">
-        <v>137494147000</v>
+        <v>130184690000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-20T11:05:00.000Z</v>
+        <v>2022-12-20T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>5913016390000</v>
+        <v>2490605951000</v>
       </c>
       <c r="L24">
-        <v>351142900</v>
+        <v>148704500</v>
       </c>
       <c r="M24">
-        <v>-2994400</v>
+        <v>-1042100</v>
       </c>
       <c r="N24">
-        <v>-47098556000</v>
+        <v>-6111266000</v>
       </c>
       <c r="O24">
-        <v>-91916800</v>
+        <v>-36551100</v>
       </c>
       <c r="P24">
-        <v>-1429214547000</v>
+        <v>-590187925000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671534600000</v>
+        <v>1671530400000</v>
       </c>
       <c r="B25">
-        <v>6070200</v>
+        <v>1907900</v>
       </c>
       <c r="C25">
-        <v>2085700</v>
+        <v>2707100</v>
       </c>
       <c r="D25">
-        <v>33900</v>
+        <v>21000</v>
       </c>
       <c r="E25">
-        <v>101361864000</v>
+        <v>37226899000</v>
       </c>
       <c r="F25">
-        <v>38007352000</v>
+        <v>49237904000</v>
       </c>
       <c r="G25">
-        <v>606100000</v>
+        <v>599946000</v>
       </c>
       <c r="H25">
-        <v>8189800</v>
+        <v>4636000</v>
       </c>
       <c r="I25">
-        <v>139975316000</v>
+        <v>87064749000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-20T11:10:00.000Z</v>
+        <v>2022-12-20T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>6052991706000</v>
+        <v>2577670700000</v>
       </c>
       <c r="L25">
-        <v>359332700</v>
+        <v>153340500</v>
       </c>
       <c r="M25">
-        <v>-3984500</v>
+        <v>799200</v>
       </c>
       <c r="N25">
-        <v>-63354512000</v>
+        <v>12011005000</v>
       </c>
       <c r="O25">
-        <v>-95901300</v>
+        <v>-35751900</v>
       </c>
       <c r="P25">
-        <v>-1492569059000</v>
+        <v>-578176920000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671534900000</v>
+        <v>1671530520000</v>
       </c>
       <c r="B26">
-        <v>14786200</v>
+        <v>1857300</v>
       </c>
       <c r="C26">
-        <v>2474700</v>
+        <v>2082800</v>
       </c>
       <c r="D26">
-        <v>84200</v>
+        <v>4100</v>
       </c>
       <c r="E26">
-        <v>252980947000</v>
+        <v>34254325000</v>
       </c>
       <c r="F26">
-        <v>43259675000</v>
+        <v>37972627000</v>
       </c>
       <c r="G26">
-        <v>1600354000</v>
+        <v>30831000</v>
       </c>
       <c r="H26">
-        <v>17345100</v>
+        <v>3944200</v>
       </c>
       <c r="I26">
-        <v>297840976000</v>
+        <v>72257783000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-20T11:15:00.000Z</v>
+        <v>2022-12-20T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>6350832682000</v>
+        <v>2649928483000</v>
       </c>
       <c r="L26">
-        <v>376677800</v>
+        <v>157284700</v>
       </c>
       <c r="M26">
-        <v>-12311500</v>
+        <v>225500</v>
       </c>
       <c r="N26">
-        <v>-209721272000</v>
+        <v>3718302000</v>
       </c>
       <c r="O26">
-        <v>-108212800</v>
+        <v>-35526400</v>
       </c>
       <c r="P26">
-        <v>-1702290331000</v>
+        <v>-574458618000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671535200000</v>
+        <v>1671530640000</v>
       </c>
       <c r="B27">
-        <v>20433200</v>
+        <v>3699000</v>
       </c>
       <c r="C27">
-        <v>3818600</v>
+        <v>1009600</v>
       </c>
       <c r="D27">
-        <v>150400</v>
+        <v>27400</v>
       </c>
       <c r="E27">
-        <v>308639484000</v>
+        <v>60975134000</v>
       </c>
       <c r="F27">
-        <v>65920379000</v>
+        <v>17280896000</v>
       </c>
       <c r="G27">
-        <v>1786248000</v>
+        <v>497647000</v>
       </c>
       <c r="H27">
-        <v>24402200</v>
+        <v>4736000</v>
       </c>
       <c r="I27">
-        <v>376346111000</v>
+        <v>78753677000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-20T11:20:00.000Z</v>
+        <v>2022-12-20T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>6727178793000</v>
+        <v>2728682160000</v>
       </c>
       <c r="L27">
-        <v>401080000</v>
+        <v>162020700</v>
       </c>
       <c r="M27">
-        <v>-16614600</v>
+        <v>-2689400</v>
       </c>
       <c r="N27">
-        <v>-242719105000</v>
+        <v>-43694238000</v>
       </c>
       <c r="O27">
-        <v>-124827400</v>
+        <v>-38215800</v>
       </c>
       <c r="P27">
-        <v>-1945009436000</v>
+        <v>-618152856000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671535500000</v>
+        <v>1671530760000</v>
       </c>
       <c r="B28">
-        <v>10749500</v>
+        <v>3117800</v>
       </c>
       <c r="C28">
-        <v>4546300</v>
+        <v>1470200</v>
       </c>
       <c r="D28">
-        <v>55200</v>
+        <v>41800</v>
       </c>
       <c r="E28">
-        <v>167000576000</v>
+        <v>51082365000</v>
       </c>
       <c r="F28">
-        <v>76832270000</v>
+        <v>26026865000</v>
       </c>
       <c r="G28">
-        <v>436419000</v>
+        <v>817172000</v>
       </c>
       <c r="H28">
-        <v>15351000</v>
+        <v>4629800</v>
       </c>
       <c r="I28">
-        <v>244269265000</v>
+        <v>77926402000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-20T11:25:00.000Z</v>
+        <v>2022-12-20T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>6971448058000</v>
+        <v>2806608562000</v>
       </c>
       <c r="L28">
-        <v>416431000</v>
+        <v>166650500</v>
       </c>
       <c r="M28">
-        <v>-6203200</v>
+        <v>-1647600</v>
       </c>
       <c r="N28">
-        <v>-90168306000</v>
+        <v>-25055500000</v>
       </c>
       <c r="O28">
-        <v>-131030600</v>
+        <v>-39863400</v>
       </c>
       <c r="P28">
-        <v>-2035177742000</v>
+        <v>-643208356000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671535800000</v>
+        <v>1671530880000</v>
       </c>
       <c r="B29">
-        <v>1800</v>
+        <v>3634600</v>
       </c>
       <c r="C29">
-        <v>63700</v>
+        <v>1487800</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="E29">
-        <v>24300000</v>
+        <v>58783305000</v>
       </c>
       <c r="F29">
-        <v>612220000</v>
+        <v>24823627000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>204587000</v>
       </c>
       <c r="H29">
-        <v>65500</v>
+        <v>5134500</v>
       </c>
       <c r="I29">
-        <v>636520000</v>
+        <v>83811519000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-20T11:30:00.000Z</v>
+        <v>2022-12-20T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>6972084578000</v>
+        <v>2890420081000</v>
       </c>
       <c r="L29">
-        <v>416496500</v>
+        <v>171785000</v>
       </c>
       <c r="M29">
-        <v>61900</v>
+        <v>-2146800</v>
       </c>
       <c r="N29">
-        <v>587920000</v>
+        <v>-33959678000</v>
       </c>
       <c r="O29">
-        <v>-130968700</v>
+        <v>-42010200</v>
       </c>
       <c r="P29">
-        <v>-2034589822000</v>
+        <v>-677168034000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671541200000</v>
+        <v>1671531000000</v>
       </c>
       <c r="B30">
-        <v>44993200</v>
+        <v>6635100</v>
       </c>
       <c r="C30">
-        <v>22480600</v>
+        <v>1350800</v>
       </c>
       <c r="D30">
-        <v>1745700</v>
+        <v>56200</v>
       </c>
       <c r="E30">
-        <v>651081216000</v>
+        <v>114755243000</v>
       </c>
       <c r="F30">
-        <v>352029170000</v>
+        <v>23929850000</v>
       </c>
       <c r="G30">
-        <v>25565082000</v>
+        <v>1039888000</v>
       </c>
       <c r="H30">
-        <v>69219500</v>
+        <v>8042100</v>
       </c>
       <c r="I30">
-        <v>1028675468000</v>
+        <v>139724981000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-20T13:00:00.000Z</v>
+        <v>2022-12-20T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>8000760046000</v>
+        <v>3030145062000</v>
       </c>
       <c r="L30">
-        <v>485716000</v>
+        <v>179827100</v>
       </c>
       <c r="M30">
-        <v>-22512600</v>
+        <v>-5284300</v>
       </c>
       <c r="N30">
-        <v>-299052046000</v>
+        <v>-90825393000</v>
       </c>
       <c r="O30">
-        <v>-153481300</v>
+        <v>-47294500</v>
       </c>
       <c r="P30">
-        <v>-2333641868000</v>
+        <v>-767993427000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671541500000</v>
+        <v>1671531120000</v>
       </c>
       <c r="B31">
-        <v>17433000</v>
+        <v>9307700</v>
       </c>
       <c r="C31">
-        <v>11971400</v>
+        <v>1683900</v>
       </c>
       <c r="D31">
-        <v>81900</v>
+        <v>15000</v>
       </c>
       <c r="E31">
-        <v>253452288000</v>
+        <v>145094001000</v>
       </c>
       <c r="F31">
-        <v>180181726000</v>
+        <v>29182942000</v>
       </c>
       <c r="G31">
-        <v>1848703000</v>
+        <v>172391000</v>
       </c>
       <c r="H31">
-        <v>29486300</v>
+        <v>11006600</v>
       </c>
       <c r="I31">
-        <v>435482717000</v>
+        <v>174449334000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-20T13:05:00.000Z</v>
+        <v>2022-12-20T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>8436242763000</v>
+        <v>3204594396000</v>
       </c>
       <c r="L31">
-        <v>515202300</v>
+        <v>190833700</v>
       </c>
       <c r="M31">
-        <v>-5461600</v>
+        <v>-7623800</v>
       </c>
       <c r="N31">
-        <v>-73270562000</v>
+        <v>-115911059000</v>
       </c>
       <c r="O31">
-        <v>-158942900</v>
+        <v>-54918300</v>
       </c>
       <c r="P31">
-        <v>-2406912430000</v>
+        <v>-883904486000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671541800000</v>
+        <v>1671531240000</v>
       </c>
       <c r="B32">
-        <v>14904200</v>
+        <v>6913600</v>
       </c>
       <c r="C32">
-        <v>7572900</v>
+        <v>2621800</v>
       </c>
       <c r="D32">
-        <v>68800</v>
+        <v>123100</v>
       </c>
       <c r="E32">
-        <v>226293758000</v>
+        <v>107094220000</v>
       </c>
       <c r="F32">
-        <v>118680949000</v>
+        <v>46859420000</v>
       </c>
       <c r="G32">
-        <v>1530723000</v>
+        <v>2214969000</v>
       </c>
       <c r="H32">
-        <v>22545900</v>
+        <v>9658500</v>
       </c>
       <c r="I32">
-        <v>346505430000</v>
+        <v>156168609000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-20T13:10:00.000Z</v>
+        <v>2022-12-20T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>8782748193000</v>
+        <v>3360763005000</v>
       </c>
       <c r="L32">
-        <v>537748200</v>
+        <v>200492200</v>
       </c>
       <c r="M32">
-        <v>-7331300</v>
+        <v>-4291800</v>
       </c>
       <c r="N32">
-        <v>-107612809000</v>
+        <v>-60234800000</v>
       </c>
       <c r="O32">
-        <v>-166274200</v>
+        <v>-59210100</v>
       </c>
       <c r="P32">
-        <v>-2514525239000</v>
+        <v>-944139286000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671542100000</v>
+        <v>1671531360000</v>
       </c>
       <c r="B33">
-        <v>8138500</v>
+        <v>4700700</v>
       </c>
       <c r="C33">
-        <v>12327300</v>
+        <v>4765500</v>
       </c>
       <c r="D33">
-        <v>177700</v>
+        <v>45600</v>
       </c>
       <c r="E33">
-        <v>110583660000</v>
+        <v>81622346000</v>
       </c>
       <c r="F33">
-        <v>195706060000</v>
+        <v>86909444000</v>
       </c>
       <c r="G33">
-        <v>2547357000</v>
+        <v>954637000</v>
       </c>
       <c r="H33">
-        <v>20643500</v>
+        <v>9511800</v>
       </c>
       <c r="I33">
-        <v>308837077000</v>
+        <v>169486427000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-20T13:15:00.000Z</v>
+        <v>2022-12-20T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>9091585270000</v>
+        <v>3530249432000</v>
       </c>
       <c r="L33">
-        <v>558391700</v>
+        <v>210004000</v>
       </c>
       <c r="M33">
-        <v>4188800</v>
+        <v>64800</v>
       </c>
       <c r="N33">
-        <v>85122400000</v>
+        <v>5287098000</v>
       </c>
       <c r="O33">
-        <v>-162085400</v>
+        <v>-59145300</v>
       </c>
       <c r="P33">
-        <v>-2429402839000</v>
+        <v>-938852188000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671542400000</v>
+        <v>1671531480000</v>
       </c>
       <c r="B34">
-        <v>14158100</v>
+        <v>2386800</v>
       </c>
       <c r="C34">
-        <v>8588300</v>
+        <v>3922200</v>
       </c>
       <c r="D34">
-        <v>223500</v>
+        <v>26300</v>
       </c>
       <c r="E34">
-        <v>215027730000</v>
+        <v>40573237000</v>
       </c>
       <c r="F34">
-        <v>142730316000</v>
+        <v>66042225000</v>
       </c>
       <c r="G34">
-        <v>2426661000</v>
+        <v>709691000</v>
       </c>
       <c r="H34">
-        <v>22969900</v>
+        <v>6335300</v>
       </c>
       <c r="I34">
-        <v>360184707000</v>
+        <v>107325153000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-20T13:20:00.000Z</v>
+        <v>2022-12-20T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>9451769977000</v>
+        <v>3637574585000</v>
       </c>
       <c r="L34">
-        <v>581361600</v>
+        <v>216339300</v>
       </c>
       <c r="M34">
-        <v>-5569800</v>
+        <v>1535400</v>
       </c>
       <c r="N34">
-        <v>-72297414000</v>
+        <v>25468988000</v>
       </c>
       <c r="O34">
-        <v>-167655200</v>
+        <v>-57609900</v>
       </c>
       <c r="P34">
-        <v>-2501700253000</v>
+        <v>-913383200000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671542700000</v>
+        <v>1671531600000</v>
       </c>
       <c r="B35">
-        <v>14925200</v>
+        <v>3719600</v>
       </c>
       <c r="C35">
-        <v>5740600</v>
+        <v>1920500</v>
       </c>
       <c r="D35">
-        <v>79200</v>
+        <v>119700</v>
       </c>
       <c r="E35">
-        <v>228909289000</v>
+        <v>64585979000</v>
       </c>
       <c r="F35">
-        <v>91012585000</v>
+        <v>33010345000</v>
       </c>
       <c r="G35">
-        <v>1427690000</v>
+        <v>2406287000</v>
       </c>
       <c r="H35">
-        <v>20745000</v>
+        <v>5759800</v>
       </c>
       <c r="I35">
-        <v>321349564000</v>
+        <v>100002611000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-20T13:25:00.000Z</v>
+        <v>2022-12-20T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>9773119541000</v>
+        <v>3737577196000</v>
       </c>
       <c r="L35">
-        <v>602106600</v>
+        <v>222099100</v>
       </c>
       <c r="M35">
-        <v>-9184600</v>
+        <v>-1799100</v>
       </c>
       <c r="N35">
-        <v>-137896704000</v>
+        <v>-31575634000</v>
       </c>
       <c r="O35">
-        <v>-176839800</v>
+        <v>-59409000</v>
       </c>
       <c r="P35">
-        <v>-2639596957000</v>
+        <v>-944958834000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671543000000</v>
+        <v>1671531720000</v>
       </c>
       <c r="B36">
-        <v>10256700</v>
+        <v>7074800</v>
       </c>
       <c r="C36">
-        <v>9502900</v>
+        <v>1289400</v>
       </c>
       <c r="D36">
-        <v>86700</v>
+        <v>111900</v>
       </c>
       <c r="E36">
-        <v>134385659000</v>
+        <v>121303513000</v>
       </c>
       <c r="F36">
-        <v>134747008000</v>
+        <v>22079197000</v>
       </c>
       <c r="G36">
-        <v>776274000</v>
+        <v>2009418000</v>
       </c>
       <c r="H36">
-        <v>19846300</v>
+        <v>8476100</v>
       </c>
       <c r="I36">
-        <v>269908941000</v>
+        <v>145392128000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-20T13:30:00.000Z</v>
+        <v>2022-12-20T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>10043028482000</v>
+        <v>3882969324000</v>
       </c>
       <c r="L36">
-        <v>621952900</v>
+        <v>230575200</v>
       </c>
       <c r="M36">
-        <v>-753800</v>
+        <v>-5785400</v>
       </c>
       <c r="N36">
-        <v>361349000</v>
+        <v>-99224316000</v>
       </c>
       <c r="O36">
-        <v>-177593600</v>
+        <v>-65194400</v>
       </c>
       <c r="P36">
-        <v>-2639235608000</v>
+        <v>-1044183150000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671543300000</v>
+        <v>1671531840000</v>
       </c>
       <c r="B37">
-        <v>6632000</v>
+        <v>9843700</v>
       </c>
       <c r="C37">
-        <v>7149200</v>
+        <v>1740300</v>
       </c>
       <c r="D37">
-        <v>31600</v>
+        <v>37000</v>
       </c>
       <c r="E37">
-        <v>92764277000</v>
+        <v>150804178000</v>
       </c>
       <c r="F37">
-        <v>112438526000</v>
+        <v>30824597000</v>
       </c>
       <c r="G37">
-        <v>401607000</v>
+        <v>802718000</v>
       </c>
       <c r="H37">
-        <v>13812800</v>
+        <v>11621000</v>
       </c>
       <c r="I37">
-        <v>205604410000</v>
+        <v>182431493000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-20T13:35:00.000Z</v>
+        <v>2022-12-20T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>10248632892000</v>
+        <v>4065400817000</v>
       </c>
       <c r="L37">
-        <v>635765700</v>
+        <v>242196200</v>
       </c>
       <c r="M37">
-        <v>517200</v>
+        <v>-8103400</v>
       </c>
       <c r="N37">
-        <v>19674249000</v>
+        <v>-119979581000</v>
       </c>
       <c r="O37">
-        <v>-177076400</v>
+        <v>-73297800</v>
       </c>
       <c r="P37">
-        <v>-2619561359000</v>
+        <v>-1164162731000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671543600000</v>
+        <v>1671531960000</v>
       </c>
       <c r="B38">
-        <v>4602100</v>
+        <v>10553200</v>
       </c>
       <c r="C38">
-        <v>9221700</v>
+        <v>1827400</v>
       </c>
       <c r="D38">
-        <v>137800</v>
+        <v>59800</v>
       </c>
       <c r="E38">
-        <v>68892701000</v>
+        <v>173353624000</v>
       </c>
       <c r="F38">
-        <v>157193081000</v>
+        <v>35206516000</v>
       </c>
       <c r="G38">
-        <v>2004886000</v>
+        <v>1401450000</v>
       </c>
       <c r="H38">
-        <v>13961600</v>
+        <v>12440400</v>
       </c>
       <c r="I38">
-        <v>228090668000</v>
+        <v>209961590000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-20T13:40:00.000Z</v>
+        <v>2022-12-20T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>10476723560000</v>
+        <v>4275362407000</v>
       </c>
       <c r="L38">
-        <v>649727300</v>
+        <v>254636600</v>
       </c>
       <c r="M38">
-        <v>4619600</v>
+        <v>-8725800</v>
       </c>
       <c r="N38">
-        <v>88300380000</v>
+        <v>-138147108000</v>
       </c>
       <c r="O38">
-        <v>-172456800</v>
+        <v>-82023600</v>
       </c>
       <c r="P38">
-        <v>-2531260979000</v>
+        <v>-1302309839000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671543900000</v>
+        <v>1671532080000</v>
       </c>
       <c r="B39">
-        <v>9888000</v>
+        <v>9969900</v>
       </c>
       <c r="C39">
-        <v>7179300</v>
+        <v>1872500</v>
       </c>
       <c r="D39">
-        <v>117600</v>
+        <v>125700</v>
       </c>
       <c r="E39">
-        <v>162059195000</v>
+        <v>158932601000</v>
       </c>
       <c r="F39">
-        <v>116794148000</v>
+        <v>33218505000</v>
       </c>
       <c r="G39">
-        <v>1341575000</v>
+        <v>1675307000</v>
       </c>
       <c r="H39">
-        <v>17184900</v>
+        <v>11968100</v>
       </c>
       <c r="I39">
-        <v>280194918000</v>
+        <v>193826413000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-20T13:45:00.000Z</v>
+        <v>2022-12-20T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>10756918478000</v>
+        <v>4469188820000</v>
       </c>
       <c r="L39">
-        <v>666912200</v>
+        <v>266604700</v>
       </c>
       <c r="M39">
-        <v>-2708700</v>
+        <v>-8097400</v>
       </c>
       <c r="N39">
-        <v>-45265047000</v>
+        <v>-125714096000</v>
       </c>
       <c r="O39">
-        <v>-175165500</v>
+        <v>-90121000</v>
       </c>
       <c r="P39">
-        <v>-2576526026000</v>
+        <v>-1428023935000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671544200000</v>
+        <v>1671532200000</v>
       </c>
       <c r="B40">
-        <v>5794200</v>
+        <v>5820000</v>
       </c>
       <c r="C40">
-        <v>5352800</v>
+        <v>4603000</v>
       </c>
       <c r="D40">
-        <v>89200</v>
+        <v>185700</v>
       </c>
       <c r="E40">
-        <v>91515159000</v>
+        <v>90204858000</v>
       </c>
       <c r="F40">
-        <v>80930691000</v>
+        <v>81241751000</v>
       </c>
       <c r="G40">
-        <v>1626516000</v>
+        <v>3309002000</v>
       </c>
       <c r="H40">
-        <v>11236200</v>
+        <v>10608700</v>
       </c>
       <c r="I40">
-        <v>174072366000</v>
+        <v>174755611000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-20T13:50:00.000Z</v>
+        <v>2022-12-20T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>10930990844000</v>
+        <v>4643944431000</v>
       </c>
       <c r="L40">
-        <v>678148400</v>
+        <v>277213400</v>
       </c>
       <c r="M40">
-        <v>-441400</v>
+        <v>-1217000</v>
       </c>
       <c r="N40">
-        <v>-10584468000</v>
+        <v>-8963107000</v>
       </c>
       <c r="O40">
-        <v>-175606900</v>
+        <v>-91338000</v>
       </c>
       <c r="P40">
-        <v>-2587110494000</v>
+        <v>-1436987042000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671544500000</v>
+        <v>1671532320000</v>
       </c>
       <c r="B41">
-        <v>4579700</v>
+        <v>3696500</v>
       </c>
       <c r="C41">
-        <v>7221600</v>
+        <v>4739500</v>
       </c>
       <c r="D41">
-        <v>38600</v>
+        <v>18100</v>
       </c>
       <c r="E41">
-        <v>79357338000</v>
+        <v>43747968000</v>
       </c>
       <c r="F41">
-        <v>126651597000</v>
+        <v>74149140000</v>
       </c>
       <c r="G41">
-        <v>1137975000</v>
+        <v>246793000</v>
       </c>
       <c r="H41">
-        <v>11839900</v>
+        <v>8454100</v>
       </c>
       <c r="I41">
-        <v>207146910000</v>
+        <v>118143901000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-20T13:55:00.000Z</v>
+        <v>2022-12-20T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>11138137754000</v>
+        <v>4762088332000</v>
       </c>
       <c r="L41">
-        <v>689988300</v>
+        <v>285667500</v>
       </c>
       <c r="M41">
-        <v>2641900</v>
+        <v>1043000</v>
       </c>
       <c r="N41">
-        <v>47294259000</v>
+        <v>30401172000</v>
       </c>
       <c r="O41">
-        <v>-172965000</v>
+        <v>-90295000</v>
       </c>
       <c r="P41">
-        <v>-2539816235000</v>
+        <v>-1406585870000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671544800000</v>
+        <v>1671532440000</v>
       </c>
       <c r="B42">
-        <v>4684400</v>
+        <v>2067300</v>
       </c>
       <c r="C42">
-        <v>29576700</v>
+        <v>2845500</v>
       </c>
       <c r="D42">
-        <v>300000</v>
+        <v>11400</v>
       </c>
       <c r="E42">
-        <v>70467260000</v>
+        <v>32728484000</v>
       </c>
       <c r="F42">
-        <v>502413082000</v>
+        <v>45236470000</v>
       </c>
       <c r="G42">
-        <v>4391170000</v>
+        <v>201969000</v>
       </c>
       <c r="H42">
-        <v>34561100</v>
+        <v>4924200</v>
       </c>
       <c r="I42">
-        <v>577271512000</v>
+        <v>78166923000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-20T14:00:00.000Z</v>
+        <v>2022-12-20T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>11715409266000</v>
+        <v>4840255255000</v>
       </c>
       <c r="L42">
-        <v>724549400</v>
+        <v>290591700</v>
       </c>
       <c r="M42">
-        <v>24892300</v>
+        <v>778200</v>
       </c>
       <c r="N42">
-        <v>431945822000</v>
+        <v>12507986000</v>
       </c>
       <c r="O42">
-        <v>-148072700</v>
+        <v>-89516800</v>
       </c>
       <c r="P42">
-        <v>-2107870413000</v>
+        <v>-1394077884000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671545100000</v>
+        <v>1671532560000</v>
       </c>
       <c r="B43">
-        <v>14403600</v>
+        <v>1477600</v>
       </c>
       <c r="C43">
-        <v>11330000</v>
+        <v>2603300</v>
       </c>
       <c r="D43">
-        <v>312700</v>
+        <v>11400</v>
       </c>
       <c r="E43">
-        <v>231111399000</v>
+        <v>23416491000</v>
       </c>
       <c r="F43">
-        <v>177984848000</v>
+        <v>44078309000</v>
       </c>
       <c r="G43">
-        <v>5310138000</v>
+        <v>177909000</v>
       </c>
       <c r="H43">
-        <v>26046300</v>
+        <v>4092300</v>
       </c>
       <c r="I43">
-        <v>414406385000</v>
+        <v>67672709000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-20T14:05:00.000Z</v>
+        <v>2022-12-20T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>12129815651000</v>
+        <v>4907927964000</v>
       </c>
       <c r="L43">
-        <v>750595700</v>
+        <v>294684000</v>
       </c>
       <c r="M43">
-        <v>-3073600</v>
+        <v>1125700</v>
       </c>
       <c r="N43">
-        <v>-53126551000</v>
+        <v>20661818000</v>
       </c>
       <c r="O43">
-        <v>-151146300</v>
+        <v>-88391100</v>
       </c>
       <c r="P43">
-        <v>-2160996964000</v>
+        <v>-1373416066000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671545400000</v>
+        <v>1671532680000</v>
       </c>
       <c r="B44">
-        <v>5562700</v>
+        <v>2031600</v>
       </c>
       <c r="C44">
-        <v>8024500</v>
+        <v>2356300</v>
       </c>
       <c r="D44">
-        <v>78800</v>
+        <v>6300</v>
       </c>
       <c r="E44">
-        <v>80476506000</v>
+        <v>34481770000</v>
       </c>
       <c r="F44">
-        <v>149829915000</v>
+        <v>42570234000</v>
       </c>
       <c r="G44">
-        <v>986906000</v>
+        <v>108636000</v>
       </c>
       <c r="H44">
-        <v>13666000</v>
+        <v>4394200</v>
       </c>
       <c r="I44">
-        <v>231293327000</v>
+        <v>77160640000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-20T14:10:00.000Z</v>
+        <v>2022-12-20T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>12361108978000</v>
+        <v>4985088604000</v>
       </c>
       <c r="L44">
-        <v>764261700</v>
+        <v>299078200</v>
       </c>
       <c r="M44">
-        <v>2461800</v>
+        <v>324700</v>
       </c>
       <c r="N44">
-        <v>69353409000</v>
+        <v>8088464000</v>
       </c>
       <c r="O44">
-        <v>-148684500</v>
+        <v>-88066400</v>
       </c>
       <c r="P44">
-        <v>-2091643555000</v>
+        <v>-1365327602000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671545700000</v>
+        <v>1671532800000</v>
       </c>
       <c r="B45">
-        <v>4343600</v>
+        <v>1263600</v>
       </c>
       <c r="C45">
-        <v>21251600</v>
+        <v>2715000</v>
       </c>
       <c r="D45">
-        <v>171200</v>
+        <v>30900</v>
       </c>
       <c r="E45">
-        <v>69312923000</v>
+        <v>24836525000</v>
       </c>
       <c r="F45">
-        <v>382136188000</v>
+        <v>46947856000</v>
       </c>
       <c r="G45">
-        <v>3508733000</v>
+        <v>470968000</v>
       </c>
       <c r="H45">
-        <v>25766400</v>
+        <v>4009500</v>
       </c>
       <c r="I45">
-        <v>454957844000</v>
+        <v>72255349000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-20T14:15:00.000Z</v>
+        <v>2022-12-20T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>12816066822000</v>
+        <v>5057343953000</v>
       </c>
       <c r="L45">
-        <v>790028100</v>
+        <v>303087700</v>
       </c>
       <c r="M45">
-        <v>16908000</v>
+        <v>1451400</v>
       </c>
       <c r="N45">
-        <v>312823265000</v>
+        <v>22111331000</v>
       </c>
       <c r="O45">
-        <v>-131776500</v>
+        <v>-86615000</v>
       </c>
       <c r="P45">
-        <v>-1778820290000</v>
+        <v>-1343216271000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671546000000</v>
+        <v>1671532920000</v>
       </c>
       <c r="B46">
-        <v>14396400</v>
+        <v>1800000</v>
       </c>
       <c r="C46">
-        <v>28318600</v>
+        <v>1978500</v>
       </c>
       <c r="D46">
-        <v>255400</v>
+        <v>12700</v>
       </c>
       <c r="E46">
-        <v>232298535000</v>
+        <v>33359762000</v>
       </c>
       <c r="F46">
-        <v>477477511000</v>
+        <v>33199900000</v>
       </c>
       <c r="G46">
-        <v>4853441000</v>
+        <v>190063000</v>
       </c>
       <c r="H46">
-        <v>42970400</v>
+        <v>3791200</v>
       </c>
       <c r="I46">
-        <v>714629487000</v>
+        <v>66749725000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-20T14:20:00.000Z</v>
+        <v>2022-12-20T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>13530696309000</v>
+        <v>5124093678000</v>
       </c>
       <c r="L46">
-        <v>832998500</v>
+        <v>306878900</v>
       </c>
       <c r="M46">
-        <v>13922200</v>
+        <v>178500</v>
       </c>
       <c r="N46">
-        <v>245178976000</v>
+        <v>-159862000</v>
       </c>
       <c r="O46">
-        <v>-117854300</v>
+        <v>-86436500</v>
       </c>
       <c r="P46">
-        <v>-1533641314000</v>
+        <v>-1343376133000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671546300000</v>
+        <v>1671533040000</v>
       </c>
       <c r="B47">
-        <v>16643100</v>
+        <v>3799600</v>
       </c>
       <c r="C47">
-        <v>12116300</v>
+        <v>1185000</v>
       </c>
       <c r="D47">
-        <v>334100</v>
+        <v>10100</v>
       </c>
       <c r="E47">
-        <v>255687478000</v>
+        <v>67086282000</v>
       </c>
       <c r="F47">
-        <v>218550291000</v>
+        <v>20546785000</v>
       </c>
       <c r="G47">
-        <v>4984903000</v>
+        <v>237600000</v>
       </c>
       <c r="H47">
-        <v>29093500</v>
+        <v>4994700</v>
       </c>
       <c r="I47">
-        <v>479222672000</v>
+        <v>87870667000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-20T14:25:00.000Z</v>
+        <v>2022-12-20T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>14009918981000</v>
+        <v>5211964345000</v>
       </c>
       <c r="L47">
-        <v>862092000</v>
+        <v>311873600</v>
       </c>
       <c r="M47">
-        <v>-4526800</v>
+        <v>-2614600</v>
       </c>
       <c r="N47">
-        <v>-37137187000</v>
+        <v>-46539497000</v>
       </c>
       <c r="O47">
-        <v>-122381100</v>
+        <v>-89051100</v>
       </c>
       <c r="P47">
-        <v>-1570778501000</v>
+        <v>-1389915630000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671546600000</v>
+        <v>1671533160000</v>
       </c>
       <c r="B48">
-        <v>16000</v>
+        <v>3359800</v>
       </c>
       <c r="C48">
-        <v>12000</v>
+        <v>945300</v>
       </c>
       <c r="D48">
-        <v>500</v>
+        <v>38900</v>
       </c>
       <c r="E48">
-        <v>226175000</v>
+        <v>57777164000</v>
       </c>
       <c r="F48">
-        <v>145857000</v>
+        <v>18292133000</v>
       </c>
       <c r="G48">
-        <v>5050000</v>
+        <v>480734000</v>
       </c>
       <c r="H48">
-        <v>28500</v>
+        <v>4344000</v>
       </c>
       <c r="I48">
-        <v>377082000</v>
+        <v>76550031000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-20T14:30:00.000Z</v>
+        <v>2022-12-20T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>14010296063000</v>
+        <v>5288514376000</v>
       </c>
       <c r="L48">
-        <v>862120500</v>
+        <v>316217600</v>
       </c>
       <c r="M48">
-        <v>-4000</v>
+        <v>-2414500</v>
       </c>
       <c r="N48">
-        <v>-80318000</v>
+        <v>-39485031000</v>
       </c>
       <c r="O48">
-        <v>-122385100</v>
+        <v>-91465600</v>
       </c>
       <c r="P48">
-        <v>-1570858819000</v>
+        <v>-1429400661000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671546900000</v>
+        <v>1671533280000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2297500</v>
       </c>
       <c r="C49">
-        <v>1100</v>
+        <v>1469600</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>42498866000</v>
       </c>
       <c r="F49">
-        <v>11110000</v>
+        <v>30834565000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>154504000</v>
       </c>
       <c r="H49">
-        <v>1100</v>
+        <v>3775100</v>
       </c>
       <c r="I49">
-        <v>11110000</v>
+        <v>73487935000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-20T14:35:00.000Z</v>
+        <v>2022-12-20T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>14010307173000</v>
+        <v>5362002311000</v>
       </c>
       <c r="L49">
-        <v>862121600</v>
+        <v>319992700</v>
       </c>
       <c r="M49">
-        <v>1100</v>
+        <v>-827900</v>
       </c>
       <c r="N49">
-        <v>11110000</v>
+        <v>-11664301000</v>
       </c>
       <c r="O49">
-        <v>-122384000</v>
+        <v>-92293500</v>
       </c>
       <c r="P49">
-        <v>-1570847709000</v>
+        <v>-1441064962000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671547200000</v>
+        <v>1671533400000</v>
       </c>
       <c r="B50">
-        <v>16000</v>
+        <v>1686700</v>
       </c>
       <c r="C50">
-        <v>117500</v>
+        <v>1483500</v>
       </c>
       <c r="D50">
-        <v>1685200</v>
+        <v>22200</v>
       </c>
       <c r="E50">
-        <v>494150000</v>
+        <v>27375577000</v>
       </c>
       <c r="F50">
-        <v>1038810000</v>
+        <v>28009870000</v>
       </c>
       <c r="G50">
-        <v>18004344000</v>
+        <v>286888000</v>
       </c>
       <c r="H50">
-        <v>1818700</v>
+        <v>3192400</v>
       </c>
       <c r="I50">
-        <v>19537304000</v>
+        <v>55672335000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-20T14:40:00.000Z</v>
+        <v>2022-12-20T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>14029844477000</v>
+        <v>5417674646000</v>
       </c>
       <c r="L50">
-        <v>863940300</v>
+        <v>323185100</v>
       </c>
       <c r="M50">
-        <v>101500</v>
+        <v>-203200</v>
       </c>
       <c r="N50">
-        <v>544660000</v>
+        <v>634293000</v>
       </c>
       <c r="O50">
-        <v>-122282500</v>
+        <v>-92496700</v>
       </c>
       <c r="P50">
-        <v>-1570303049000</v>
+        <v>-1440430669000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671547500000</v>
+        <v>1671533520000</v>
       </c>
       <c r="B51">
-        <v>3987200</v>
+        <v>1206500</v>
       </c>
       <c r="C51">
-        <v>3281300</v>
+        <v>1292300</v>
       </c>
       <c r="D51">
-        <v>30660600</v>
+        <v>900</v>
       </c>
       <c r="E51">
-        <v>41249576000</v>
+        <v>22406486000</v>
       </c>
       <c r="F51">
-        <v>55266290000</v>
+        <v>23669583000</v>
       </c>
       <c r="G51">
-        <v>622844703000</v>
+        <v>51155000</v>
       </c>
       <c r="H51">
-        <v>37929100</v>
+        <v>2499700</v>
       </c>
       <c r="I51">
-        <v>719360569000</v>
+        <v>46127224000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-20T14:45:00.000Z</v>
+        <v>2022-12-20T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>14749205046000</v>
+        <v>5463801870000</v>
       </c>
       <c r="L51">
-        <v>901869400</v>
+        <v>325684800</v>
       </c>
       <c r="M51">
-        <v>-705900</v>
+        <v>85800</v>
       </c>
       <c r="N51">
-        <v>14016714000</v>
+        <v>1263097000</v>
       </c>
       <c r="O51">
-        <v>-122988400</v>
+        <v>-92410900</v>
       </c>
       <c r="P51">
-        <v>-1556286335000</v>
+        <v>-1439167572000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1671547800000</v>
+        <v>1671533640000</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1320400</v>
       </c>
       <c r="C52">
-        <v>5400</v>
+        <v>1534300</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>23476177000</v>
       </c>
       <c r="F52">
-        <v>54540000</v>
+        <v>26435456000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>59438000</v>
       </c>
       <c r="H52">
-        <v>5400</v>
+        <v>2858100</v>
       </c>
       <c r="I52">
-        <v>54540000</v>
+        <v>49971071000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-20T14:50:00.000Z</v>
+        <v>2022-12-20T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>14749259586000</v>
+        <v>5513772941000</v>
       </c>
       <c r="L52">
-        <v>901874800</v>
+        <v>328542900</v>
       </c>
       <c r="M52">
-        <v>5400</v>
+        <v>213900</v>
       </c>
       <c r="N52">
-        <v>54540000</v>
+        <v>2959279000</v>
       </c>
       <c r="O52">
-        <v>-122983000</v>
+        <v>-92197000</v>
       </c>
       <c r="P52">
-        <v>-1556231795000</v>
+        <v>-1436208293000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1671548100000</v>
+        <v>1671533760000</v>
       </c>
       <c r="B53">
+        <v>987800</v>
+      </c>
+      <c r="C53">
+        <v>1552300</v>
+      </c>
+      <c r="D53">
+        <v>400</v>
+      </c>
+      <c r="E53">
+        <v>17723183000</v>
+      </c>
+      <c r="F53">
+        <v>28753623000</v>
+      </c>
+      <c r="G53">
+        <v>23585000</v>
+      </c>
+      <c r="H53">
+        <v>2540500</v>
+      </c>
+      <c r="I53">
+        <v>46500391000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-20T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>5560273332000</v>
+      </c>
+      <c r="L53">
+        <v>331083400</v>
+      </c>
+      <c r="M53">
+        <v>564500</v>
+      </c>
+      <c r="N53">
+        <v>11030440000</v>
+      </c>
+      <c r="O53">
+        <v>-91632500</v>
+      </c>
+      <c r="P53">
+        <v>-1425177853000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671533880000</v>
+      </c>
+      <c r="B54">
+        <v>789500</v>
+      </c>
+      <c r="C54">
+        <v>2483300</v>
+      </c>
+      <c r="D54">
+        <v>12800</v>
+      </c>
+      <c r="E54">
+        <v>13701905000</v>
+      </c>
+      <c r="F54">
+        <v>44069533000</v>
+      </c>
+      <c r="G54">
+        <v>382032000</v>
+      </c>
+      <c r="H54">
+        <v>3285600</v>
+      </c>
+      <c r="I54">
+        <v>58153470000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-20T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>5618426802000</v>
+      </c>
+      <c r="L54">
+        <v>334369000</v>
+      </c>
+      <c r="M54">
+        <v>1693800</v>
+      </c>
+      <c r="N54">
+        <v>30367628000</v>
+      </c>
+      <c r="O54">
+        <v>-89938700</v>
+      </c>
+      <c r="P54">
+        <v>-1394810225000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671534000000</v>
+      </c>
+      <c r="B55">
+        <v>1087400</v>
+      </c>
+      <c r="C55">
+        <v>2111000</v>
+      </c>
+      <c r="D55">
+        <v>27500</v>
+      </c>
+      <c r="E55">
+        <v>19755078000</v>
+      </c>
+      <c r="F55">
+        <v>36277957000</v>
+      </c>
+      <c r="G55">
+        <v>509214000.00000006</v>
+      </c>
+      <c r="H55">
+        <v>3225900</v>
+      </c>
+      <c r="I55">
+        <v>56542249000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-20T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>5674969051000</v>
+      </c>
+      <c r="L55">
+        <v>337594900</v>
+      </c>
+      <c r="M55">
+        <v>1023600</v>
+      </c>
+      <c r="N55">
+        <v>16522879000</v>
+      </c>
+      <c r="O55">
+        <v>-88915100</v>
+      </c>
+      <c r="P55">
+        <v>-1378287346000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671534120000</v>
+      </c>
+      <c r="B56">
+        <v>1804200</v>
+      </c>
+      <c r="C56">
+        <v>1944900</v>
+      </c>
+      <c r="D56">
+        <v>10800</v>
+      </c>
+      <c r="E56">
+        <v>31606729000</v>
+      </c>
+      <c r="F56">
+        <v>31065728000</v>
+      </c>
+      <c r="G56">
+        <v>314665000</v>
+      </c>
+      <c r="H56">
+        <v>3759900</v>
+      </c>
+      <c r="I56">
+        <v>62987122000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-20T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>5737956173000</v>
+      </c>
+      <c r="L56">
+        <v>341354800</v>
+      </c>
+      <c r="M56">
+        <v>140700</v>
+      </c>
+      <c r="N56">
+        <v>-541001000</v>
+      </c>
+      <c r="O56">
+        <v>-88774400</v>
+      </c>
+      <c r="P56">
+        <v>-1378828347000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671534240000</v>
+      </c>
+      <c r="B57">
+        <v>1740400</v>
+      </c>
+      <c r="C57">
+        <v>1350500</v>
+      </c>
+      <c r="D57">
+        <v>2200</v>
+      </c>
+      <c r="E57">
+        <v>33918218000</v>
+      </c>
+      <c r="F57">
+        <v>27456066000</v>
+      </c>
+      <c r="G57">
+        <v>55818000</v>
+      </c>
+      <c r="H57">
+        <v>3093100</v>
+      </c>
+      <c r="I57">
+        <v>61430102000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-20T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>5799386275000</v>
+      </c>
+      <c r="L57">
+        <v>344447900</v>
+      </c>
+      <c r="M57">
+        <v>-389900</v>
+      </c>
+      <c r="N57">
+        <v>-6462152000</v>
+      </c>
+      <c r="O57">
+        <v>-89164300</v>
+      </c>
+      <c r="P57">
+        <v>-1385290499000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671534360000</v>
+      </c>
+      <c r="B58">
+        <v>2164700</v>
+      </c>
+      <c r="C58">
+        <v>1129300</v>
+      </c>
+      <c r="D58">
+        <v>23000</v>
+      </c>
+      <c r="E58">
+        <v>34760852000</v>
+      </c>
+      <c r="F58">
+        <v>20047588000</v>
+      </c>
+      <c r="G58">
+        <v>366548000</v>
+      </c>
+      <c r="H58">
+        <v>3317000</v>
+      </c>
+      <c r="I58">
+        <v>55174988000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-20T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>5854561263000</v>
+      </c>
+      <c r="L58">
+        <v>347764900</v>
+      </c>
+      <c r="M58">
+        <v>-1035400</v>
+      </c>
+      <c r="N58">
+        <v>-14713264000</v>
+      </c>
+      <c r="O58">
+        <v>-90199700</v>
+      </c>
+      <c r="P58">
+        <v>-1400003763000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671534480000</v>
+      </c>
+      <c r="B59">
+        <v>2546100</v>
+      </c>
+      <c r="C59">
+        <v>829000</v>
+      </c>
+      <c r="D59">
+        <v>2900</v>
+      </c>
+      <c r="E59">
+        <v>43798874000</v>
+      </c>
+      <c r="F59">
+        <v>14588090000</v>
+      </c>
+      <c r="G59">
+        <v>68163000</v>
+      </c>
+      <c r="H59">
+        <v>3378000</v>
+      </c>
+      <c r="I59">
+        <v>58455127000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-20T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>5913016390000</v>
+      </c>
+      <c r="L59">
+        <v>351142900</v>
+      </c>
+      <c r="M59">
+        <v>-1717100</v>
+      </c>
+      <c r="N59">
+        <v>-29210784000</v>
+      </c>
+      <c r="O59">
+        <v>-91916800</v>
+      </c>
+      <c r="P59">
+        <v>-1429214547000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671534600000</v>
+      </c>
+      <c r="B60">
+        <v>1883000</v>
+      </c>
+      <c r="C60">
+        <v>816200</v>
+      </c>
+      <c r="D60">
+        <v>7300</v>
+      </c>
+      <c r="E60">
+        <v>30818161000</v>
+      </c>
+      <c r="F60">
+        <v>16027349000</v>
+      </c>
+      <c r="G60">
+        <v>109429000</v>
+      </c>
+      <c r="H60">
+        <v>2706500</v>
+      </c>
+      <c r="I60">
+        <v>46954939000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-20T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>5959971329000</v>
+      </c>
+      <c r="L60">
+        <v>353849400</v>
+      </c>
+      <c r="M60">
+        <v>-1066800</v>
+      </c>
+      <c r="N60">
+        <v>-14790812000</v>
+      </c>
+      <c r="O60">
+        <v>-92983600</v>
+      </c>
+      <c r="P60">
+        <v>-1444005359000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671534720000</v>
+      </c>
+      <c r="B61">
+        <v>2763000</v>
+      </c>
+      <c r="C61">
+        <v>812000</v>
+      </c>
+      <c r="D61">
+        <v>6200</v>
+      </c>
+      <c r="E61">
+        <v>48121169000</v>
+      </c>
+      <c r="F61">
+        <v>14300511000</v>
+      </c>
+      <c r="G61">
+        <v>133266000</v>
+      </c>
+      <c r="H61">
+        <v>3581200</v>
+      </c>
+      <c r="I61">
+        <v>62554946000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-20T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>6022526275000</v>
+      </c>
+      <c r="L61">
+        <v>357430600</v>
+      </c>
+      <c r="M61">
+        <v>-1951000</v>
+      </c>
+      <c r="N61">
+        <v>-33820658000</v>
+      </c>
+      <c r="O61">
+        <v>-94934600</v>
+      </c>
+      <c r="P61">
+        <v>-1477826017000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671534840000</v>
+      </c>
+      <c r="B62">
+        <v>2821100</v>
+      </c>
+      <c r="C62">
+        <v>952400</v>
+      </c>
+      <c r="D62">
+        <v>20600</v>
+      </c>
+      <c r="E62">
+        <v>44815105000</v>
+      </c>
+      <c r="F62">
+        <v>17906005000</v>
+      </c>
+      <c r="G62">
+        <v>367725000</v>
+      </c>
+      <c r="H62">
+        <v>3794100</v>
+      </c>
+      <c r="I62">
+        <v>63088835000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-20T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>6085615110000</v>
+      </c>
+      <c r="L62">
+        <v>361224700</v>
+      </c>
+      <c r="M62">
+        <v>-1868700</v>
+      </c>
+      <c r="N62">
+        <v>-26909100000</v>
+      </c>
+      <c r="O62">
+        <v>-96803300</v>
+      </c>
+      <c r="P62">
+        <v>-1504735117000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671534960000</v>
+      </c>
+      <c r="B63">
+        <v>5512500</v>
+      </c>
+      <c r="C63">
+        <v>928500</v>
+      </c>
+      <c r="D63">
+        <v>13600</v>
+      </c>
+      <c r="E63">
+        <v>98399810000</v>
+      </c>
+      <c r="F63">
+        <v>16562402000</v>
+      </c>
+      <c r="G63">
+        <v>295311000</v>
+      </c>
+      <c r="H63">
+        <v>6454600</v>
+      </c>
+      <c r="I63">
+        <v>115257523000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-20T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>6200872633000</v>
+      </c>
+      <c r="L63">
+        <v>367679300</v>
+      </c>
+      <c r="M63">
+        <v>-4584000</v>
+      </c>
+      <c r="N63">
+        <v>-81837408000</v>
+      </c>
+      <c r="O63">
+        <v>-101387300</v>
+      </c>
+      <c r="P63">
+        <v>-1586572525000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671535080000</v>
+      </c>
+      <c r="B64">
+        <v>7876800</v>
+      </c>
+      <c r="C64">
+        <v>1051300</v>
+      </c>
+      <c r="D64">
+        <v>70400</v>
+      </c>
+      <c r="E64">
+        <v>132188566000</v>
+      </c>
+      <c r="F64">
+        <v>16470760000</v>
+      </c>
+      <c r="G64">
+        <v>1300723000</v>
+      </c>
+      <c r="H64">
+        <v>8998500</v>
+      </c>
+      <c r="I64">
+        <v>149960049000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-20T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>6350832682000</v>
+      </c>
+      <c r="L64">
+        <v>376677800</v>
+      </c>
+      <c r="M64">
+        <v>-6825500</v>
+      </c>
+      <c r="N64">
+        <v>-115717806000</v>
+      </c>
+      <c r="O64">
+        <v>-108212800</v>
+      </c>
+      <c r="P64">
+        <v>-1702290331000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671535200000</v>
+      </c>
+      <c r="B65">
+        <v>10519400</v>
+      </c>
+      <c r="C65">
+        <v>1347400</v>
+      </c>
+      <c r="D65">
+        <v>114900</v>
+      </c>
+      <c r="E65">
+        <v>170997821000</v>
+      </c>
+      <c r="F65">
+        <v>22977847000</v>
+      </c>
+      <c r="G65">
+        <v>1437461000</v>
+      </c>
+      <c r="H65">
+        <v>11981700</v>
+      </c>
+      <c r="I65">
+        <v>195413129000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-20T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>6546245811000</v>
+      </c>
+      <c r="L65">
+        <v>388659500</v>
+      </c>
+      <c r="M65">
+        <v>-9172000</v>
+      </c>
+      <c r="N65">
+        <v>-148019974000</v>
+      </c>
+      <c r="O65">
+        <v>-117384800</v>
+      </c>
+      <c r="P65">
+        <v>-1850310305000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671535320000</v>
+      </c>
+      <c r="B66">
+        <v>7876800</v>
+      </c>
+      <c r="C66">
+        <v>1599000</v>
+      </c>
+      <c r="D66">
+        <v>28900</v>
+      </c>
+      <c r="E66">
+        <v>109542675000</v>
+      </c>
+      <c r="F66">
+        <v>26674414000</v>
+      </c>
+      <c r="G66">
+        <v>300544000</v>
+      </c>
+      <c r="H66">
+        <v>9504700</v>
+      </c>
+      <c r="I66">
+        <v>136517633000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-20T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>6682763444000</v>
+      </c>
+      <c r="L66">
+        <v>398164200</v>
+      </c>
+      <c r="M66">
+        <v>-6277800</v>
+      </c>
+      <c r="N66">
+        <v>-82868261000</v>
+      </c>
+      <c r="O66">
+        <v>-123662600</v>
+      </c>
+      <c r="P66">
+        <v>-1933178566000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671535440000</v>
+      </c>
+      <c r="B67">
+        <v>4055800</v>
+      </c>
+      <c r="C67">
+        <v>1741400</v>
+      </c>
+      <c r="D67">
+        <v>8500</v>
+      </c>
+      <c r="E67">
+        <v>64723576000</v>
+      </c>
+      <c r="F67">
+        <v>31342801000</v>
+      </c>
+      <c r="G67">
+        <v>72996000</v>
+      </c>
+      <c r="H67">
+        <v>5805700</v>
+      </c>
+      <c r="I67">
+        <v>96139373000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-20T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>6778902817000</v>
+      </c>
+      <c r="L67">
+        <v>403969900</v>
+      </c>
+      <c r="M67">
+        <v>-2314400</v>
+      </c>
+      <c r="N67">
+        <v>-33380775000</v>
+      </c>
+      <c r="O67">
+        <v>-125977000</v>
+      </c>
+      <c r="P67">
+        <v>-1966559341000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671535560000</v>
+      </c>
+      <c r="B68">
+        <v>4616000</v>
+      </c>
+      <c r="C68">
+        <v>2053600</v>
+      </c>
+      <c r="D68">
+        <v>1200</v>
+      </c>
+      <c r="E68">
+        <v>65423978000</v>
+      </c>
+      <c r="F68">
+        <v>34826447000</v>
+      </c>
+      <c r="G68">
+        <v>10370000</v>
+      </c>
+      <c r="H68">
+        <v>6670800</v>
+      </c>
+      <c r="I68">
+        <v>100260795000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-20T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>6879163612000</v>
+      </c>
+      <c r="L68">
+        <v>410640700</v>
+      </c>
+      <c r="M68">
+        <v>-2562400</v>
+      </c>
+      <c r="N68">
+        <v>-30597531000</v>
+      </c>
+      <c r="O68">
+        <v>-128539400</v>
+      </c>
+      <c r="P68">
+        <v>-1997156872000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671535680000</v>
+      </c>
+      <c r="B69">
+        <v>4114700</v>
+      </c>
+      <c r="C69">
+        <v>1623500</v>
+      </c>
+      <c r="D69">
+        <v>52100</v>
+      </c>
+      <c r="E69">
+        <v>64952010000</v>
+      </c>
+      <c r="F69">
+        <v>26931140000</v>
+      </c>
+      <c r="G69">
+        <v>401296000</v>
+      </c>
+      <c r="H69">
+        <v>5790300</v>
+      </c>
+      <c r="I69">
+        <v>92284446000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-20T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>6971448058000</v>
+      </c>
+      <c r="L69">
+        <v>416431000</v>
+      </c>
+      <c r="M69">
+        <v>-2491200</v>
+      </c>
+      <c r="N69">
+        <v>-38020870000</v>
+      </c>
+      <c r="O69">
+        <v>-131030600</v>
+      </c>
+      <c r="P69">
+        <v>-2035177742000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671535800000</v>
+      </c>
+      <c r="B70">
+        <v>1800</v>
+      </c>
+      <c r="C70">
+        <v>63700</v>
+      </c>
+      <c r="D70">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="E70">
+        <v>24300000</v>
+      </c>
+      <c r="F70">
+        <v>612220000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>65500</v>
+      </c>
+      <c r="I70">
+        <v>636520000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-20T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>6972084578000</v>
+      </c>
+      <c r="L70">
+        <v>416496500</v>
+      </c>
+      <c r="M70">
+        <v>61900</v>
+      </c>
+      <c r="N70">
+        <v>587920000</v>
+      </c>
+      <c r="O70">
+        <v>-130968700</v>
+      </c>
+      <c r="P70">
+        <v>-2034589822000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671541200000</v>
+      </c>
+      <c r="B71">
+        <v>21811700</v>
+      </c>
+      <c r="C71">
+        <v>16981100</v>
+      </c>
+      <c r="D71">
+        <v>1640800</v>
+      </c>
+      <c r="E71">
+        <v>319890974000</v>
+      </c>
+      <c r="F71">
+        <v>262891888000</v>
+      </c>
+      <c r="G71">
+        <v>23906731000</v>
+      </c>
+      <c r="H71">
+        <v>40433600</v>
+      </c>
+      <c r="I71">
+        <v>606689593000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-20T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>7578774171000</v>
+      </c>
+      <c r="L71">
+        <v>456930100</v>
+      </c>
+      <c r="M71">
+        <v>-4830600</v>
+      </c>
+      <c r="N71">
+        <v>-56999086000</v>
+      </c>
+      <c r="O71">
+        <v>-135799300</v>
+      </c>
+      <c r="P71">
+        <v>-2091588908000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671541320000</v>
+      </c>
+      <c r="B72">
+        <v>17583600</v>
+      </c>
+      <c r="C72">
+        <v>3310500</v>
+      </c>
+      <c r="D72">
+        <v>83100</v>
+      </c>
+      <c r="E72">
+        <v>248582650000</v>
+      </c>
+      <c r="F72">
+        <v>54628140000</v>
+      </c>
+      <c r="G72">
+        <v>1377994000</v>
+      </c>
+      <c r="H72">
+        <v>20977200</v>
+      </c>
+      <c r="I72">
+        <v>304588784000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-20T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>7883362955000</v>
+      </c>
+      <c r="L72">
+        <v>477907300</v>
+      </c>
+      <c r="M72">
+        <v>-14273100</v>
+      </c>
+      <c r="N72">
+        <v>-193954510000</v>
+      </c>
+      <c r="O72">
+        <v>-150072400</v>
+      </c>
+      <c r="P72">
+        <v>-2285543418000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671541440000</v>
+      </c>
+      <c r="B73">
+        <v>11124800</v>
+      </c>
+      <c r="C73">
+        <v>4428000</v>
+      </c>
+      <c r="D73">
+        <v>39800</v>
+      </c>
+      <c r="E73">
+        <v>155937041000</v>
+      </c>
+      <c r="F73">
+        <v>70235786000</v>
+      </c>
+      <c r="G73">
+        <v>612830000</v>
+      </c>
+      <c r="H73">
+        <v>15592600</v>
+      </c>
+      <c r="I73">
+        <v>226785657000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-20T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>8110148612000</v>
+      </c>
+      <c r="L73">
+        <v>493499900</v>
+      </c>
+      <c r="M73">
+        <v>-6696800</v>
+      </c>
+      <c r="N73">
+        <v>-85701255000</v>
+      </c>
+      <c r="O73">
+        <v>-156769200</v>
+      </c>
+      <c r="P73">
+        <v>-2371244673000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671541560000</v>
+      </c>
+      <c r="B74">
+        <v>7232400</v>
+      </c>
+      <c r="C74">
+        <v>5242300</v>
+      </c>
+      <c r="D74">
+        <v>28800</v>
+      </c>
+      <c r="E74">
+        <v>110277177000</v>
+      </c>
+      <c r="F74">
+        <v>81443114000</v>
+      </c>
+      <c r="G74">
+        <v>855488000</v>
+      </c>
+      <c r="H74">
+        <v>12503500</v>
+      </c>
+      <c r="I74">
+        <v>192575779000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-20T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>8302724391000</v>
+      </c>
+      <c r="L74">
+        <v>506003400</v>
+      </c>
+      <c r="M74">
+        <v>-1990100</v>
+      </c>
+      <c r="N74">
+        <v>-28834063000</v>
+      </c>
+      <c r="O74">
+        <v>-158759300</v>
+      </c>
+      <c r="P74">
+        <v>-2400078736000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671541680000</v>
+      </c>
+      <c r="B75">
+        <v>4673700</v>
+      </c>
+      <c r="C75">
+        <v>4490100</v>
+      </c>
+      <c r="D75">
+        <v>35100</v>
+      </c>
+      <c r="E75">
+        <v>69845662000</v>
+      </c>
+      <c r="F75">
+        <v>63011968000</v>
+      </c>
+      <c r="G75">
+        <v>660742000</v>
+      </c>
+      <c r="H75">
+        <v>9198900</v>
+      </c>
+      <c r="I75">
+        <v>133518372000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-20T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>8436242763000</v>
+      </c>
+      <c r="L75">
+        <v>515202300</v>
+      </c>
+      <c r="M75">
+        <v>-183600</v>
+      </c>
+      <c r="N75">
+        <v>-6833694000</v>
+      </c>
+      <c r="O75">
+        <v>-158942900</v>
+      </c>
+      <c r="P75">
+        <v>-2406912430000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671541800000</v>
+      </c>
+      <c r="B76">
+        <v>5310200</v>
+      </c>
+      <c r="C76">
+        <v>2977100</v>
+      </c>
+      <c r="D76">
+        <v>39200</v>
+      </c>
+      <c r="E76">
+        <v>83435849000</v>
+      </c>
+      <c r="F76">
+        <v>43636525000</v>
+      </c>
+      <c r="G76">
+        <v>907879000</v>
+      </c>
+      <c r="H76">
+        <v>8326500</v>
+      </c>
+      <c r="I76">
+        <v>127980253000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-20T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>8564223016000</v>
+      </c>
+      <c r="L76">
+        <v>523528800</v>
+      </c>
+      <c r="M76">
+        <v>-2333100</v>
+      </c>
+      <c r="N76">
+        <v>-39799324000</v>
+      </c>
+      <c r="O76">
+        <v>-161276000</v>
+      </c>
+      <c r="P76">
+        <v>-2446711754000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671541920000</v>
+      </c>
+      <c r="B77">
+        <v>6896700</v>
+      </c>
+      <c r="C77">
+        <v>2578900</v>
+      </c>
+      <c r="D77">
+        <v>22600</v>
+      </c>
+      <c r="E77">
+        <v>110344559000</v>
+      </c>
+      <c r="F77">
+        <v>43428261000</v>
+      </c>
+      <c r="G77">
+        <v>535426000</v>
+      </c>
+      <c r="H77">
+        <v>9498200</v>
+      </c>
+      <c r="I77">
+        <v>154308246000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-20T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>8718531262000</v>
+      </c>
+      <c r="L77">
+        <v>533027000</v>
+      </c>
+      <c r="M77">
+        <v>-4317800</v>
+      </c>
+      <c r="N77">
+        <v>-66916298000</v>
+      </c>
+      <c r="O77">
+        <v>-165593800</v>
+      </c>
+      <c r="P77">
+        <v>-2513628052000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671542040000</v>
+      </c>
+      <c r="B78">
+        <v>5333900</v>
+      </c>
+      <c r="C78">
+        <v>3626100</v>
+      </c>
+      <c r="D78">
+        <v>25100</v>
+      </c>
+      <c r="E78">
+        <v>68625987000</v>
+      </c>
+      <c r="F78">
+        <v>56829910000</v>
+      </c>
+      <c r="G78">
+        <v>382572000</v>
+      </c>
+      <c r="H78">
+        <v>8985100</v>
+      </c>
+      <c r="I78">
+        <v>125838469000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-20T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>8844369731000</v>
+      </c>
+      <c r="L78">
+        <v>542012100</v>
+      </c>
+      <c r="M78">
+        <v>-1707800</v>
+      </c>
+      <c r="N78">
+        <v>-11796077000</v>
+      </c>
+      <c r="O78">
+        <v>-167301600</v>
+      </c>
+      <c r="P78">
+        <v>-2525424129000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671542160000</v>
+      </c>
+      <c r="B79">
+        <v>3641700</v>
+      </c>
+      <c r="C79">
+        <v>4867400</v>
+      </c>
+      <c r="D79">
+        <v>95700</v>
+      </c>
+      <c r="E79">
+        <v>45576660000</v>
+      </c>
+      <c r="F79">
+        <v>79612085000</v>
+      </c>
+      <c r="G79">
+        <v>1286232000</v>
+      </c>
+      <c r="H79">
+        <v>8604800</v>
+      </c>
+      <c r="I79">
+        <v>126474977000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-20T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>8970844708000</v>
+      </c>
+      <c r="L79">
+        <v>550616900</v>
+      </c>
+      <c r="M79">
+        <v>1225700</v>
+      </c>
+      <c r="N79">
+        <v>34035425000</v>
+      </c>
+      <c r="O79">
+        <v>-166075900</v>
+      </c>
+      <c r="P79">
+        <v>-2491388704000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671542280000</v>
+      </c>
+      <c r="B80">
+        <v>1860200</v>
+      </c>
+      <c r="C80">
+        <v>5850700</v>
+      </c>
+      <c r="D80">
+        <v>63900</v>
+      </c>
+      <c r="E80">
+        <v>28894363000</v>
+      </c>
+      <c r="F80">
+        <v>90880228000</v>
+      </c>
+      <c r="G80">
+        <v>965971000</v>
+      </c>
+      <c r="H80">
+        <v>7774800</v>
+      </c>
+      <c r="I80">
+        <v>120740562000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-20T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>9091585270000</v>
+      </c>
+      <c r="L80">
+        <v>558391700</v>
+      </c>
+      <c r="M80">
+        <v>3990500</v>
+      </c>
+      <c r="N80">
+        <v>61985865000</v>
+      </c>
+      <c r="O80">
+        <v>-162085400</v>
+      </c>
+      <c r="P80">
+        <v>-2429402839000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671542400000</v>
+      </c>
+      <c r="B81">
+        <v>2802000</v>
+      </c>
+      <c r="C81">
+        <v>4959100</v>
+      </c>
+      <c r="D81">
+        <v>24300</v>
+      </c>
+      <c r="E81">
+        <v>46010401000</v>
+      </c>
+      <c r="F81">
+        <v>85254129000</v>
+      </c>
+      <c r="G81">
+        <v>421972000</v>
+      </c>
+      <c r="H81">
+        <v>7785400</v>
+      </c>
+      <c r="I81">
+        <v>131686502000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-20T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>9223271772000</v>
+      </c>
+      <c r="L81">
+        <v>566177100</v>
+      </c>
+      <c r="M81">
+        <v>2157100</v>
+      </c>
+      <c r="N81">
+        <v>39243728000</v>
+      </c>
+      <c r="O81">
+        <v>-159928300</v>
+      </c>
+      <c r="P81">
+        <v>-2390159111000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671542520000</v>
+      </c>
+      <c r="B82">
+        <v>6870400</v>
+      </c>
+      <c r="C82">
+        <v>2638300</v>
+      </c>
+      <c r="D82">
+        <v>69600</v>
+      </c>
+      <c r="E82">
+        <v>99335019000</v>
+      </c>
+      <c r="F82">
+        <v>42036132000</v>
+      </c>
+      <c r="G82">
+        <v>973628000</v>
+      </c>
+      <c r="H82">
+        <v>9578300</v>
+      </c>
+      <c r="I82">
+        <v>142344779000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-20T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>9365616551000</v>
+      </c>
+      <c r="L82">
+        <v>575755400</v>
+      </c>
+      <c r="M82">
+        <v>-4232100</v>
+      </c>
+      <c r="N82">
+        <v>-57298887000</v>
+      </c>
+      <c r="O82">
+        <v>-164160400</v>
+      </c>
+      <c r="P82">
+        <v>-2447457998000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671542640000</v>
+      </c>
+      <c r="B83">
+        <v>7769000</v>
+      </c>
+      <c r="C83">
+        <v>2022000</v>
+      </c>
+      <c r="D83">
+        <v>170500</v>
+      </c>
+      <c r="E83">
+        <v>114960555000</v>
+      </c>
+      <c r="F83">
+        <v>33684291000</v>
+      </c>
+      <c r="G83">
+        <v>1552758000</v>
+      </c>
+      <c r="H83">
+        <v>9961500</v>
+      </c>
+      <c r="I83">
+        <v>150197604000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-20T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>9515814155000</v>
+      </c>
+      <c r="L83">
+        <v>585716900</v>
+      </c>
+      <c r="M83">
+        <v>-5747000</v>
+      </c>
+      <c r="N83">
+        <v>-81276264000</v>
+      </c>
+      <c r="O83">
+        <v>-169907400</v>
+      </c>
+      <c r="P83">
+        <v>-2528734262000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671542760000</v>
+      </c>
+      <c r="B84">
+        <v>5636000</v>
+      </c>
+      <c r="C84">
+        <v>1755900</v>
+      </c>
+      <c r="D84">
+        <v>20400</v>
+      </c>
+      <c r="E84">
+        <v>91515648000</v>
+      </c>
+      <c r="F84">
+        <v>27062027000</v>
+      </c>
+      <c r="G84">
+        <v>475138000</v>
+      </c>
+      <c r="H84">
+        <v>7412300</v>
+      </c>
+      <c r="I84">
+        <v>119052813000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-20T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>9634866968000</v>
+      </c>
+      <c r="L84">
+        <v>593129200</v>
+      </c>
+      <c r="M84">
+        <v>-3880100</v>
+      </c>
+      <c r="N84">
+        <v>-64453621000</v>
+      </c>
+      <c r="O84">
+        <v>-173787500</v>
+      </c>
+      <c r="P84">
+        <v>-2593187883000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671542880000</v>
+      </c>
+      <c r="B85">
+        <v>6005900</v>
+      </c>
+      <c r="C85">
+        <v>2953600</v>
+      </c>
+      <c r="D85">
+        <v>17900</v>
+      </c>
+      <c r="E85">
+        <v>92115396000</v>
+      </c>
+      <c r="F85">
+        <v>45706322000</v>
+      </c>
+      <c r="G85">
+        <v>430855000</v>
+      </c>
+      <c r="H85">
+        <v>8977400</v>
+      </c>
+      <c r="I85">
+        <v>138252573000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-20T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>9773119541000</v>
+      </c>
+      <c r="L85">
+        <v>602106600</v>
+      </c>
+      <c r="M85">
+        <v>-3052300</v>
+      </c>
+      <c r="N85">
+        <v>-46409074000</v>
+      </c>
+      <c r="O85">
+        <v>-176839800</v>
+      </c>
+      <c r="P85">
+        <v>-2639596957000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671543000000</v>
+      </c>
+      <c r="B86">
+        <v>4463000</v>
+      </c>
+      <c r="C86">
+        <v>2790800</v>
+      </c>
+      <c r="D86">
+        <v>19200</v>
+      </c>
+      <c r="E86">
+        <v>55323201000</v>
+      </c>
+      <c r="F86">
+        <v>46568625000</v>
+      </c>
+      <c r="G86">
+        <v>335669000</v>
+      </c>
+      <c r="H86">
+        <v>7273000</v>
+      </c>
+      <c r="I86">
+        <v>102227495000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-20T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>9875347036000</v>
+      </c>
+      <c r="L86">
+        <v>609379600</v>
+      </c>
+      <c r="M86">
+        <v>-1672200</v>
+      </c>
+      <c r="N86">
+        <v>-8754576000</v>
+      </c>
+      <c r="O86">
+        <v>-178512000</v>
+      </c>
+      <c r="P86">
+        <v>-2648351533000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671543120000</v>
+      </c>
+      <c r="B87">
+        <v>4426600</v>
+      </c>
+      <c r="C87">
+        <v>5257700</v>
+      </c>
+      <c r="D87">
+        <v>66000</v>
+      </c>
+      <c r="E87">
+        <v>58856846000</v>
+      </c>
+      <c r="F87">
+        <v>67050947000</v>
+      </c>
+      <c r="G87">
+        <v>403240000</v>
+      </c>
+      <c r="H87">
+        <v>9750300</v>
+      </c>
+      <c r="I87">
+        <v>126311033000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-20T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>10001658069000</v>
+      </c>
+      <c r="L87">
+        <v>619129900</v>
+      </c>
+      <c r="M87">
+        <v>831100</v>
+      </c>
+      <c r="N87">
+        <v>8194101000</v>
+      </c>
+      <c r="O87">
+        <v>-177680900</v>
+      </c>
+      <c r="P87">
+        <v>-2640157432000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671543240000</v>
+      </c>
+      <c r="B88">
+        <v>3007100</v>
+      </c>
+      <c r="C88">
+        <v>2692200</v>
+      </c>
+      <c r="D88">
+        <v>3100</v>
+      </c>
+      <c r="E88">
+        <v>42066426000</v>
+      </c>
+      <c r="F88">
+        <v>41042292000</v>
+      </c>
+      <c r="G88">
+        <v>65604000</v>
+      </c>
+      <c r="H88">
+        <v>5702400</v>
+      </c>
+      <c r="I88">
+        <v>83174322000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-20T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>10084832391000</v>
+      </c>
+      <c r="L88">
+        <v>624832300</v>
+      </c>
+      <c r="M88">
+        <v>-314900</v>
+      </c>
+      <c r="N88">
+        <v>-1024134000</v>
+      </c>
+      <c r="O88">
+        <v>-177995800</v>
+      </c>
+      <c r="P88">
+        <v>-2641181566000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671543360000</v>
+      </c>
+      <c r="B89">
+        <v>2596700</v>
+      </c>
+      <c r="C89">
+        <v>2822600</v>
+      </c>
+      <c r="D89">
+        <v>22800</v>
+      </c>
+      <c r="E89">
+        <v>42072460000</v>
+      </c>
+      <c r="F89">
+        <v>43319868000</v>
+      </c>
+      <c r="G89">
+        <v>329853000</v>
+      </c>
+      <c r="H89">
+        <v>5442100</v>
+      </c>
+      <c r="I89">
+        <v>85722181000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-20T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>10170554572000</v>
+      </c>
+      <c r="L89">
+        <v>630274400</v>
+      </c>
+      <c r="M89">
+        <v>225900</v>
+      </c>
+      <c r="N89">
+        <v>1247408000</v>
+      </c>
+      <c r="O89">
+        <v>-177769900</v>
+      </c>
+      <c r="P89">
+        <v>-2639934158000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671543480000</v>
+      </c>
+      <c r="B90">
+        <v>2395300</v>
+      </c>
+      <c r="C90">
+        <v>3088800</v>
+      </c>
+      <c r="D90">
+        <v>7200</v>
+      </c>
+      <c r="E90">
+        <v>28831003000</v>
+      </c>
+      <c r="F90">
+        <v>49203802000</v>
+      </c>
+      <c r="G90">
+        <v>43515000</v>
+      </c>
+      <c r="H90">
+        <v>5491300</v>
+      </c>
+      <c r="I90">
+        <v>78078320000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-20T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>10248632892000</v>
+      </c>
+      <c r="L90">
+        <v>635765700</v>
+      </c>
+      <c r="M90">
+        <v>693500</v>
+      </c>
+      <c r="N90">
+        <v>20372799000</v>
+      </c>
+      <c r="O90">
+        <v>-177076400</v>
+      </c>
+      <c r="P90">
+        <v>-2619561359000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671543600000</v>
+      </c>
+      <c r="B91">
+        <v>1831800</v>
+      </c>
+      <c r="C91">
+        <v>4447700</v>
+      </c>
+      <c r="D91">
+        <v>101800</v>
+      </c>
+      <c r="E91">
+        <v>28446165000</v>
+      </c>
+      <c r="F91">
+        <v>82052348000</v>
+      </c>
+      <c r="G91">
+        <v>1470407000</v>
+      </c>
+      <c r="H91">
+        <v>6381300</v>
+      </c>
+      <c r="I91">
+        <v>111968920000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-20T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>10360601812000</v>
+      </c>
+      <c r="L91">
+        <v>642147000</v>
+      </c>
+      <c r="M91">
+        <v>2615900</v>
+      </c>
+      <c r="N91">
+        <v>53606183000</v>
+      </c>
+      <c r="O91">
+        <v>-174460500</v>
+      </c>
+      <c r="P91">
+        <v>-2565955176000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671543720000</v>
+      </c>
+      <c r="B92">
+        <v>1612500</v>
+      </c>
+      <c r="C92">
+        <v>3477500</v>
+      </c>
+      <c r="D92">
+        <v>34600</v>
+      </c>
+      <c r="E92">
+        <v>25597282000</v>
+      </c>
+      <c r="F92">
+        <v>52950710000</v>
+      </c>
+      <c r="G92">
+        <v>503079000</v>
+      </c>
+      <c r="H92">
+        <v>5124600</v>
+      </c>
+      <c r="I92">
+        <v>79051071000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-20T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>10439652883000</v>
+      </c>
+      <c r="L92">
+        <v>647271600</v>
+      </c>
+      <c r="M92">
+        <v>1865000</v>
+      </c>
+      <c r="N92">
+        <v>27353428000</v>
+      </c>
+      <c r="O92">
+        <v>-172595500</v>
+      </c>
+      <c r="P92">
+        <v>-2538601748000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671543840000</v>
+      </c>
+      <c r="B93">
+        <v>1980500</v>
+      </c>
+      <c r="C93">
+        <v>2743600</v>
+      </c>
+      <c r="D93">
+        <v>1800</v>
+      </c>
+      <c r="E93">
+        <v>27090752000</v>
+      </c>
+      <c r="F93">
+        <v>46873842000</v>
+      </c>
+      <c r="G93">
+        <v>50320000</v>
+      </c>
+      <c r="H93">
+        <v>4725900</v>
+      </c>
+      <c r="I93">
+        <v>74014914000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-20T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>10513667797000</v>
+      </c>
+      <c r="L93">
+        <v>651997500</v>
+      </c>
+      <c r="M93">
+        <v>763100</v>
+      </c>
+      <c r="N93">
+        <v>19783090000</v>
+      </c>
+      <c r="O93">
+        <v>-171832400</v>
+      </c>
+      <c r="P93">
+        <v>-2518818658000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671543960000</v>
+      </c>
+      <c r="B94">
+        <v>2233300</v>
+      </c>
+      <c r="C94">
+        <v>3862100</v>
+      </c>
+      <c r="D94">
+        <v>64700</v>
+      </c>
+      <c r="E94">
+        <v>35656948000</v>
+      </c>
+      <c r="F94">
+        <v>62302335000</v>
+      </c>
+      <c r="G94">
+        <v>694592000</v>
+      </c>
+      <c r="H94">
+        <v>6160100</v>
+      </c>
+      <c r="I94">
+        <v>98653875000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-20T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>10612321672000</v>
+      </c>
+      <c r="L94">
+        <v>658157600</v>
+      </c>
+      <c r="M94">
+        <v>1628800</v>
+      </c>
+      <c r="N94">
+        <v>26645387000</v>
+      </c>
+      <c r="O94">
+        <v>-170203600</v>
+      </c>
+      <c r="P94">
+        <v>-2492173271000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671544080000</v>
+      </c>
+      <c r="B95">
+        <v>6832000</v>
+      </c>
+      <c r="C95">
+        <v>1870100</v>
+      </c>
+      <c r="D95">
+        <v>52500</v>
+      </c>
+      <c r="E95">
+        <v>114160749000</v>
+      </c>
+      <c r="F95">
+        <v>29807994000</v>
+      </c>
+      <c r="G95">
+        <v>628063000</v>
+      </c>
+      <c r="H95">
+        <v>8754600</v>
+      </c>
+      <c r="I95">
+        <v>144596806000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-20T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>10756918478000</v>
+      </c>
+      <c r="L95">
+        <v>666912200</v>
+      </c>
+      <c r="M95">
+        <v>-4961900</v>
+      </c>
+      <c r="N95">
+        <v>-84352755000</v>
+      </c>
+      <c r="O95">
+        <v>-175165500</v>
+      </c>
+      <c r="P95">
+        <v>-2576526026000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671544200000</v>
+      </c>
+      <c r="B96">
+        <v>3198500</v>
+      </c>
+      <c r="C96">
+        <v>1695100</v>
+      </c>
+      <c r="D96">
+        <v>60300</v>
+      </c>
+      <c r="E96">
+        <v>51080336000</v>
+      </c>
+      <c r="F96">
+        <v>24225112000</v>
+      </c>
+      <c r="G96">
+        <v>1040792000</v>
+      </c>
+      <c r="H96">
+        <v>4953900</v>
+      </c>
+      <c r="I96">
+        <v>76346240000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-20T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>10833264718000</v>
+      </c>
+      <c r="L96">
+        <v>671866100</v>
+      </c>
+      <c r="M96">
+        <v>-1503400</v>
+      </c>
+      <c r="N96">
+        <v>-26855224000</v>
+      </c>
+      <c r="O96">
+        <v>-176668900</v>
+      </c>
+      <c r="P96">
+        <v>-2603381250000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671544320000</v>
+      </c>
+      <c r="B97">
+        <v>1401400</v>
+      </c>
+      <c r="C97">
+        <v>1836100</v>
+      </c>
+      <c r="D97">
+        <v>17600</v>
+      </c>
+      <c r="E97">
+        <v>21410302000</v>
+      </c>
+      <c r="F97">
+        <v>29824142000</v>
+      </c>
+      <c r="G97">
+        <v>441557000</v>
+      </c>
+      <c r="H97">
+        <v>3255100</v>
+      </c>
+      <c r="I97">
+        <v>51676001000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-20T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>10884940719000</v>
+      </c>
+      <c r="L97">
+        <v>675121200</v>
+      </c>
+      <c r="M97">
+        <v>434700</v>
+      </c>
+      <c r="N97">
+        <v>8413840000</v>
+      </c>
+      <c r="O97">
+        <v>-176234200</v>
+      </c>
+      <c r="P97">
+        <v>-2594967410000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671544440000</v>
+      </c>
+      <c r="B98">
+        <v>2168900</v>
+      </c>
+      <c r="C98">
+        <v>2807700</v>
+      </c>
+      <c r="D98">
+        <v>31500</v>
+      </c>
+      <c r="E98">
+        <v>34526600000</v>
+      </c>
+      <c r="F98">
+        <v>45190929000</v>
+      </c>
+      <c r="G98">
+        <v>871517000</v>
+      </c>
+      <c r="H98">
+        <v>5008100</v>
+      </c>
+      <c r="I98">
+        <v>80589046000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-20T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>10965529765000</v>
+      </c>
+      <c r="L98">
+        <v>680129300</v>
+      </c>
+      <c r="M98">
+        <v>638800</v>
+      </c>
+      <c r="N98">
+        <v>10664329000</v>
+      </c>
+      <c r="O98">
+        <v>-175595400</v>
+      </c>
+      <c r="P98">
+        <v>-2584303081000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671544560000</v>
+      </c>
+      <c r="B99">
+        <v>2154400</v>
+      </c>
+      <c r="C99">
+        <v>2932900</v>
+      </c>
+      <c r="D99">
+        <v>15300</v>
+      </c>
+      <c r="E99">
+        <v>36772009000</v>
+      </c>
+      <c r="F99">
+        <v>46418596000</v>
+      </c>
+      <c r="G99">
+        <v>248485000</v>
+      </c>
+      <c r="H99">
+        <v>5102600</v>
+      </c>
+      <c r="I99">
+        <v>83439090000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-20T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>11048968855000</v>
+      </c>
+      <c r="L99">
+        <v>685231900</v>
+      </c>
+      <c r="M99">
+        <v>778500</v>
+      </c>
+      <c r="N99">
+        <v>9646587000</v>
+      </c>
+      <c r="O99">
+        <v>-174816900</v>
+      </c>
+      <c r="P99">
+        <v>-2574656494000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671544680000</v>
+      </c>
+      <c r="B100">
+        <v>1450700</v>
+      </c>
+      <c r="C100">
+        <v>3302600</v>
+      </c>
+      <c r="D100">
+        <v>3100</v>
+      </c>
+      <c r="E100">
+        <v>27083250000</v>
+      </c>
+      <c r="F100">
+        <v>61923509000</v>
+      </c>
+      <c r="G100">
+        <v>162140000</v>
+      </c>
+      <c r="H100">
+        <v>4756400</v>
+      </c>
+      <c r="I100">
+        <v>89168899000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-20T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>11138137754000</v>
+      </c>
+      <c r="L100">
+        <v>689988300</v>
+      </c>
+      <c r="M100">
+        <v>1851900</v>
+      </c>
+      <c r="N100">
+        <v>34840259000</v>
+      </c>
+      <c r="O100">
+        <v>-172965000</v>
+      </c>
+      <c r="P100">
+        <v>-2539816235000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671544800000</v>
+      </c>
+      <c r="B101">
+        <v>1372000</v>
+      </c>
+      <c r="C101">
+        <v>6249600</v>
+      </c>
+      <c r="D101">
+        <v>56100</v>
+      </c>
+      <c r="E101">
+        <v>19308322000</v>
+      </c>
+      <c r="F101">
+        <v>113610361000</v>
+      </c>
+      <c r="G101">
+        <v>551133000</v>
+      </c>
+      <c r="H101">
+        <v>7677700</v>
+      </c>
+      <c r="I101">
+        <v>133469816000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-20T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>11271607570000</v>
+      </c>
+      <c r="L101">
+        <v>697666000</v>
+      </c>
+      <c r="M101">
+        <v>4877600</v>
+      </c>
+      <c r="N101">
+        <v>94302039000</v>
+      </c>
+      <c r="O101">
+        <v>-168087400</v>
+      </c>
+      <c r="P101">
+        <v>-2445514196000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671544920000</v>
+      </c>
+      <c r="B102">
+        <v>1996700</v>
+      </c>
+      <c r="C102">
+        <v>16589700</v>
+      </c>
+      <c r="D102">
+        <v>204300</v>
+      </c>
+      <c r="E102">
+        <v>30829134000</v>
+      </c>
+      <c r="F102">
+        <v>279395129000</v>
+      </c>
+      <c r="G102">
+        <v>3279012000</v>
+      </c>
+      <c r="H102">
+        <v>18790700</v>
+      </c>
+      <c r="I102">
+        <v>313503275000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-20T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>11585110845000</v>
+      </c>
+      <c r="L102">
+        <v>716456700</v>
+      </c>
+      <c r="M102">
+        <v>14593000</v>
+      </c>
+      <c r="N102">
+        <v>248565995000</v>
+      </c>
+      <c r="O102">
+        <v>-153494400</v>
+      </c>
+      <c r="P102">
+        <v>-2196948201000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671545040000</v>
+      </c>
+      <c r="B103">
+        <v>3865400</v>
+      </c>
+      <c r="C103">
+        <v>11972100</v>
+      </c>
+      <c r="D103">
+        <v>127500</v>
+      </c>
+      <c r="E103">
+        <v>63495222000</v>
+      </c>
+      <c r="F103">
+        <v>180317626000</v>
+      </c>
+      <c r="G103">
+        <v>2301003000</v>
+      </c>
+      <c r="H103">
+        <v>15965000</v>
+      </c>
+      <c r="I103">
+        <v>246113851000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-20T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>11831224696000</v>
+      </c>
+      <c r="L103">
+        <v>732421700</v>
+      </c>
+      <c r="M103">
+        <v>8106700</v>
+      </c>
+      <c r="N103">
+        <v>116822404000</v>
+      </c>
+      <c r="O103">
+        <v>-145387700</v>
+      </c>
+      <c r="P103">
+        <v>-2080125797000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671545160000</v>
+      </c>
+      <c r="B104">
+        <v>7601600</v>
+      </c>
+      <c r="C104">
+        <v>4078600</v>
+      </c>
+      <c r="D104">
+        <v>176000</v>
+      </c>
+      <c r="E104">
+        <v>121216951000</v>
+      </c>
+      <c r="F104">
+        <v>69386924000</v>
+      </c>
+      <c r="G104">
+        <v>2669177000</v>
+      </c>
+      <c r="H104">
+        <v>11856200</v>
+      </c>
+      <c r="I104">
+        <v>193273052000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-20T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>12024497748000</v>
+      </c>
+      <c r="L104">
+        <v>744277900</v>
+      </c>
+      <c r="M104">
+        <v>-3523000</v>
+      </c>
+      <c r="N104">
+        <v>-51830027000</v>
+      </c>
+      <c r="O104">
+        <v>-148910700</v>
+      </c>
+      <c r="P104">
+        <v>-2131955824000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671545280000</v>
+      </c>
+      <c r="B105">
+        <v>4252300</v>
+      </c>
+      <c r="C105">
+        <v>2016700</v>
+      </c>
+      <c r="D105">
+        <v>48800</v>
+      </c>
+      <c r="E105">
+        <v>66729030000</v>
+      </c>
+      <c r="F105">
+        <v>37687890000</v>
+      </c>
+      <c r="G105">
+        <v>900983000</v>
+      </c>
+      <c r="H105">
+        <v>6317800</v>
+      </c>
+      <c r="I105">
+        <v>105317903000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-20T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>12129815651000</v>
+      </c>
+      <c r="L105">
+        <v>750595700</v>
+      </c>
+      <c r="M105">
+        <v>-2235600</v>
+      </c>
+      <c r="N105">
+        <v>-29041140000</v>
+      </c>
+      <c r="O105">
+        <v>-151146300</v>
+      </c>
+      <c r="P105">
+        <v>-2160996964000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671545400000</v>
+      </c>
+      <c r="B106">
+        <v>2527500</v>
+      </c>
+      <c r="C106">
+        <v>2352200</v>
+      </c>
+      <c r="D106">
+        <v>15400</v>
+      </c>
+      <c r="E106">
+        <v>36531642000</v>
+      </c>
+      <c r="F106">
+        <v>42514129000</v>
+      </c>
+      <c r="G106">
+        <v>250586000</v>
+      </c>
+      <c r="H106">
+        <v>4895100</v>
+      </c>
+      <c r="I106">
+        <v>79296357000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-20T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>12209112008000</v>
+      </c>
+      <c r="L106">
+        <v>755490800</v>
+      </c>
+      <c r="M106">
+        <v>-175300</v>
+      </c>
+      <c r="N106">
+        <v>5982487000</v>
+      </c>
+      <c r="O106">
+        <v>-151321600</v>
+      </c>
+      <c r="P106">
+        <v>-2155014477000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671545520000</v>
+      </c>
+      <c r="B107">
+        <v>2159800</v>
+      </c>
+      <c r="C107">
+        <v>3074500</v>
+      </c>
+      <c r="D107">
+        <v>48800</v>
+      </c>
+      <c r="E107">
+        <v>31760869000</v>
+      </c>
+      <c r="F107">
+        <v>53280934000</v>
+      </c>
+      <c r="G107">
+        <v>481950000</v>
+      </c>
+      <c r="H107">
+        <v>5283100</v>
+      </c>
+      <c r="I107">
+        <v>85523753000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-20T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>12294635761000</v>
+      </c>
+      <c r="L107">
+        <v>760773900</v>
+      </c>
+      <c r="M107">
+        <v>914700</v>
+      </c>
+      <c r="N107">
+        <v>21520065000</v>
+      </c>
+      <c r="O107">
+        <v>-150406900</v>
+      </c>
+      <c r="P107">
+        <v>-2133494412000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671545640000</v>
+      </c>
+      <c r="B108">
+        <v>1471400</v>
+      </c>
+      <c r="C108">
+        <v>5119200</v>
+      </c>
+      <c r="D108">
+        <v>28800</v>
+      </c>
+      <c r="E108">
+        <v>21617730000</v>
+      </c>
+      <c r="F108">
+        <v>98000095000</v>
+      </c>
+      <c r="G108">
+        <v>737640000</v>
+      </c>
+      <c r="H108">
+        <v>6619400</v>
+      </c>
+      <c r="I108">
+        <v>120355465000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-20T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>12414991226000</v>
+      </c>
+      <c r="L108">
+        <v>767393300</v>
+      </c>
+      <c r="M108">
+        <v>3647800</v>
+      </c>
+      <c r="N108">
+        <v>76382365000</v>
+      </c>
+      <c r="O108">
+        <v>-146759100</v>
+      </c>
+      <c r="P108">
+        <v>-2057112047000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671545760000</v>
+      </c>
+      <c r="B109">
+        <v>1538500</v>
+      </c>
+      <c r="C109">
+        <v>7624300</v>
+      </c>
+      <c r="D109">
+        <v>53800</v>
+      </c>
+      <c r="E109">
+        <v>24511373000</v>
+      </c>
+      <c r="F109">
+        <v>147972025000</v>
+      </c>
+      <c r="G109">
+        <v>995082000</v>
+      </c>
+      <c r="H109">
+        <v>9216600</v>
+      </c>
+      <c r="I109">
+        <v>173478480000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-20T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>12588469706000</v>
+      </c>
+      <c r="L109">
+        <v>776609900</v>
+      </c>
+      <c r="M109">
+        <v>6085800</v>
+      </c>
+      <c r="N109">
+        <v>123460652000</v>
+      </c>
+      <c r="O109">
+        <v>-140673300</v>
+      </c>
+      <c r="P109">
+        <v>-1933651395000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671545880000</v>
+      </c>
+      <c r="B110">
+        <v>2209100</v>
+      </c>
+      <c r="C110">
+        <v>11105900</v>
+      </c>
+      <c r="D110">
+        <v>103200</v>
+      </c>
+      <c r="E110">
+        <v>35367815000</v>
+      </c>
+      <c r="F110">
+        <v>190198920000</v>
+      </c>
+      <c r="G110">
+        <v>2030381000</v>
+      </c>
+      <c r="H110">
+        <v>13418200</v>
+      </c>
+      <c r="I110">
+        <v>227597116000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-20T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>12816066822000</v>
+      </c>
+      <c r="L110">
+        <v>790028100</v>
+      </c>
+      <c r="M110">
+        <v>8896800</v>
+      </c>
+      <c r="N110">
+        <v>154831105000</v>
+      </c>
+      <c r="O110">
+        <v>-131776500</v>
+      </c>
+      <c r="P110">
+        <v>-1778820290000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671546000000</v>
+      </c>
+      <c r="B111">
+        <v>3144500</v>
+      </c>
+      <c r="C111">
+        <v>18090000</v>
+      </c>
+      <c r="D111">
+        <v>171600</v>
+      </c>
+      <c r="E111">
+        <v>51225798000</v>
+      </c>
+      <c r="F111">
+        <v>299360734000</v>
+      </c>
+      <c r="G111">
+        <v>3349865000</v>
+      </c>
+      <c r="H111">
+        <v>21406100</v>
+      </c>
+      <c r="I111">
+        <v>353936397000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-20T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>13170003219000</v>
+      </c>
+      <c r="L111">
+        <v>811434200</v>
+      </c>
+      <c r="M111">
+        <v>14945500</v>
+      </c>
+      <c r="N111">
+        <v>248134936000</v>
+      </c>
+      <c r="O111">
+        <v>-116831000</v>
+      </c>
+      <c r="P111">
+        <v>-1530685354000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671546120000</v>
+      </c>
+      <c r="B112">
+        <v>7001000</v>
+      </c>
+      <c r="C112">
+        <v>8557200</v>
+      </c>
+      <c r="D112">
+        <v>55000</v>
+      </c>
+      <c r="E112">
+        <v>112206826000</v>
+      </c>
+      <c r="F112">
+        <v>144775051000</v>
+      </c>
+      <c r="G112">
+        <v>1089950000</v>
+      </c>
+      <c r="H112">
+        <v>15613200</v>
+      </c>
+      <c r="I112">
+        <v>258071827000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-20T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>13428075046000</v>
+      </c>
+      <c r="L112">
+        <v>827047400</v>
+      </c>
+      <c r="M112">
+        <v>1556200</v>
+      </c>
+      <c r="N112">
+        <v>32568225000</v>
+      </c>
+      <c r="O112">
+        <v>-115274800</v>
+      </c>
+      <c r="P112">
+        <v>-1498117129000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671546240000</v>
+      </c>
+      <c r="B113">
+        <v>7868000</v>
+      </c>
+      <c r="C113">
+        <v>3862100</v>
+      </c>
+      <c r="D113">
+        <v>79600</v>
+      </c>
+      <c r="E113">
+        <v>130334980000</v>
+      </c>
+      <c r="F113">
+        <v>74149444000</v>
+      </c>
+      <c r="G113">
+        <v>1382779000</v>
+      </c>
+      <c r="H113">
+        <v>11809700</v>
+      </c>
+      <c r="I113">
+        <v>205867203000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-20T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>13633942249000</v>
+      </c>
+      <c r="L113">
+        <v>838857100</v>
+      </c>
+      <c r="M113">
+        <v>-4005900</v>
+      </c>
+      <c r="N113">
+        <v>-56185536000</v>
+      </c>
+      <c r="O113">
+        <v>-119280700</v>
+      </c>
+      <c r="P113">
+        <v>-1554302665000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671546360000</v>
+      </c>
+      <c r="B114">
+        <v>7191800</v>
+      </c>
+      <c r="C114">
+        <v>4241900</v>
+      </c>
+      <c r="D114">
+        <v>106100</v>
+      </c>
+      <c r="E114">
+        <v>114325614000</v>
+      </c>
+      <c r="F114">
+        <v>86202553000</v>
+      </c>
+      <c r="G114">
+        <v>1733435000</v>
+      </c>
+      <c r="H114">
+        <v>11539800</v>
+      </c>
+      <c r="I114">
+        <v>202261602000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-20T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>13836203851000</v>
+      </c>
+      <c r="L114">
+        <v>850396900</v>
+      </c>
+      <c r="M114">
+        <v>-2949900</v>
+      </c>
+      <c r="N114">
+        <v>-28123061000</v>
+      </c>
+      <c r="O114">
+        <v>-122230600</v>
+      </c>
+      <c r="P114">
+        <v>-1582425726000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671546480000</v>
+      </c>
+      <c r="B115">
+        <v>5834200</v>
+      </c>
+      <c r="C115">
+        <v>5683700</v>
+      </c>
+      <c r="D115">
+        <v>177200</v>
+      </c>
+      <c r="E115">
+        <v>79892795000</v>
+      </c>
+      <c r="F115">
+        <v>91540020000</v>
+      </c>
+      <c r="G115">
+        <v>2282315000</v>
+      </c>
+      <c r="H115">
+        <v>11695100</v>
+      </c>
+      <c r="I115">
+        <v>173715130000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-20T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>14009918981000</v>
+      </c>
+      <c r="L115">
+        <v>862092000</v>
+      </c>
+      <c r="M115">
+        <v>-150500</v>
+      </c>
+      <c r="N115">
+        <v>11647225000</v>
+      </c>
+      <c r="O115">
+        <v>-122381100</v>
+      </c>
+      <c r="P115">
+        <v>-1570778501000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671546600000</v>
+      </c>
+      <c r="B116">
+        <v>16000</v>
+      </c>
+      <c r="C116">
+        <v>12000</v>
+      </c>
+      <c r="D116">
+        <v>500</v>
+      </c>
+      <c r="E116">
+        <v>226175000</v>
+      </c>
+      <c r="F116">
+        <v>145857000</v>
+      </c>
+      <c r="G116">
+        <v>5050000</v>
+      </c>
+      <c r="H116">
+        <v>28500</v>
+      </c>
+      <c r="I116">
+        <v>377082000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-20T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>14010296063000</v>
+      </c>
+      <c r="L116">
+        <v>862120500</v>
+      </c>
+      <c r="M116">
+        <v>-4000</v>
+      </c>
+      <c r="N116">
+        <v>-80318000</v>
+      </c>
+      <c r="O116">
+        <v>-122385100</v>
+      </c>
+      <c r="P116">
+        <v>-1570858819000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671546960000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1010000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="I117">
+        <v>1010000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-20T14:36:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>14010297073000</v>
+      </c>
+      <c r="L117">
+        <v>862120600</v>
+      </c>
+      <c r="M117">
+        <v>100</v>
+      </c>
+      <c r="N117">
+        <v>1010000</v>
+      </c>
+      <c r="O117">
+        <v>-122385000</v>
+      </c>
+      <c r="P117">
+        <v>-1570857809000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671547080000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1000</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>10100000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1000</v>
+      </c>
+      <c r="I118">
+        <v>10100000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-20T14:38:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>14010307173000</v>
+      </c>
+      <c r="L118">
+        <v>862121600</v>
+      </c>
+      <c r="M118">
+        <v>1000</v>
+      </c>
+      <c r="N118">
+        <v>10100000</v>
+      </c>
+      <c r="O118">
+        <v>-122384000</v>
+      </c>
+      <c r="P118">
+        <v>-1570847709000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671547320000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>3100</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>31310000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>3100</v>
+      </c>
+      <c r="I119">
+        <v>31310000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-20T14:42:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>14010338483000</v>
+      </c>
+      <c r="L119">
+        <v>862124700</v>
+      </c>
+      <c r="M119">
+        <v>3100</v>
+      </c>
+      <c r="N119">
+        <v>31310000</v>
+      </c>
+      <c r="O119">
+        <v>-122380900</v>
+      </c>
+      <c r="P119">
+        <v>-1570816399000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671547440000</v>
+      </c>
+      <c r="B120">
+        <v>4003200</v>
+      </c>
+      <c r="C120">
+        <v>3394900</v>
+      </c>
+      <c r="D120">
+        <v>32345800</v>
+      </c>
+      <c r="E120">
+        <v>41743726000</v>
+      </c>
+      <c r="F120">
+        <v>56265710000</v>
+      </c>
+      <c r="G120">
+        <v>640849047000</v>
+      </c>
+      <c r="H120">
+        <v>39743900</v>
+      </c>
+      <c r="I120">
+        <v>738858483000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-20T14:44:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>14749196966000</v>
+      </c>
+      <c r="L120">
+        <v>901868600</v>
+      </c>
+      <c r="M120">
+        <v>-608300</v>
+      </c>
+      <c r="N120">
+        <v>14521984000</v>
+      </c>
+      <c r="O120">
+        <v>-122989200</v>
+      </c>
+      <c r="P120">
+        <v>-1556294415000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671547560000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>800</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>8080000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>800</v>
+      </c>
+      <c r="I121">
+        <v>8080000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-20T14:46:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>14749205046000</v>
+      </c>
+      <c r="L121">
+        <v>901869400</v>
+      </c>
+      <c r="M121">
+        <v>800</v>
+      </c>
+      <c r="N121">
+        <v>8080000</v>
+      </c>
+      <c r="O121">
+        <v>-122988400</v>
+      </c>
+      <c r="P121">
+        <v>-1556286335000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1671547800000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>3800</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>38380000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>3800</v>
+      </c>
+      <c r="I122">
+        <v>38380000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-20T14:50:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>14749243426000</v>
+      </c>
+      <c r="L122">
+        <v>901873200</v>
+      </c>
+      <c r="M122">
+        <v>3800</v>
+      </c>
+      <c r="N122">
+        <v>38380000</v>
+      </c>
+      <c r="O122">
+        <v>-122984600</v>
+      </c>
+      <c r="P122">
+        <v>-1556247955000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1671547920000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1600</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>16160000</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1600</v>
+      </c>
+      <c r="I123">
+        <v>16160000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-20T14:52:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>14749259586000</v>
+      </c>
+      <c r="L123">
+        <v>901874800</v>
+      </c>
+      <c r="M123">
+        <v>1600</v>
+      </c>
+      <c r="N123">
+        <v>16160000</v>
+      </c>
+      <c r="O123">
+        <v>-122983000</v>
+      </c>
+      <c r="P123">
+        <v>-1556231795000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1671548040000</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
         <v>4300</v>
       </c>
-      <c r="D53">
+      <c r="D124">
         <v>300</v>
       </c>
-      <c r="E53">
+      <c r="E124">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F124">
         <v>43430000</v>
       </c>
-      <c r="G53">
+      <c r="G124">
         <v>3030000</v>
       </c>
-      <c r="H53">
+      <c r="H124">
         <v>4600</v>
       </c>
-      <c r="I53">
+      <c r="I124">
         <v>46460000</v>
       </c>
-      <c r="J53" t="str">
-        <v>2022-12-20T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="J124" t="str">
+        <v>2022-12-20T14:54:00.000Z</v>
+      </c>
+      <c r="K124">
         <v>14749306046000</v>
       </c>
-      <c r="L53">
+      <c r="L124">
         <v>901879400</v>
       </c>
-      <c r="M53">
+      <c r="M124">
         <v>4300</v>
       </c>
-      <c r="N53">
+      <c r="N124">
         <v>43430000</v>
       </c>
-      <c r="O53">
+      <c r="O124">
         <v>-122978700</v>
       </c>
-      <c r="P53">
+      <c r="P124">
         <v>-1556188365000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P124"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
+++ b/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
@@ -466,25 +466,25 @@
         <v>2215600</v>
       </c>
       <c r="E2">
-        <v>79641391000</v>
+        <v>55539916600</v>
       </c>
       <c r="F2">
-        <v>57781616000</v>
+        <v>52121282000</v>
       </c>
       <c r="G2">
-        <v>35294560000</v>
+        <v>34862692300</v>
       </c>
       <c r="H2">
         <v>9962200</v>
       </c>
       <c r="I2">
-        <v>172717567000</v>
+        <v>142523890900</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-20T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>172717567000</v>
+        <v>142523890900</v>
       </c>
       <c r="L2">
         <v>9962200</v>
@@ -493,13 +493,13 @@
         <v>-670600</v>
       </c>
       <c r="N2">
-        <v>-21859775000</v>
+        <v>-3418634600</v>
       </c>
       <c r="O2">
         <v>-670600</v>
       </c>
       <c r="P2">
-        <v>-21859775000</v>
+        <v>-3418634600</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>32600</v>
       </c>
       <c r="E3">
-        <v>38283752000</v>
+        <v>32713427900</v>
       </c>
       <c r="F3">
-        <v>51184613000</v>
+        <v>48871028900</v>
       </c>
       <c r="G3">
-        <v>547685000</v>
+        <v>538094600</v>
       </c>
       <c r="H3">
         <v>5062400</v>
       </c>
       <c r="I3">
-        <v>90016050000</v>
+        <v>82122551400</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-20T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>262733617000</v>
+        <v>224646442300</v>
       </c>
       <c r="L3">
         <v>15024600</v>
@@ -543,13 +543,13 @@
         <v>882400</v>
       </c>
       <c r="N3">
-        <v>12900861000</v>
+        <v>16157601000</v>
       </c>
       <c r="O3">
         <v>211800</v>
       </c>
       <c r="P3">
-        <v>-8958914000</v>
+        <v>12738966400</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>59100</v>
       </c>
       <c r="E4">
-        <v>74671615000</v>
+        <v>63095203000</v>
       </c>
       <c r="F4">
-        <v>37978760000</v>
+        <v>35713527500</v>
       </c>
       <c r="G4">
-        <v>1154183000</v>
+        <v>1061276000</v>
       </c>
       <c r="H4">
         <v>6494800</v>
       </c>
       <c r="I4">
-        <v>113804558000</v>
+        <v>99870006500</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-20T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>376538175000</v>
+        <v>324516448800</v>
       </c>
       <c r="L4">
         <v>21519400</v>
@@ -593,13 +593,13 @@
         <v>-1948500</v>
       </c>
       <c r="N4">
-        <v>-36692855000</v>
+        <v>-27381675500</v>
       </c>
       <c r="O4">
         <v>-1736700</v>
       </c>
       <c r="P4">
-        <v>-45651769000</v>
+        <v>-14642709100</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>22800</v>
       </c>
       <c r="E5">
-        <v>74909887000</v>
+        <v>67726477600</v>
       </c>
       <c r="F5">
-        <v>37056605000</v>
+        <v>33105360200</v>
       </c>
       <c r="G5">
-        <v>309217000</v>
+        <v>298228000</v>
       </c>
       <c r="H5">
         <v>6911000</v>
       </c>
       <c r="I5">
-        <v>112275709000</v>
+        <v>101130065800</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-20T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>488813884000</v>
+        <v>425646514600</v>
       </c>
       <c r="L5">
         <v>28430400</v>
@@ -643,13 +643,13 @@
         <v>-2472600</v>
       </c>
       <c r="N5">
-        <v>-37853282000</v>
+        <v>-34621117400</v>
       </c>
       <c r="O5">
         <v>-4209300</v>
       </c>
       <c r="P5">
-        <v>-83505051000</v>
+        <v>-49263826500</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>15300</v>
       </c>
       <c r="E6">
-        <v>48253850000</v>
+        <v>43368440300</v>
       </c>
       <c r="F6">
-        <v>59100870000</v>
+        <v>55327647000</v>
       </c>
       <c r="G6">
         <v>305085000</v>
@@ -678,13 +678,13 @@
         <v>6260600</v>
       </c>
       <c r="I6">
-        <v>107659805000</v>
+        <v>99001172300</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-20T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>596473689000</v>
+        <v>524647686900</v>
       </c>
       <c r="L6">
         <v>34691000</v>
@@ -693,13 +693,13 @@
         <v>524300</v>
       </c>
       <c r="N6">
-        <v>10847020000</v>
+        <v>11959206700</v>
       </c>
       <c r="O6">
         <v>-3685000</v>
       </c>
       <c r="P6">
-        <v>-72658031000</v>
+        <v>-37304619800</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>62700</v>
       </c>
       <c r="E7">
-        <v>39689712000</v>
+        <v>34380926100</v>
       </c>
       <c r="F7">
-        <v>60381593000</v>
+        <v>51707375900</v>
       </c>
       <c r="G7">
         <v>1125645000</v>
@@ -728,13 +728,13 @@
         <v>6187600</v>
       </c>
       <c r="I7">
-        <v>101196950000</v>
+        <v>87213947000</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-20T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>697670639000</v>
+        <v>611861633900</v>
       </c>
       <c r="L7">
         <v>40878600</v>
@@ -743,13 +743,13 @@
         <v>1045700</v>
       </c>
       <c r="N7">
-        <v>20691881000</v>
+        <v>17326449800</v>
       </c>
       <c r="O7">
         <v>-2639300</v>
       </c>
       <c r="P7">
-        <v>-51966150000</v>
+        <v>-19978170000</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>37200</v>
       </c>
       <c r="E8">
-        <v>19139168000</v>
+        <v>17886222200</v>
       </c>
       <c r="F8">
-        <v>60019057000</v>
+        <v>57059919100</v>
       </c>
       <c r="G8">
         <v>612460000</v>
@@ -778,13 +778,13 @@
         <v>5001600</v>
       </c>
       <c r="I8">
-        <v>79770685000</v>
+        <v>75558601300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-20T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>777441324000</v>
+        <v>687420235200</v>
       </c>
       <c r="L8">
         <v>45880200</v>
@@ -793,13 +793,13 @@
         <v>2506200</v>
       </c>
       <c r="N8">
-        <v>40879889000</v>
+        <v>39173696900</v>
       </c>
       <c r="O8">
         <v>-133100</v>
       </c>
       <c r="P8">
-        <v>-11086261000</v>
+        <v>19195526900</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>18400</v>
       </c>
       <c r="E9">
-        <v>31832818000</v>
+        <v>28626727300</v>
       </c>
       <c r="F9">
-        <v>62809968000</v>
+        <v>51637851300</v>
       </c>
       <c r="G9">
         <v>204863000</v>
@@ -828,13 +828,13 @@
         <v>5787100</v>
       </c>
       <c r="I9">
-        <v>94847649000</v>
+        <v>80469441600</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-20T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>872288973000</v>
+        <v>767889676800</v>
       </c>
       <c r="L9">
         <v>51667300</v>
@@ -843,13 +843,13 @@
         <v>1983700</v>
       </c>
       <c r="N9">
-        <v>30977150000</v>
+        <v>23011124000</v>
       </c>
       <c r="O9">
         <v>1850600</v>
       </c>
       <c r="P9">
-        <v>19890889000</v>
+        <v>42206650900</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>3500</v>
       </c>
       <c r="E10">
-        <v>33317348000</v>
+        <v>31024742900</v>
       </c>
       <c r="F10">
-        <v>44263537000</v>
+        <v>43201400200</v>
       </c>
       <c r="G10">
         <v>76928000</v>
@@ -878,13 +878,13 @@
         <v>4764500</v>
       </c>
       <c r="I10">
-        <v>77657813000</v>
+        <v>74303071100</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-20T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>949946786000</v>
+        <v>842192747900</v>
       </c>
       <c r="L10">
         <v>56431800</v>
@@ -893,13 +893,13 @@
         <v>971400</v>
       </c>
       <c r="N10">
-        <v>10946189000</v>
+        <v>12176657300</v>
       </c>
       <c r="O10">
         <v>2822000</v>
       </c>
       <c r="P10">
-        <v>30837078000</v>
+        <v>54383308200</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>23300</v>
       </c>
       <c r="E11">
-        <v>58739520000</v>
+        <v>51114053100</v>
       </c>
       <c r="F11">
-        <v>25689023000</v>
+        <v>24656556500</v>
       </c>
       <c r="G11">
         <v>445860000</v>
@@ -928,13 +928,13 @@
         <v>5462800</v>
       </c>
       <c r="I11">
-        <v>84874403000</v>
+        <v>76216469600</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-20T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1034821189000</v>
+        <v>918409217500</v>
       </c>
       <c r="L11">
         <v>61894600</v>
@@ -943,13 +943,13 @@
         <v>-1998900</v>
       </c>
       <c r="N11">
-        <v>-33050497000</v>
+        <v>-26457496600</v>
       </c>
       <c r="O11">
         <v>823100</v>
       </c>
       <c r="P11">
-        <v>-2213419000</v>
+        <v>27925811600</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>9500</v>
       </c>
       <c r="E12">
-        <v>68026640000</v>
+        <v>62567904200</v>
       </c>
       <c r="F12">
-        <v>27552665000</v>
+        <v>25549470200</v>
       </c>
       <c r="G12">
         <v>75148000</v>
@@ -978,13 +978,13 @@
         <v>5690500</v>
       </c>
       <c r="I12">
-        <v>95654453000</v>
+        <v>88192522400</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-20T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1130475642000</v>
+        <v>1006601739900</v>
       </c>
       <c r="L12">
         <v>67585100</v>
@@ -993,13 +993,13 @@
         <v>-2452800</v>
       </c>
       <c r="N12">
-        <v>-40473975000</v>
+        <v>-37018434000</v>
       </c>
       <c r="O12">
         <v>-1629700</v>
       </c>
       <c r="P12">
-        <v>-42687394000</v>
+        <v>-9092622400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>108300</v>
       </c>
       <c r="E13">
-        <v>76110710000</v>
+        <v>70780845200</v>
       </c>
       <c r="F13">
-        <v>19987901000</v>
+        <v>16159633100</v>
       </c>
       <c r="G13">
         <v>1562920000</v>
@@ -1028,13 +1028,13 @@
         <v>5994900</v>
       </c>
       <c r="I13">
-        <v>97661531000</v>
+        <v>88503398300</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-20T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1228137173000</v>
+        <v>1095105138200</v>
       </c>
       <c r="L13">
         <v>73580000</v>
@@ -1043,13 +1043,13 @@
         <v>-3421600</v>
       </c>
       <c r="N13">
-        <v>-56122809000</v>
+        <v>-54621212100</v>
       </c>
       <c r="O13">
         <v>-5051300</v>
       </c>
       <c r="P13">
-        <v>-98810203000</v>
+        <v>-63713834500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>14500</v>
       </c>
       <c r="E14">
-        <v>82877695000</v>
+        <v>77830846900</v>
       </c>
       <c r="F14">
-        <v>17684774000</v>
+        <v>16824635000</v>
       </c>
       <c r="G14">
         <v>367825000</v>
@@ -1078,13 +1078,13 @@
         <v>5894900</v>
       </c>
       <c r="I14">
-        <v>100930294000</v>
+        <v>95023306900</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-20T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1329067467000</v>
+        <v>1190128445100</v>
       </c>
       <c r="L14">
         <v>79474900</v>
@@ -1093,13 +1093,13 @@
         <v>-3855800</v>
       </c>
       <c r="N14">
-        <v>-65192921000</v>
+        <v>-61006211900</v>
       </c>
       <c r="O14">
         <v>-8907100</v>
       </c>
       <c r="P14">
-        <v>-164003124000</v>
+        <v>-124720046400</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>71900</v>
       </c>
       <c r="E15">
-        <v>71310882000</v>
+        <v>65645153400</v>
       </c>
       <c r="F15">
-        <v>37924688000</v>
+        <v>35147667800</v>
       </c>
       <c r="G15">
         <v>1395487000</v>
@@ -1128,13 +1128,13 @@
         <v>6451700</v>
       </c>
       <c r="I15">
-        <v>110631057000</v>
+        <v>102188308200</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-20T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1439698524000</v>
+        <v>1292316753300</v>
       </c>
       <c r="L15">
         <v>85926600</v>
@@ -1143,13 +1143,13 @@
         <v>-2460800</v>
       </c>
       <c r="N15">
-        <v>-33386194000</v>
+        <v>-30497485600</v>
       </c>
       <c r="O15">
         <v>-11367900</v>
       </c>
       <c r="P15">
-        <v>-197389318000</v>
+        <v>-155217532000</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>9400</v>
       </c>
       <c r="E16">
-        <v>50629376000</v>
+        <v>42227386400</v>
       </c>
       <c r="F16">
-        <v>44878216000</v>
+        <v>42361535200</v>
       </c>
       <c r="G16">
-        <v>199975000</v>
+        <v>145030000</v>
       </c>
       <c r="H16">
         <v>5483500</v>
       </c>
       <c r="I16">
-        <v>95707567000</v>
+        <v>84733951600</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-20T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1535406091000</v>
+        <v>1377050704900</v>
       </c>
       <c r="L16">
         <v>91410100</v>
@@ -1193,13 +1193,13 @@
         <v>-107900</v>
       </c>
       <c r="N16">
-        <v>-5751160000</v>
+        <v>134148800</v>
       </c>
       <c r="O16">
         <v>-11475800</v>
       </c>
       <c r="P16">
-        <v>-203140478000</v>
+        <v>-155083383200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>66700</v>
       </c>
       <c r="E17">
-        <v>34546852000</v>
+        <v>29987815600</v>
       </c>
       <c r="F17">
-        <v>37142303000</v>
+        <v>36027518900</v>
       </c>
       <c r="G17">
         <v>1267340000</v>
@@ -1228,13 +1228,13 @@
         <v>4102700</v>
       </c>
       <c r="I17">
-        <v>72956495000</v>
+        <v>67282674500</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-20T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1608362586000</v>
+        <v>1444333379400</v>
       </c>
       <c r="L17">
         <v>95512800</v>
@@ -1243,13 +1243,13 @@
         <v>429400</v>
       </c>
       <c r="N17">
-        <v>2595451000</v>
+        <v>6039703300</v>
       </c>
       <c r="O17">
         <v>-11046400</v>
       </c>
       <c r="P17">
-        <v>-200545027000</v>
+        <v>-149043679900</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>10000</v>
       </c>
       <c r="E18">
-        <v>37050350000</v>
+        <v>35301900200</v>
       </c>
       <c r="F18">
-        <v>24339248000</v>
+        <v>17575218800</v>
       </c>
       <c r="G18">
         <v>171582000</v>
@@ -1278,13 +1278,13 @@
         <v>3549000</v>
       </c>
       <c r="I18">
-        <v>61561180000</v>
+        <v>53048701000</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-20T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1669923766000</v>
+        <v>1497382080400</v>
       </c>
       <c r="L18">
         <v>99061800</v>
@@ -1293,13 +1293,13 @@
         <v>-767800</v>
       </c>
       <c r="N18">
-        <v>-12711102000</v>
+        <v>-17726681400</v>
       </c>
       <c r="O18">
         <v>-11814200</v>
       </c>
       <c r="P18">
-        <v>-213256129000</v>
+        <v>-166770361300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>5500</v>
       </c>
       <c r="E19">
-        <v>61029251000</v>
+        <v>51079510700</v>
       </c>
       <c r="F19">
-        <v>34373047000</v>
+        <v>33154067200</v>
       </c>
       <c r="G19">
         <v>159305000</v>
@@ -1328,13 +1328,13 @@
         <v>5706300</v>
       </c>
       <c r="I19">
-        <v>95561603000</v>
+        <v>84392882900</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-20T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1765485369000</v>
+        <v>1581774963300</v>
       </c>
       <c r="L19">
         <v>104768100</v>
@@ -1343,13 +1343,13 @@
         <v>-1806800</v>
       </c>
       <c r="N19">
-        <v>-26656204000</v>
+        <v>-17925443500</v>
       </c>
       <c r="O19">
         <v>-13621000</v>
       </c>
       <c r="P19">
-        <v>-239912333000</v>
+        <v>-184695804800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>45600</v>
       </c>
       <c r="E20">
-        <v>60933965000</v>
+        <v>51581526800</v>
       </c>
       <c r="F20">
-        <v>23205613000</v>
+        <v>19531990300</v>
       </c>
       <c r="G20">
-        <v>794338000</v>
+        <v>529403200</v>
       </c>
       <c r="H20">
         <v>5112700</v>
       </c>
       <c r="I20">
-        <v>84933916000</v>
+        <v>71642920300</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-20T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1850419285000</v>
+        <v>1653417883600</v>
       </c>
       <c r="L20">
         <v>109880800</v>
@@ -1393,13 +1393,13 @@
         <v>-2655500</v>
       </c>
       <c r="N20">
-        <v>-37728352000</v>
+        <v>-32049536500</v>
       </c>
       <c r="O20">
         <v>-16276500</v>
       </c>
       <c r="P20">
-        <v>-277640685000</v>
+        <v>-216745341300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>39900</v>
       </c>
       <c r="E21">
-        <v>131677683000</v>
+        <v>120429242700</v>
       </c>
       <c r="F21">
-        <v>19138408000</v>
+        <v>15390559600</v>
       </c>
       <c r="G21">
-        <v>534672000</v>
+        <v>526979700</v>
       </c>
       <c r="H21">
         <v>9453100</v>
       </c>
       <c r="I21">
-        <v>151350763000</v>
+        <v>136346782000</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-20T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2001770048000</v>
+        <v>1789764665600</v>
       </c>
       <c r="L21">
         <v>119333900</v>
@@ -1443,13 +1443,13 @@
         <v>-7328600</v>
       </c>
       <c r="N21">
-        <v>-112539275000</v>
+        <v>-105038683100</v>
       </c>
       <c r="O21">
         <v>-23605100</v>
       </c>
       <c r="P21">
-        <v>-390179960000</v>
+        <v>-321784024400</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>43800</v>
       </c>
       <c r="E22">
-        <v>140406470000</v>
+        <v>127434255200</v>
       </c>
       <c r="F22">
-        <v>28426529000</v>
+        <v>27151904900</v>
       </c>
       <c r="G22">
-        <v>1176727000</v>
+        <v>1172531200</v>
       </c>
       <c r="H22">
         <v>10416700</v>
       </c>
       <c r="I22">
-        <v>170009726000</v>
+        <v>155758691300</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-20T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2171779774000</v>
+        <v>1945523356900</v>
       </c>
       <c r="L22">
         <v>129750600</v>
@@ -1493,13 +1493,13 @@
         <v>-6842700</v>
       </c>
       <c r="N22">
-        <v>-111979941000</v>
+        <v>-100282350300</v>
       </c>
       <c r="O22">
         <v>-30447800</v>
       </c>
       <c r="P22">
-        <v>-502159901000</v>
+        <v>-422066374700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>104300</v>
       </c>
       <c r="E23">
-        <v>134348901000</v>
+        <v>123244216800</v>
       </c>
       <c r="F23">
-        <v>52432143000</v>
+        <v>49475602500</v>
       </c>
       <c r="G23">
-        <v>1860443000</v>
+        <v>1800503000</v>
       </c>
       <c r="H23">
         <v>10695300</v>
       </c>
       <c r="I23">
-        <v>188641487000</v>
+        <v>174520322300</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-20T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2360421261000</v>
+        <v>2120043679200</v>
       </c>
       <c r="L23">
         <v>140445900</v>
@@ -1543,13 +1543,13 @@
         <v>-5061200</v>
       </c>
       <c r="N23">
-        <v>-81916758000</v>
+        <v>-73768614300</v>
       </c>
       <c r="O23">
         <v>-35509000</v>
       </c>
       <c r="P23">
-        <v>-584076659000</v>
+        <v>-495834989000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>113900</v>
       </c>
       <c r="E24">
-        <v>67400106000</v>
+        <v>58233981300</v>
       </c>
       <c r="F24">
-        <v>61288840000</v>
+        <v>53106430600</v>
       </c>
       <c r="G24">
-        <v>1495744000</v>
+        <v>1386053800</v>
       </c>
       <c r="H24">
         <v>8258600</v>
       </c>
       <c r="I24">
-        <v>130184690000</v>
+        <v>112726465700</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-20T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2490605951000</v>
+        <v>2232770144900</v>
       </c>
       <c r="L24">
         <v>148704500</v>
@@ -1593,13 +1593,13 @@
         <v>-1042100</v>
       </c>
       <c r="N24">
-        <v>-6111266000</v>
+        <v>-5127550700</v>
       </c>
       <c r="O24">
         <v>-36551100</v>
       </c>
       <c r="P24">
-        <v>-590187925000</v>
+        <v>-500962539700</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>21000</v>
       </c>
       <c r="E25">
-        <v>37226899000</v>
+        <v>33692536900</v>
       </c>
       <c r="F25">
-        <v>49237904000</v>
+        <v>46663181300</v>
       </c>
       <c r="G25">
         <v>599946000</v>
@@ -1628,13 +1628,13 @@
         <v>4636000</v>
       </c>
       <c r="I25">
-        <v>87064749000</v>
+        <v>80955664200</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-20T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2577670700000</v>
+        <v>2313725809100</v>
       </c>
       <c r="L25">
         <v>153340500</v>
@@ -1643,13 +1643,13 @@
         <v>799200</v>
       </c>
       <c r="N25">
-        <v>12011005000</v>
+        <v>12970644400</v>
       </c>
       <c r="O25">
         <v>-35751900</v>
       </c>
       <c r="P25">
-        <v>-578176920000</v>
+        <v>-487991895300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>4100</v>
       </c>
       <c r="E26">
-        <v>34254325000</v>
+        <v>27263023300</v>
       </c>
       <c r="F26">
-        <v>37972627000</v>
+        <v>32926078600</v>
       </c>
       <c r="G26">
         <v>30831000</v>
@@ -1678,13 +1678,13 @@
         <v>3944200</v>
       </c>
       <c r="I26">
-        <v>72257783000</v>
+        <v>60219932900</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-20T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2649928483000</v>
+        <v>2373945742000</v>
       </c>
       <c r="L26">
         <v>157284700</v>
@@ -1693,13 +1693,13 @@
         <v>225500</v>
       </c>
       <c r="N26">
-        <v>3718302000</v>
+        <v>5663055300</v>
       </c>
       <c r="O26">
         <v>-35526400</v>
       </c>
       <c r="P26">
-        <v>-574458618000</v>
+        <v>-482328840000</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>27400</v>
       </c>
       <c r="E27">
-        <v>60975134000</v>
+        <v>45744779600</v>
       </c>
       <c r="F27">
-        <v>17280896000</v>
+        <v>15379799000</v>
       </c>
       <c r="G27">
-        <v>497647000</v>
+        <v>366877900</v>
       </c>
       <c r="H27">
         <v>4736000</v>
       </c>
       <c r="I27">
-        <v>78753677000</v>
+        <v>61491456500</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-20T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2728682160000</v>
+        <v>2435437198500</v>
       </c>
       <c r="L27">
         <v>162020700</v>
@@ -1743,13 +1743,13 @@
         <v>-2689400</v>
       </c>
       <c r="N27">
-        <v>-43694238000</v>
+        <v>-30364980600</v>
       </c>
       <c r="O27">
         <v>-38215800</v>
       </c>
       <c r="P27">
-        <v>-618152856000</v>
+        <v>-512693820600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>41800</v>
       </c>
       <c r="E28">
-        <v>51082365000</v>
+        <v>47543007900</v>
       </c>
       <c r="F28">
-        <v>26026865000</v>
+        <v>23844649400</v>
       </c>
       <c r="G28">
         <v>817172000</v>
@@ -1778,13 +1778,13 @@
         <v>4629800</v>
       </c>
       <c r="I28">
-        <v>77926402000</v>
+        <v>72204829300</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-20T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2806608562000</v>
+        <v>2507642027800</v>
       </c>
       <c r="L28">
         <v>166650500</v>
@@ -1793,13 +1793,13 @@
         <v>-1647600</v>
       </c>
       <c r="N28">
-        <v>-25055500000</v>
+        <v>-23698358500</v>
       </c>
       <c r="O28">
         <v>-39863400</v>
       </c>
       <c r="P28">
-        <v>-643208356000</v>
+        <v>-536392179100</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>12100</v>
       </c>
       <c r="E29">
-        <v>58783305000</v>
+        <v>55692299100</v>
       </c>
       <c r="F29">
-        <v>24823627000</v>
+        <v>21850103500</v>
       </c>
       <c r="G29">
-        <v>204587000</v>
+        <v>59032700</v>
       </c>
       <c r="H29">
         <v>5134500</v>
       </c>
       <c r="I29">
-        <v>83811519000</v>
+        <v>77601435300</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-20T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2890420081000</v>
+        <v>2585243463100</v>
       </c>
       <c r="L29">
         <v>171785000</v>
@@ -1843,13 +1843,13 @@
         <v>-2146800</v>
       </c>
       <c r="N29">
-        <v>-33959678000</v>
+        <v>-33842195600</v>
       </c>
       <c r="O29">
         <v>-42010200</v>
       </c>
       <c r="P29">
-        <v>-677168034000</v>
+        <v>-570234374700</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>56200</v>
       </c>
       <c r="E30">
-        <v>114755243000</v>
+        <v>108459944600</v>
       </c>
       <c r="F30">
-        <v>23929850000</v>
+        <v>21071711000</v>
       </c>
       <c r="G30">
-        <v>1039888000</v>
+        <v>1001426500</v>
       </c>
       <c r="H30">
         <v>8042100</v>
       </c>
       <c r="I30">
-        <v>139724981000</v>
+        <v>130533082100</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-20T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3030145062000</v>
+        <v>2715776545200</v>
       </c>
       <c r="L30">
         <v>179827100</v>
@@ -1893,13 +1893,13 @@
         <v>-5284300</v>
       </c>
       <c r="N30">
-        <v>-90825393000</v>
+        <v>-87388233600</v>
       </c>
       <c r="O30">
         <v>-47294500</v>
       </c>
       <c r="P30">
-        <v>-767993427000</v>
+        <v>-657622608300</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>15000</v>
       </c>
       <c r="E31">
-        <v>145094001000</v>
+        <v>131767241100</v>
       </c>
       <c r="F31">
-        <v>29182942000</v>
+        <v>27291735100</v>
       </c>
       <c r="G31">
-        <v>172391000</v>
+        <v>138225200</v>
       </c>
       <c r="H31">
         <v>11006600</v>
       </c>
       <c r="I31">
-        <v>174449334000</v>
+        <v>159197201400</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-20T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3204594396000</v>
+        <v>2874973746600</v>
       </c>
       <c r="L31">
         <v>190833700</v>
@@ -1943,13 +1943,13 @@
         <v>-7623800</v>
       </c>
       <c r="N31">
-        <v>-115911059000</v>
+        <v>-104475506000</v>
       </c>
       <c r="O31">
         <v>-54918300</v>
       </c>
       <c r="P31">
-        <v>-883904486000</v>
+        <v>-762098114300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>123100</v>
       </c>
       <c r="E32">
-        <v>107094220000</v>
+        <v>98724398200</v>
       </c>
       <c r="F32">
-        <v>46859420000</v>
+        <v>42686397200</v>
       </c>
       <c r="G32">
-        <v>2214969000</v>
+        <v>2212571400</v>
       </c>
       <c r="H32">
         <v>9658500</v>
       </c>
       <c r="I32">
-        <v>156168609000</v>
+        <v>143623366800</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-20T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3360763005000</v>
+        <v>3018597113400</v>
       </c>
       <c r="L32">
         <v>200492200</v>
@@ -1993,13 +1993,13 @@
         <v>-4291800</v>
       </c>
       <c r="N32">
-        <v>-60234800000</v>
+        <v>-56038001000</v>
       </c>
       <c r="O32">
         <v>-59210100</v>
       </c>
       <c r="P32">
-        <v>-944139286000</v>
+        <v>-818136115300</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>45600</v>
       </c>
       <c r="E33">
-        <v>81622346000</v>
+        <v>70300978700</v>
       </c>
       <c r="F33">
-        <v>86909444000</v>
+        <v>83870785700</v>
       </c>
       <c r="G33">
         <v>954637000</v>
@@ -2028,13 +2028,13 @@
         <v>9511800</v>
       </c>
       <c r="I33">
-        <v>169486427000</v>
+        <v>155126401400</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-20T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3530249432000</v>
+        <v>3173723514800</v>
       </c>
       <c r="L33">
         <v>210004000</v>
@@ -2043,13 +2043,13 @@
         <v>64800</v>
       </c>
       <c r="N33">
-        <v>5287098000</v>
+        <v>13569807000</v>
       </c>
       <c r="O33">
         <v>-59145300</v>
       </c>
       <c r="P33">
-        <v>-938852188000</v>
+        <v>-804566308300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>26300</v>
       </c>
       <c r="E34">
-        <v>40573237000</v>
+        <v>38132380300</v>
       </c>
       <c r="F34">
-        <v>66042225000</v>
+        <v>62548821900</v>
       </c>
       <c r="G34">
         <v>709691000</v>
@@ -2078,13 +2078,13 @@
         <v>6335300</v>
       </c>
       <c r="I34">
-        <v>107325153000</v>
+        <v>101390893200</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-20T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3637574585000</v>
+        <v>3275114408000</v>
       </c>
       <c r="L34">
         <v>216339300</v>
@@ -2093,13 +2093,13 @@
         <v>1535400</v>
       </c>
       <c r="N34">
-        <v>25468988000</v>
+        <v>24416441600</v>
       </c>
       <c r="O34">
         <v>-57609900</v>
       </c>
       <c r="P34">
-        <v>-913383200000</v>
+        <v>-780149866700</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>119700</v>
       </c>
       <c r="E35">
-        <v>64585979000</v>
+        <v>61644423500</v>
       </c>
       <c r="F35">
-        <v>33010345000</v>
+        <v>31705551100</v>
       </c>
       <c r="G35">
         <v>2406287000</v>
@@ -2128,13 +2128,13 @@
         <v>5759800</v>
       </c>
       <c r="I35">
-        <v>100002611000</v>
+        <v>95756261600</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-20T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3737577196000</v>
+        <v>3370870669600</v>
       </c>
       <c r="L35">
         <v>222099100</v>
@@ -2143,13 +2143,13 @@
         <v>-1799100</v>
       </c>
       <c r="N35">
-        <v>-31575634000</v>
+        <v>-29938872400</v>
       </c>
       <c r="O35">
         <v>-59409000</v>
       </c>
       <c r="P35">
-        <v>-944958834000</v>
+        <v>-810088739100</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>111900</v>
       </c>
       <c r="E36">
-        <v>121303513000</v>
+        <v>110297829700</v>
       </c>
       <c r="F36">
-        <v>22079197000</v>
+        <v>21133643500</v>
       </c>
       <c r="G36">
-        <v>2009418000</v>
+        <v>2005022400</v>
       </c>
       <c r="H36">
         <v>8476100</v>
       </c>
       <c r="I36">
-        <v>145392128000</v>
+        <v>133436495600</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-20T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3882969324000</v>
+        <v>3504307165200</v>
       </c>
       <c r="L36">
         <v>230575200</v>
@@ -2193,13 +2193,13 @@
         <v>-5785400</v>
       </c>
       <c r="N36">
-        <v>-99224316000</v>
+        <v>-89164186200</v>
       </c>
       <c r="O36">
         <v>-65194400</v>
       </c>
       <c r="P36">
-        <v>-1044183150000</v>
+        <v>-899252925300</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>37000</v>
       </c>
       <c r="E37">
-        <v>150804178000</v>
+        <v>120632979400</v>
       </c>
       <c r="F37">
-        <v>30824597000</v>
+        <v>27356568500</v>
       </c>
       <c r="G37">
-        <v>802718000</v>
+        <v>473547500</v>
       </c>
       <c r="H37">
         <v>11621000</v>
       </c>
       <c r="I37">
-        <v>182431493000</v>
+        <v>148463095400</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-20T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4065400817000</v>
+        <v>3652770260600</v>
       </c>
       <c r="L37">
         <v>242196200</v>
@@ -2243,13 +2243,13 @@
         <v>-8103400</v>
       </c>
       <c r="N37">
-        <v>-119979581000</v>
+        <v>-93276410900</v>
       </c>
       <c r="O37">
         <v>-73297800</v>
       </c>
       <c r="P37">
-        <v>-1164162731000</v>
+        <v>-992529336200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>59800</v>
       </c>
       <c r="E38">
-        <v>173353624000</v>
+        <v>135661653700</v>
       </c>
       <c r="F38">
-        <v>35206516000</v>
+        <v>31049976700</v>
       </c>
       <c r="G38">
-        <v>1401450000</v>
+        <v>1386165300</v>
       </c>
       <c r="H38">
         <v>12440400</v>
       </c>
       <c r="I38">
-        <v>209961590000</v>
+        <v>168097795700</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-20T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4275362407000</v>
+        <v>3820868056300</v>
       </c>
       <c r="L38">
         <v>254636600</v>
@@ -2293,13 +2293,13 @@
         <v>-8725800</v>
       </c>
       <c r="N38">
-        <v>-138147108000</v>
+        <v>-104611677000</v>
       </c>
       <c r="O38">
         <v>-82023600</v>
       </c>
       <c r="P38">
-        <v>-1302309839000</v>
+        <v>-1097141013200</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>125700</v>
       </c>
       <c r="E39">
-        <v>158932601000</v>
+        <v>145514732300</v>
       </c>
       <c r="F39">
-        <v>33218505000</v>
+        <v>26312517900</v>
       </c>
       <c r="G39">
-        <v>1675307000</v>
+        <v>1452330200</v>
       </c>
       <c r="H39">
         <v>11968100</v>
       </c>
       <c r="I39">
-        <v>193826413000</v>
+        <v>173279580400</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-20T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4469188820000</v>
+        <v>3994147636700</v>
       </c>
       <c r="L39">
         <v>266604700</v>
@@ -2343,13 +2343,13 @@
         <v>-8097400</v>
       </c>
       <c r="N39">
-        <v>-125714096000</v>
+        <v>-119202214400</v>
       </c>
       <c r="O39">
         <v>-90121000</v>
       </c>
       <c r="P39">
-        <v>-1428023935000</v>
+        <v>-1216343227600</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>185700</v>
       </c>
       <c r="E40">
-        <v>90204858000</v>
+        <v>85428838800</v>
       </c>
       <c r="F40">
-        <v>81241751000</v>
+        <v>71243359400</v>
       </c>
       <c r="G40">
         <v>3309002000</v>
@@ -2378,13 +2378,13 @@
         <v>10608700</v>
       </c>
       <c r="I40">
-        <v>174755611000</v>
+        <v>159981200200</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-20T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4643944431000</v>
+        <v>4154128836900</v>
       </c>
       <c r="L40">
         <v>277213400</v>
@@ -2393,13 +2393,13 @@
         <v>-1217000</v>
       </c>
       <c r="N40">
-        <v>-8963107000</v>
+        <v>-14185479400</v>
       </c>
       <c r="O40">
         <v>-91338000</v>
       </c>
       <c r="P40">
-        <v>-1436987042000</v>
+        <v>-1230528707000</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>18100</v>
       </c>
       <c r="E41">
-        <v>43747968000</v>
+        <v>41308010400</v>
       </c>
       <c r="F41">
-        <v>74149140000</v>
+        <v>67815180300</v>
       </c>
       <c r="G41">
         <v>246793000</v>
@@ -2428,13 +2428,13 @@
         <v>8454100</v>
       </c>
       <c r="I41">
-        <v>118143901000</v>
+        <v>109369983700</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-20T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4762088332000</v>
+        <v>4263498820600</v>
       </c>
       <c r="L41">
         <v>285667500</v>
@@ -2443,13 +2443,13 @@
         <v>1043000</v>
       </c>
       <c r="N41">
-        <v>30401172000</v>
+        <v>26507169900</v>
       </c>
       <c r="O41">
         <v>-90295000</v>
       </c>
       <c r="P41">
-        <v>-1406585870000</v>
+        <v>-1204021537100</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>11400</v>
       </c>
       <c r="E42">
-        <v>32728484000</v>
+        <v>28325591300</v>
       </c>
       <c r="F42">
-        <v>45236470000</v>
+        <v>40902308500</v>
       </c>
       <c r="G42">
         <v>201969000</v>
@@ -2478,13 +2478,13 @@
         <v>4924200</v>
       </c>
       <c r="I42">
-        <v>78166923000</v>
+        <v>69429868800</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-20T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>4840255255000</v>
+        <v>4332928689400</v>
       </c>
       <c r="L42">
         <v>290591700</v>
@@ -2493,13 +2493,13 @@
         <v>778200</v>
       </c>
       <c r="N42">
-        <v>12507986000</v>
+        <v>12576717200</v>
       </c>
       <c r="O42">
         <v>-89516800</v>
       </c>
       <c r="P42">
-        <v>-1394077884000</v>
+        <v>-1191444819900</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>11400</v>
       </c>
       <c r="E43">
-        <v>23416491000</v>
+        <v>20528481900</v>
       </c>
       <c r="F43">
-        <v>44078309000</v>
+        <v>42407081900</v>
       </c>
       <c r="G43">
         <v>177909000</v>
@@ -2528,13 +2528,13 @@
         <v>4092300</v>
       </c>
       <c r="I43">
-        <v>67672709000</v>
+        <v>63113472800</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-20T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>4907927964000</v>
+        <v>4396042162200</v>
       </c>
       <c r="L43">
         <v>294684000</v>
@@ -2543,13 +2543,13 @@
         <v>1125700</v>
       </c>
       <c r="N43">
-        <v>20661818000</v>
+        <v>21878600000</v>
       </c>
       <c r="O43">
         <v>-88391100</v>
       </c>
       <c r="P43">
-        <v>-1373416066000</v>
+        <v>-1169566219900</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>6300</v>
       </c>
       <c r="E44">
-        <v>34481770000</v>
+        <v>32123131000</v>
       </c>
       <c r="F44">
-        <v>42570234000</v>
+        <v>35855155800</v>
       </c>
       <c r="G44">
         <v>108636000</v>
@@ -2578,13 +2578,13 @@
         <v>4394200</v>
       </c>
       <c r="I44">
-        <v>77160640000</v>
+        <v>68086922800</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-20T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4985088604000</v>
+        <v>4464129085000</v>
       </c>
       <c r="L44">
         <v>299078200</v>
@@ -2593,13 +2593,13 @@
         <v>324700</v>
       </c>
       <c r="N44">
-        <v>8088464000</v>
+        <v>3732024800</v>
       </c>
       <c r="O44">
         <v>-88066400</v>
       </c>
       <c r="P44">
-        <v>-1365327602000</v>
+        <v>-1165834195100</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>30900</v>
       </c>
       <c r="E45">
-        <v>24836525000</v>
+        <v>24352709300</v>
       </c>
       <c r="F45">
-        <v>46947856000</v>
+        <v>44143663000</v>
       </c>
       <c r="G45">
         <v>470968000</v>
@@ -2628,13 +2628,13 @@
         <v>4009500</v>
       </c>
       <c r="I45">
-        <v>72255349000</v>
+        <v>68967340300</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-20T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5057343953000</v>
+        <v>4533096425300</v>
       </c>
       <c r="L45">
         <v>303087700</v>
@@ -2643,13 +2643,13 @@
         <v>1451400</v>
       </c>
       <c r="N45">
-        <v>22111331000</v>
+        <v>19790953700</v>
       </c>
       <c r="O45">
         <v>-86615000</v>
       </c>
       <c r="P45">
-        <v>-1343216271000</v>
+        <v>-1146043241400</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>12700</v>
       </c>
       <c r="E46">
-        <v>33359762000</v>
+        <v>30214110800</v>
       </c>
       <c r="F46">
-        <v>33199900000</v>
+        <v>30988413700</v>
       </c>
       <c r="G46">
-        <v>190063000</v>
+        <v>177475600</v>
       </c>
       <c r="H46">
         <v>3791200</v>
       </c>
       <c r="I46">
-        <v>66749725000</v>
+        <v>61380000100</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-20T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5124093678000</v>
+        <v>4594476425400</v>
       </c>
       <c r="L46">
         <v>306878900</v>
@@ -2693,13 +2693,13 @@
         <v>178500</v>
       </c>
       <c r="N46">
-        <v>-159862000</v>
+        <v>774302900</v>
       </c>
       <c r="O46">
         <v>-86436500</v>
       </c>
       <c r="P46">
-        <v>-1343376133000</v>
+        <v>-1145268938500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>10100</v>
       </c>
       <c r="E47">
-        <v>67086282000</v>
+        <v>63496775100</v>
       </c>
       <c r="F47">
-        <v>20546785000</v>
+        <v>20110721500</v>
       </c>
       <c r="G47">
-        <v>237600000</v>
+        <v>236101500</v>
       </c>
       <c r="H47">
         <v>4994700</v>
       </c>
       <c r="I47">
-        <v>87870667000</v>
+        <v>83843598100</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-20T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>5211964345000</v>
+        <v>4678320023500</v>
       </c>
       <c r="L47">
         <v>311873600</v>
@@ -2743,13 +2743,13 @@
         <v>-2614600</v>
       </c>
       <c r="N47">
-        <v>-46539497000</v>
+        <v>-43386053600</v>
       </c>
       <c r="O47">
         <v>-89051100</v>
       </c>
       <c r="P47">
-        <v>-1389915630000</v>
+        <v>-1188654992100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>38900</v>
       </c>
       <c r="E48">
-        <v>57777164000</v>
+        <v>49778470700</v>
       </c>
       <c r="F48">
-        <v>18292133000</v>
+        <v>17501524400</v>
       </c>
       <c r="G48">
-        <v>480734000</v>
+        <v>441773000</v>
       </c>
       <c r="H48">
         <v>4344000</v>
       </c>
       <c r="I48">
-        <v>76550031000</v>
+        <v>67721768100</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-20T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>5288514376000</v>
+        <v>4746041791600</v>
       </c>
       <c r="L48">
         <v>316217600</v>
@@ -2793,13 +2793,13 @@
         <v>-2414500</v>
       </c>
       <c r="N48">
-        <v>-39485031000</v>
+        <v>-32276946300</v>
       </c>
       <c r="O48">
         <v>-91465600</v>
       </c>
       <c r="P48">
-        <v>-1429400661000</v>
+        <v>-1220931938400</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>8000</v>
       </c>
       <c r="E49">
-        <v>42498866000</v>
+        <v>40373493500</v>
       </c>
       <c r="F49">
-        <v>30834565000</v>
+        <v>24239666500</v>
       </c>
       <c r="G49">
         <v>154504000</v>
@@ -2828,13 +2828,13 @@
         <v>3775100</v>
       </c>
       <c r="I49">
-        <v>73487935000</v>
+        <v>64767664000</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-20T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>5362002311000</v>
+        <v>4810809455600</v>
       </c>
       <c r="L49">
         <v>319992700</v>
@@ -2843,13 +2843,13 @@
         <v>-827900</v>
       </c>
       <c r="N49">
-        <v>-11664301000</v>
+        <v>-16133827000</v>
       </c>
       <c r="O49">
         <v>-92293500</v>
       </c>
       <c r="P49">
-        <v>-1441064962000</v>
+        <v>-1237065765400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>22200</v>
       </c>
       <c r="E50">
-        <v>27375577000</v>
+        <v>26084369500</v>
       </c>
       <c r="F50">
-        <v>28009870000</v>
+        <v>26393887600</v>
       </c>
       <c r="G50">
-        <v>286888000</v>
+        <v>282092800</v>
       </c>
       <c r="H50">
         <v>3192400</v>
       </c>
       <c r="I50">
-        <v>55672335000</v>
+        <v>52760349900</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-20T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>5417674646000</v>
+        <v>4863569805500</v>
       </c>
       <c r="L50">
         <v>323185100</v>
@@ -2893,13 +2893,13 @@
         <v>-203200</v>
       </c>
       <c r="N50">
-        <v>634293000</v>
+        <v>309518100</v>
       </c>
       <c r="O50">
         <v>-92496700</v>
       </c>
       <c r="P50">
-        <v>-1440430669000</v>
+        <v>-1236756247300</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>900</v>
       </c>
       <c r="E51">
-        <v>22406486000</v>
+        <v>18539357000</v>
       </c>
       <c r="F51">
-        <v>23669583000</v>
+        <v>20692662900</v>
       </c>
       <c r="G51">
         <v>51155000</v>
@@ -2928,13 +2928,13 @@
         <v>2499700</v>
       </c>
       <c r="I51">
-        <v>46127224000</v>
+        <v>39283174900</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-20T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>5463801870000</v>
+        <v>4902852980400</v>
       </c>
       <c r="L51">
         <v>325684800</v>
@@ -2943,13 +2943,13 @@
         <v>85800</v>
       </c>
       <c r="N51">
-        <v>1263097000</v>
+        <v>2153305900</v>
       </c>
       <c r="O51">
         <v>-92410900</v>
       </c>
       <c r="P51">
-        <v>-1439167572000</v>
+        <v>-1234602941400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>3400</v>
       </c>
       <c r="E52">
-        <v>23476177000</v>
+        <v>21918835900</v>
       </c>
       <c r="F52">
-        <v>26435456000</v>
+        <v>24602191100</v>
       </c>
       <c r="G52">
         <v>59438000</v>
@@ -2978,13 +2978,13 @@
         <v>2858100</v>
       </c>
       <c r="I52">
-        <v>49971071000</v>
+        <v>46580465000</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-20T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5513772941000</v>
+        <v>4949433445400</v>
       </c>
       <c r="L52">
         <v>328542900</v>
@@ -2993,13 +2993,13 @@
         <v>213900</v>
       </c>
       <c r="N52">
-        <v>2959279000</v>
+        <v>2683355200</v>
       </c>
       <c r="O52">
         <v>-92197000</v>
       </c>
       <c r="P52">
-        <v>-1436208293000</v>
+        <v>-1231919586200</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>400</v>
       </c>
       <c r="E53">
-        <v>17723183000</v>
+        <v>16702304900</v>
       </c>
       <c r="F53">
-        <v>28753623000</v>
+        <v>27601176600</v>
       </c>
       <c r="G53">
         <v>23585000</v>
@@ -3028,13 +3028,13 @@
         <v>2540500</v>
       </c>
       <c r="I53">
-        <v>46500391000</v>
+        <v>44327066500</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-20T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5560273332000</v>
+        <v>4993760511900</v>
       </c>
       <c r="L53">
         <v>331083400</v>
@@ -3043,13 +3043,13 @@
         <v>564500</v>
       </c>
       <c r="N53">
-        <v>11030440000</v>
+        <v>10898871700</v>
       </c>
       <c r="O53">
         <v>-91632500</v>
       </c>
       <c r="P53">
-        <v>-1425177853000</v>
+        <v>-1221020714500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>12800</v>
       </c>
       <c r="E54">
-        <v>13701905000</v>
+        <v>12104504000</v>
       </c>
       <c r="F54">
-        <v>44069533000</v>
+        <v>41549455600</v>
       </c>
       <c r="G54">
         <v>382032000</v>
@@ -3078,13 +3078,13 @@
         <v>3285600</v>
       </c>
       <c r="I54">
-        <v>58153470000</v>
+        <v>54035991600</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-20T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5618426802000</v>
+        <v>5047796503500</v>
       </c>
       <c r="L54">
         <v>334369000</v>
@@ -3093,13 +3093,13 @@
         <v>1693800</v>
       </c>
       <c r="N54">
-        <v>30367628000</v>
+        <v>29444951600</v>
       </c>
       <c r="O54">
         <v>-89938700</v>
       </c>
       <c r="P54">
-        <v>-1394810225000</v>
+        <v>-1191575762900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>27500</v>
       </c>
       <c r="E55">
-        <v>19755078000</v>
+        <v>14349489000</v>
       </c>
       <c r="F55">
-        <v>36277957000</v>
+        <v>34835101300</v>
       </c>
       <c r="G55">
         <v>509214000.00000006</v>
@@ -3128,13 +3128,13 @@
         <v>3225900</v>
       </c>
       <c r="I55">
-        <v>56542249000</v>
+        <v>49693804300</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-20T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>5674969051000</v>
+        <v>5097490307800</v>
       </c>
       <c r="L55">
         <v>337594900</v>
@@ -3143,13 +3143,13 @@
         <v>1023600</v>
       </c>
       <c r="N55">
-        <v>16522879000</v>
+        <v>20485612300</v>
       </c>
       <c r="O55">
         <v>-88915100</v>
       </c>
       <c r="P55">
-        <v>-1378287346000</v>
+        <v>-1171090150600</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>10800</v>
       </c>
       <c r="E56">
-        <v>31606729000</v>
+        <v>25371870100</v>
       </c>
       <c r="F56">
-        <v>31065728000</v>
+        <v>27198299300</v>
       </c>
       <c r="G56">
         <v>314665000</v>
@@ -3178,13 +3178,13 @@
         <v>3759900</v>
       </c>
       <c r="I56">
-        <v>62987122000</v>
+        <v>52884834400</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-20T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>5737956173000</v>
+        <v>5150375142200</v>
       </c>
       <c r="L56">
         <v>341354800</v>
@@ -3193,13 +3193,13 @@
         <v>140700</v>
       </c>
       <c r="N56">
-        <v>-541001000</v>
+        <v>1826429200</v>
       </c>
       <c r="O56">
         <v>-88774400</v>
       </c>
       <c r="P56">
-        <v>-1378828347000</v>
+        <v>-1169263721400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>2200</v>
       </c>
       <c r="E57">
-        <v>33918218000</v>
+        <v>31429109600</v>
       </c>
       <c r="F57">
-        <v>27456066000</v>
+        <v>24298626600</v>
       </c>
       <c r="G57">
         <v>55818000</v>
@@ -3228,13 +3228,13 @@
         <v>3093100</v>
       </c>
       <c r="I57">
-        <v>61430102000</v>
+        <v>55783554200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-20T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>5799386275000</v>
+        <v>5206158696400</v>
       </c>
       <c r="L57">
         <v>344447900</v>
@@ -3243,13 +3243,13 @@
         <v>-389900</v>
       </c>
       <c r="N57">
-        <v>-6462152000</v>
+        <v>-7130483000</v>
       </c>
       <c r="O57">
         <v>-89164300</v>
       </c>
       <c r="P57">
-        <v>-1385290499000</v>
+        <v>-1176394204400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>23000</v>
       </c>
       <c r="E58">
-        <v>34760852000</v>
+        <v>33265948400</v>
       </c>
       <c r="F58">
-        <v>20047588000</v>
+        <v>18658078900</v>
       </c>
       <c r="G58">
         <v>366548000</v>
@@ -3278,13 +3278,13 @@
         <v>3317000</v>
       </c>
       <c r="I58">
-        <v>55174988000</v>
+        <v>52290575300</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-20T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>5854561263000</v>
+        <v>5258449271700</v>
       </c>
       <c r="L58">
         <v>347764900</v>
@@ -3293,13 +3293,13 @@
         <v>-1035400</v>
       </c>
       <c r="N58">
-        <v>-14713264000</v>
+        <v>-14607869500</v>
       </c>
       <c r="O58">
         <v>-90199700</v>
       </c>
       <c r="P58">
-        <v>-1400003763000</v>
+        <v>-1191002073900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>2900</v>
       </c>
       <c r="E59">
-        <v>43798874000</v>
+        <v>42911262500</v>
       </c>
       <c r="F59">
-        <v>14588090000</v>
+        <v>14152625900</v>
       </c>
       <c r="G59">
         <v>68163000</v>
@@ -3328,13 +3328,13 @@
         <v>3378000</v>
       </c>
       <c r="I59">
-        <v>58455127000</v>
+        <v>57132051400</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-20T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>5913016390000</v>
+        <v>5315581323100</v>
       </c>
       <c r="L59">
         <v>351142900</v>
@@ -3343,13 +3343,13 @@
         <v>-1717100</v>
       </c>
       <c r="N59">
-        <v>-29210784000</v>
+        <v>-28758636600</v>
       </c>
       <c r="O59">
         <v>-91916800</v>
       </c>
       <c r="P59">
-        <v>-1429214547000</v>
+        <v>-1219760710500</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>7300</v>
       </c>
       <c r="E60">
-        <v>30818161000</v>
+        <v>26830352800</v>
       </c>
       <c r="F60">
-        <v>16027349000</v>
+        <v>14809168400</v>
       </c>
       <c r="G60">
         <v>109429000</v>
@@ -3378,13 +3378,13 @@
         <v>2706500</v>
       </c>
       <c r="I60">
-        <v>46954939000</v>
+        <v>41748950200</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-20T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>5959971329000</v>
+        <v>5357330273300</v>
       </c>
       <c r="L60">
         <v>353849400</v>
@@ -3393,13 +3393,13 @@
         <v>-1066800</v>
       </c>
       <c r="N60">
-        <v>-14790812000</v>
+        <v>-12021184400</v>
       </c>
       <c r="O60">
         <v>-92983600</v>
       </c>
       <c r="P60">
-        <v>-1444005359000</v>
+        <v>-1231781894900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>6200</v>
       </c>
       <c r="E61">
-        <v>48121169000</v>
+        <v>39611187500</v>
       </c>
       <c r="F61">
-        <v>14300511000</v>
+        <v>13557055200</v>
       </c>
       <c r="G61">
         <v>133266000</v>
@@ -3428,13 +3428,13 @@
         <v>3581200</v>
       </c>
       <c r="I61">
-        <v>62554946000</v>
+        <v>53301508700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-20T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>6022526275000</v>
+        <v>5410631782000</v>
       </c>
       <c r="L61">
         <v>357430600</v>
@@ -3443,13 +3443,13 @@
         <v>-1951000</v>
       </c>
       <c r="N61">
-        <v>-33820658000</v>
+        <v>-26054132300</v>
       </c>
       <c r="O61">
         <v>-94934600</v>
       </c>
       <c r="P61">
-        <v>-1477826017000</v>
+        <v>-1257836027200</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>20600</v>
       </c>
       <c r="E62">
-        <v>44815105000</v>
+        <v>42123399400</v>
       </c>
       <c r="F62">
-        <v>17906005000</v>
+        <v>16599412900</v>
       </c>
       <c r="G62">
         <v>367725000</v>
@@ -3478,13 +3478,13 @@
         <v>3794100</v>
       </c>
       <c r="I62">
-        <v>63088835000</v>
+        <v>59090537300</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-20T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>6085615110000</v>
+        <v>5469722319300</v>
       </c>
       <c r="L62">
         <v>361224700</v>
@@ -3493,13 +3493,13 @@
         <v>-1868700</v>
       </c>
       <c r="N62">
-        <v>-26909100000</v>
+        <v>-25523986500</v>
       </c>
       <c r="O62">
         <v>-96803300</v>
       </c>
       <c r="P62">
-        <v>-1504735117000</v>
+        <v>-1283360013700</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>13600</v>
       </c>
       <c r="E63">
-        <v>98399810000</v>
+        <v>89575742900</v>
       </c>
       <c r="F63">
-        <v>16562402000</v>
+        <v>15391274300</v>
       </c>
       <c r="G63">
         <v>295311000</v>
@@ -3528,13 +3528,13 @@
         <v>6454600</v>
       </c>
       <c r="I63">
-        <v>115257523000</v>
+        <v>105262328200</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-20T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>6200872633000</v>
+        <v>5574984647500</v>
       </c>
       <c r="L63">
         <v>367679300</v>
@@ -3543,13 +3543,13 @@
         <v>-4584000</v>
       </c>
       <c r="N63">
-        <v>-81837408000</v>
+        <v>-74184468600</v>
       </c>
       <c r="O63">
         <v>-101387300</v>
       </c>
       <c r="P63">
-        <v>-1586572525000</v>
+        <v>-1357544482300</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>70400</v>
       </c>
       <c r="E64">
-        <v>132188566000</v>
+        <v>117380289100</v>
       </c>
       <c r="F64">
-        <v>16470760000</v>
+        <v>15587444200</v>
       </c>
       <c r="G64">
-        <v>1300723000</v>
+        <v>1295128600</v>
       </c>
       <c r="H64">
         <v>8998500</v>
       </c>
       <c r="I64">
-        <v>149960049000</v>
+        <v>134262861900</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-20T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>6350832682000</v>
+        <v>5709247509400</v>
       </c>
       <c r="L64">
         <v>376677800</v>
@@ -3593,13 +3593,13 @@
         <v>-6825500</v>
       </c>
       <c r="N64">
-        <v>-115717806000</v>
+        <v>-101792844900</v>
       </c>
       <c r="O64">
         <v>-108212800</v>
       </c>
       <c r="P64">
-        <v>-1702290331000</v>
+        <v>-1459337327200</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>114900</v>
       </c>
       <c r="E65">
-        <v>170997821000</v>
+        <v>155328106400</v>
       </c>
       <c r="F65">
-        <v>22977847000</v>
+        <v>19413115300</v>
       </c>
       <c r="G65">
-        <v>1437461000</v>
+        <v>1297301300</v>
       </c>
       <c r="H65">
         <v>11981700</v>
       </c>
       <c r="I65">
-        <v>195413129000</v>
+        <v>176038523000</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-20T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>6546245811000</v>
+        <v>5885286032400</v>
       </c>
       <c r="L65">
         <v>388659500</v>
@@ -3643,13 +3643,13 @@
         <v>-9172000</v>
       </c>
       <c r="N65">
-        <v>-148019974000</v>
+        <v>-135914991100</v>
       </c>
       <c r="O65">
         <v>-117384800</v>
       </c>
       <c r="P65">
-        <v>-1850310305000</v>
+        <v>-1595252318300</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>28900</v>
       </c>
       <c r="E66">
-        <v>109542675000</v>
+        <v>102893730600</v>
       </c>
       <c r="F66">
-        <v>26674414000</v>
+        <v>23866025200</v>
       </c>
       <c r="G66">
         <v>300544000</v>
@@ -3678,13 +3678,13 @@
         <v>9504700</v>
       </c>
       <c r="I66">
-        <v>136517633000</v>
+        <v>127060299800</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-20T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>6682763444000</v>
+        <v>6012346332200</v>
       </c>
       <c r="L66">
         <v>398164200</v>
@@ -3693,13 +3693,13 @@
         <v>-6277800</v>
       </c>
       <c r="N66">
-        <v>-82868261000</v>
+        <v>-79027705400</v>
       </c>
       <c r="O66">
         <v>-123662600</v>
       </c>
       <c r="P66">
-        <v>-1933178566000</v>
+        <v>-1674280023700</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>8500</v>
       </c>
       <c r="E67">
-        <v>64723576000</v>
+        <v>62217584500</v>
       </c>
       <c r="F67">
-        <v>31342801000</v>
+        <v>27993453700</v>
       </c>
       <c r="G67">
         <v>72996000</v>
@@ -3728,13 +3728,13 @@
         <v>5805700</v>
       </c>
       <c r="I67">
-        <v>96139373000</v>
+        <v>90284034200</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-20T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>6778902817000</v>
+        <v>6102630366400</v>
       </c>
       <c r="L67">
         <v>403969900</v>
@@ -3743,13 +3743,13 @@
         <v>-2314400</v>
       </c>
       <c r="N67">
-        <v>-33380775000</v>
+        <v>-34224130800</v>
       </c>
       <c r="O67">
         <v>-125977000</v>
       </c>
       <c r="P67">
-        <v>-1966559341000</v>
+        <v>-1708504154500</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>1200</v>
       </c>
       <c r="E68">
-        <v>65423978000</v>
+        <v>62913990500</v>
       </c>
       <c r="F68">
-        <v>34826447000</v>
+        <v>32879695700</v>
       </c>
       <c r="G68">
         <v>10370000</v>
@@ -3778,13 +3778,13 @@
         <v>6670800</v>
       </c>
       <c r="I68">
-        <v>100260795000</v>
+        <v>95804056200</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-20T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>6879163612000</v>
+        <v>6198434422600</v>
       </c>
       <c r="L68">
         <v>410640700</v>
@@ -3793,13 +3793,13 @@
         <v>-2562400</v>
       </c>
       <c r="N68">
-        <v>-30597531000</v>
+        <v>-30034294800</v>
       </c>
       <c r="O68">
         <v>-128539400</v>
       </c>
       <c r="P68">
-        <v>-1997156872000</v>
+        <v>-1738538449300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>52100</v>
       </c>
       <c r="E69">
-        <v>64952010000</v>
+        <v>59420347200</v>
       </c>
       <c r="F69">
-        <v>26931140000</v>
+        <v>22526848700</v>
       </c>
       <c r="G69">
-        <v>401296000</v>
+        <v>395302000</v>
       </c>
       <c r="H69">
         <v>5790300</v>
       </c>
       <c r="I69">
-        <v>92284446000</v>
+        <v>82342497900</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-20T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>6971448058000</v>
+        <v>6280776920500</v>
       </c>
       <c r="L69">
         <v>416431000</v>
@@ -3843,13 +3843,13 @@
         <v>-2491200</v>
       </c>
       <c r="N69">
-        <v>-38020870000</v>
+        <v>-36893498500</v>
       </c>
       <c r="O69">
         <v>-131030600</v>
       </c>
       <c r="P69">
-        <v>-2035177742000</v>
+        <v>-1775431947800</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>24300000</v>
       </c>
       <c r="F70">
-        <v>612220000</v>
+        <v>606226000</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>65500</v>
       </c>
       <c r="I70">
-        <v>636520000</v>
+        <v>630526000</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-20T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>6972084578000</v>
+        <v>6281407446500</v>
       </c>
       <c r="L70">
         <v>416496500</v>
@@ -3893,13 +3893,13 @@
         <v>61900</v>
       </c>
       <c r="N70">
-        <v>587920000</v>
+        <v>581926000</v>
       </c>
       <c r="O70">
         <v>-130968700</v>
       </c>
       <c r="P70">
-        <v>-2034589822000</v>
+        <v>-1774850021800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>1640800</v>
       </c>
       <c r="E71">
-        <v>319890974000</v>
+        <v>272880831200</v>
       </c>
       <c r="F71">
-        <v>262891888000</v>
+        <v>252473117200</v>
       </c>
       <c r="G71">
-        <v>23906731000</v>
+        <v>23462675500</v>
       </c>
       <c r="H71">
         <v>40433600</v>
       </c>
       <c r="I71">
-        <v>606689593000</v>
+        <v>548816623900</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-20T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>7578774171000</v>
+        <v>6830224070400</v>
       </c>
       <c r="L71">
         <v>456930100</v>
@@ -3943,13 +3943,13 @@
         <v>-4830600</v>
       </c>
       <c r="N71">
-        <v>-56999086000</v>
+        <v>-20407714000</v>
       </c>
       <c r="O71">
         <v>-135799300</v>
       </c>
       <c r="P71">
-        <v>-2091588908000</v>
+        <v>-1795257735800</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>83100</v>
       </c>
       <c r="E72">
-        <v>248582650000</v>
+        <v>218121941200</v>
       </c>
       <c r="F72">
-        <v>54628140000</v>
+        <v>51262509000</v>
       </c>
       <c r="G72">
-        <v>1377994000</v>
+        <v>1218154000</v>
       </c>
       <c r="H72">
         <v>20977200</v>
       </c>
       <c r="I72">
-        <v>304588784000</v>
+        <v>270602604200</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-20T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>7883362955000</v>
+        <v>7100826674600</v>
       </c>
       <c r="L72">
         <v>477907300</v>
@@ -3993,13 +3993,13 @@
         <v>-14273100</v>
       </c>
       <c r="N72">
-        <v>-193954510000</v>
+        <v>-166859432200</v>
       </c>
       <c r="O72">
         <v>-150072400</v>
       </c>
       <c r="P72">
-        <v>-2285543418000</v>
+        <v>-1962117168000</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>39800</v>
       </c>
       <c r="E73">
-        <v>155937041000</v>
+        <v>136982015000</v>
       </c>
       <c r="F73">
-        <v>70235786000</v>
+        <v>67437487100</v>
       </c>
       <c r="G73">
         <v>612830000</v>
@@ -4028,13 +4028,13 @@
         <v>15592600</v>
       </c>
       <c r="I73">
-        <v>226785657000</v>
+        <v>205032332100</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-20T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>8110148612000</v>
+        <v>7305859006700</v>
       </c>
       <c r="L73">
         <v>493499900</v>
@@ -4043,13 +4043,13 @@
         <v>-6696800</v>
       </c>
       <c r="N73">
-        <v>-85701255000</v>
+        <v>-69544527900</v>
       </c>
       <c r="O73">
         <v>-156769200</v>
       </c>
       <c r="P73">
-        <v>-2371244673000</v>
+        <v>-2031661695900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>28800</v>
       </c>
       <c r="E74">
-        <v>110277177000</v>
+        <v>106073285100</v>
       </c>
       <c r="F74">
-        <v>81443114000</v>
+        <v>70074194300</v>
       </c>
       <c r="G74">
-        <v>855488000</v>
+        <v>844099400</v>
       </c>
       <c r="H74">
         <v>12503500</v>
       </c>
       <c r="I74">
-        <v>192575779000</v>
+        <v>176991578800</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-20T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>8302724391000</v>
+        <v>7482850585500</v>
       </c>
       <c r="L74">
         <v>506003400</v>
@@ -4093,13 +4093,13 @@
         <v>-1990100</v>
       </c>
       <c r="N74">
-        <v>-28834063000</v>
+        <v>-35999090800</v>
       </c>
       <c r="O74">
         <v>-158759300</v>
       </c>
       <c r="P74">
-        <v>-2400078736000</v>
+        <v>-2067660786700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>35100</v>
       </c>
       <c r="E75">
-        <v>69845662000</v>
+        <v>55823598100</v>
       </c>
       <c r="F75">
-        <v>63011968000</v>
+        <v>57056329600</v>
       </c>
       <c r="G75">
-        <v>660742000</v>
+        <v>594907900</v>
       </c>
       <c r="H75">
         <v>9198900</v>
       </c>
       <c r="I75">
-        <v>133518372000</v>
+        <v>113474835600</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-20T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>8436242763000</v>
+        <v>7596325421100</v>
       </c>
       <c r="L75">
         <v>515202300</v>
@@ -4143,13 +4143,13 @@
         <v>-183600</v>
       </c>
       <c r="N75">
-        <v>-6833694000</v>
+        <v>1232731500</v>
       </c>
       <c r="O75">
         <v>-158942900</v>
       </c>
       <c r="P75">
-        <v>-2406912430000</v>
+        <v>-2066428055200</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>39200</v>
       </c>
       <c r="E76">
-        <v>83435849000</v>
+        <v>70299898100</v>
       </c>
       <c r="F76">
-        <v>43636525000</v>
+        <v>36045823300</v>
       </c>
       <c r="G76">
-        <v>907879000</v>
+        <v>588199000</v>
       </c>
       <c r="H76">
         <v>8326500</v>
       </c>
       <c r="I76">
-        <v>127980253000</v>
+        <v>106933920400</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-20T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>8564223016000</v>
+        <v>7703259341500</v>
       </c>
       <c r="L76">
         <v>523528800</v>
@@ -4193,13 +4193,13 @@
         <v>-2333100</v>
       </c>
       <c r="N76">
-        <v>-39799324000</v>
+        <v>-34254074800</v>
       </c>
       <c r="O76">
         <v>-161276000</v>
       </c>
       <c r="P76">
-        <v>-2446711754000</v>
+        <v>-2100682130000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>22600</v>
       </c>
       <c r="E77">
-        <v>110344559000</v>
+        <v>102720690500</v>
       </c>
       <c r="F77">
-        <v>43428261000</v>
+        <v>38625268800</v>
       </c>
       <c r="G77">
-        <v>535426000</v>
+        <v>526934500</v>
       </c>
       <c r="H77">
         <v>9498200</v>
       </c>
       <c r="I77">
-        <v>154308246000</v>
+        <v>141872893800</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-20T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>8718531262000</v>
+        <v>7845132235300</v>
       </c>
       <c r="L77">
         <v>533027000</v>
@@ -4243,13 +4243,13 @@
         <v>-4317800</v>
       </c>
       <c r="N77">
-        <v>-66916298000</v>
+        <v>-64095421700</v>
       </c>
       <c r="O77">
         <v>-165593800</v>
       </c>
       <c r="P77">
-        <v>-2513628052000</v>
+        <v>-2164777551700</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>25100</v>
       </c>
       <c r="E78">
-        <v>68625987000</v>
+        <v>65242573800</v>
       </c>
       <c r="F78">
-        <v>56829910000</v>
+        <v>45967183600</v>
       </c>
       <c r="G78">
-        <v>382572000</v>
+        <v>381273300</v>
       </c>
       <c r="H78">
         <v>8985100</v>
       </c>
       <c r="I78">
-        <v>125838469000</v>
+        <v>111591030700</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-20T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>8844369731000</v>
+        <v>7956723266000</v>
       </c>
       <c r="L78">
         <v>542012100</v>
@@ -4293,13 +4293,13 @@
         <v>-1707800</v>
       </c>
       <c r="N78">
-        <v>-11796077000</v>
+        <v>-19275390200</v>
       </c>
       <c r="O78">
         <v>-167301600</v>
       </c>
       <c r="P78">
-        <v>-2525424129000</v>
+        <v>-2184052941900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>95700</v>
       </c>
       <c r="E79">
-        <v>45576660000</v>
+        <v>44522215500</v>
       </c>
       <c r="F79">
-        <v>79612085000</v>
+        <v>70840665200</v>
       </c>
       <c r="G79">
-        <v>1286232000</v>
+        <v>1208609700</v>
       </c>
       <c r="H79">
         <v>8604800</v>
       </c>
       <c r="I79">
-        <v>126474977000</v>
+        <v>116571490400</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-20T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>8970844708000</v>
+        <v>8073294756400</v>
       </c>
       <c r="L79">
         <v>550616900</v>
@@ -4343,13 +4343,13 @@
         <v>1225700</v>
       </c>
       <c r="N79">
-        <v>34035425000</v>
+        <v>26318449700</v>
       </c>
       <c r="O79">
         <v>-166075900</v>
       </c>
       <c r="P79">
-        <v>-2491388704000</v>
+        <v>-2157734492200</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>63900</v>
       </c>
       <c r="E80">
-        <v>28894363000</v>
+        <v>28097860300</v>
       </c>
       <c r="F80">
-        <v>90880228000</v>
+        <v>86202410500</v>
       </c>
       <c r="G80">
-        <v>965971000</v>
+        <v>799537600</v>
       </c>
       <c r="H80">
         <v>7774800</v>
       </c>
       <c r="I80">
-        <v>120740562000</v>
+        <v>115099808400</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-20T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>9091585270000</v>
+        <v>8188394564800</v>
       </c>
       <c r="L80">
         <v>558391700</v>
@@ -4393,13 +4393,13 @@
         <v>3990500</v>
       </c>
       <c r="N80">
-        <v>61985865000</v>
+        <v>58104550200</v>
       </c>
       <c r="O80">
         <v>-162085400</v>
       </c>
       <c r="P80">
-        <v>-2429402839000</v>
+        <v>-2099629942000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>24300</v>
       </c>
       <c r="E81">
-        <v>46010401000</v>
+        <v>44209004200</v>
       </c>
       <c r="F81">
-        <v>85254129000</v>
+        <v>71790805800</v>
       </c>
       <c r="G81">
         <v>421972000</v>
@@ -4428,13 +4428,13 @@
         <v>7785400</v>
       </c>
       <c r="I81">
-        <v>131686502000</v>
+        <v>116421782000</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-20T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>9223271772000</v>
+        <v>8304816346800</v>
       </c>
       <c r="L81">
         <v>566177100</v>
@@ -4443,13 +4443,13 @@
         <v>2157100</v>
       </c>
       <c r="N81">
-        <v>39243728000</v>
+        <v>27581801600</v>
       </c>
       <c r="O81">
         <v>-159928300</v>
       </c>
       <c r="P81">
-        <v>-2390159111000</v>
+        <v>-2072048140400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>69600</v>
       </c>
       <c r="E82">
-        <v>99335019000</v>
+        <v>86403663300</v>
       </c>
       <c r="F82">
-        <v>42036132000</v>
+        <v>35696877600</v>
       </c>
       <c r="G82">
-        <v>973628000</v>
+        <v>932169500</v>
       </c>
       <c r="H82">
         <v>9578300</v>
       </c>
       <c r="I82">
-        <v>142344779000</v>
+        <v>123032710400</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-20T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>9365616551000</v>
+        <v>8427849057200</v>
       </c>
       <c r="L82">
         <v>575755400</v>
@@ -4493,13 +4493,13 @@
         <v>-4232100</v>
       </c>
       <c r="N82">
-        <v>-57298887000</v>
+        <v>-50706785700</v>
       </c>
       <c r="O82">
         <v>-164160400</v>
       </c>
       <c r="P82">
-        <v>-2447457998000</v>
+        <v>-2122754926100</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>170500</v>
       </c>
       <c r="E83">
-        <v>114960555000</v>
+        <v>111619199700</v>
       </c>
       <c r="F83">
-        <v>33684291000</v>
+        <v>29421657900</v>
       </c>
       <c r="G83">
-        <v>1552758000</v>
+        <v>1545265500</v>
       </c>
       <c r="H83">
         <v>9961500</v>
       </c>
       <c r="I83">
-        <v>150197604000</v>
+        <v>142586123100</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-20T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>9515814155000</v>
+        <v>8570435180300</v>
       </c>
       <c r="L83">
         <v>585716900</v>
@@ -4543,13 +4543,13 @@
         <v>-5747000</v>
       </c>
       <c r="N83">
-        <v>-81276264000</v>
+        <v>-82197541800</v>
       </c>
       <c r="O83">
         <v>-169907400</v>
       </c>
       <c r="P83">
-        <v>-2528734262000</v>
+        <v>-2204952467900</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>20400</v>
       </c>
       <c r="E84">
-        <v>91515648000</v>
+        <v>82427045700</v>
       </c>
       <c r="F84">
-        <v>27062027000</v>
+        <v>23462630000</v>
       </c>
       <c r="G84">
-        <v>475138000</v>
+        <v>139474000</v>
       </c>
       <c r="H84">
         <v>7412300</v>
       </c>
       <c r="I84">
-        <v>119052813000</v>
+        <v>106029149700</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-20T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>9634866968000</v>
+        <v>8676464330000</v>
       </c>
       <c r="L84">
         <v>593129200</v>
@@ -4593,13 +4593,13 @@
         <v>-3880100</v>
       </c>
       <c r="N84">
-        <v>-64453621000</v>
+        <v>-58964415700</v>
       </c>
       <c r="O84">
         <v>-173787500</v>
       </c>
       <c r="P84">
-        <v>-2593187883000</v>
+        <v>-2263916883600</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>17900</v>
       </c>
       <c r="E85">
-        <v>92115396000</v>
+        <v>85304413800</v>
       </c>
       <c r="F85">
-        <v>45706322000</v>
+        <v>42302529200</v>
       </c>
       <c r="G85">
-        <v>430855000</v>
+        <v>387598300</v>
       </c>
       <c r="H85">
         <v>8977400</v>
       </c>
       <c r="I85">
-        <v>138252573000</v>
+        <v>127994541300</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-20T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>9773119541000</v>
+        <v>8804458871300</v>
       </c>
       <c r="L85">
         <v>602106600</v>
@@ -4643,13 +4643,13 @@
         <v>-3052300</v>
       </c>
       <c r="N85">
-        <v>-46409074000</v>
+        <v>-43001884600</v>
       </c>
       <c r="O85">
         <v>-176839800</v>
       </c>
       <c r="P85">
-        <v>-2639596957000</v>
+        <v>-2306918768200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>19200</v>
       </c>
       <c r="E86">
-        <v>55323201000</v>
+        <v>48256774500</v>
       </c>
       <c r="F86">
-        <v>46568625000</v>
+        <v>41886212100</v>
       </c>
       <c r="G86">
         <v>335669000</v>
@@ -4678,13 +4678,13 @@
         <v>7273000</v>
       </c>
       <c r="I86">
-        <v>102227495000</v>
+        <v>90478655600</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-20T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>9875347036000</v>
+        <v>8894937526900</v>
       </c>
       <c r="L86">
         <v>609379600</v>
@@ -4693,13 +4693,13 @@
         <v>-1672200</v>
       </c>
       <c r="N86">
-        <v>-8754576000</v>
+        <v>-6370562400</v>
       </c>
       <c r="O86">
         <v>-178512000</v>
       </c>
       <c r="P86">
-        <v>-2648351533000</v>
+        <v>-2313289330600</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>66000</v>
       </c>
       <c r="E87">
-        <v>58856846000</v>
+        <v>53575832300</v>
       </c>
       <c r="F87">
-        <v>67050947000</v>
+        <v>61280223500</v>
       </c>
       <c r="G87">
-        <v>403240000</v>
+        <v>401142100</v>
       </c>
       <c r="H87">
         <v>9750300</v>
       </c>
       <c r="I87">
-        <v>126311033000</v>
+        <v>115257197900</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-20T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>10001658069000</v>
+        <v>9010194724800</v>
       </c>
       <c r="L87">
         <v>619129900</v>
@@ -4743,13 +4743,13 @@
         <v>831100</v>
       </c>
       <c r="N87">
-        <v>8194101000</v>
+        <v>7704391200</v>
       </c>
       <c r="O87">
         <v>-177680900</v>
       </c>
       <c r="P87">
-        <v>-2640157432000</v>
+        <v>-2305584939400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>3100</v>
       </c>
       <c r="E88">
-        <v>42066426000</v>
+        <v>38832163500</v>
       </c>
       <c r="F88">
-        <v>41042292000</v>
+        <v>38633203500</v>
       </c>
       <c r="G88">
-        <v>65604000</v>
+        <v>56313300</v>
       </c>
       <c r="H88">
         <v>5702400</v>
       </c>
       <c r="I88">
-        <v>83174322000</v>
+        <v>77521680300</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-20T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>10084832391000</v>
+        <v>9087716405100</v>
       </c>
       <c r="L88">
         <v>624832300</v>
@@ -4793,13 +4793,13 @@
         <v>-314900</v>
       </c>
       <c r="N88">
-        <v>-1024134000</v>
+        <v>-198960000</v>
       </c>
       <c r="O88">
         <v>-177995800</v>
       </c>
       <c r="P88">
-        <v>-2641181566000</v>
+        <v>-2305783899400</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>22800</v>
       </c>
       <c r="E89">
-        <v>42072460000</v>
+        <v>40542491500</v>
       </c>
       <c r="F89">
-        <v>43319868000</v>
+        <v>36681213300</v>
       </c>
       <c r="G89">
-        <v>329853000</v>
+        <v>324858000</v>
       </c>
       <c r="H89">
         <v>5442100</v>
       </c>
       <c r="I89">
-        <v>85722181000</v>
+        <v>77548562800</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-20T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>10170554572000</v>
+        <v>9165264967900</v>
       </c>
       <c r="L89">
         <v>630274400</v>
@@ -4843,13 +4843,13 @@
         <v>225900</v>
       </c>
       <c r="N89">
-        <v>1247408000</v>
+        <v>-3861278200</v>
       </c>
       <c r="O89">
         <v>-177769900</v>
       </c>
       <c r="P89">
-        <v>-2639934158000</v>
+        <v>-2309645177600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>7200</v>
       </c>
       <c r="E90">
-        <v>28831003000</v>
+        <v>27116419300</v>
       </c>
       <c r="F90">
-        <v>49203802000</v>
+        <v>42835676500</v>
       </c>
       <c r="G90">
-        <v>43515000</v>
+        <v>35523000</v>
       </c>
       <c r="H90">
         <v>5491300</v>
       </c>
       <c r="I90">
-        <v>78078320000</v>
+        <v>69987618800</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-20T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>10248632892000</v>
+        <v>9235252586700</v>
       </c>
       <c r="L90">
         <v>635765700</v>
@@ -4893,13 +4893,13 @@
         <v>693500</v>
       </c>
       <c r="N90">
-        <v>20372799000</v>
+        <v>15719257200</v>
       </c>
       <c r="O90">
         <v>-177076400</v>
       </c>
       <c r="P90">
-        <v>-2619561359000</v>
+        <v>-2293925920400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>101800</v>
       </c>
       <c r="E91">
-        <v>28446165000</v>
+        <v>26624088900</v>
       </c>
       <c r="F91">
-        <v>82052348000</v>
+        <v>77443861100</v>
       </c>
       <c r="G91">
         <v>1470407000</v>
@@ -4928,13 +4928,13 @@
         <v>6381300</v>
       </c>
       <c r="I91">
-        <v>111968920000</v>
+        <v>105538357000</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-20T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>10360601812000</v>
+        <v>9340790943700</v>
       </c>
       <c r="L91">
         <v>642147000</v>
@@ -4943,13 +4943,13 @@
         <v>2615900</v>
       </c>
       <c r="N91">
-        <v>53606183000</v>
+        <v>50819772200</v>
       </c>
       <c r="O91">
         <v>-174460500</v>
       </c>
       <c r="P91">
-        <v>-2565955176000</v>
+        <v>-2243106148200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>34600</v>
       </c>
       <c r="E92">
-        <v>25597282000</v>
+        <v>23327154400</v>
       </c>
       <c r="F92">
-        <v>52950710000</v>
+        <v>40842929900</v>
       </c>
       <c r="G92">
-        <v>503079000</v>
+        <v>426455700</v>
       </c>
       <c r="H92">
         <v>5124600</v>
       </c>
       <c r="I92">
-        <v>79051071000</v>
+        <v>64596540000</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-20T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>10439652883000</v>
+        <v>9405387483700</v>
       </c>
       <c r="L92">
         <v>647271600</v>
@@ -4993,13 +4993,13 @@
         <v>1865000</v>
       </c>
       <c r="N92">
-        <v>27353428000</v>
+        <v>17515775500</v>
       </c>
       <c r="O92">
         <v>-172595500</v>
       </c>
       <c r="P92">
-        <v>-2538601748000</v>
+        <v>-2225590372700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>1800</v>
       </c>
       <c r="E93">
-        <v>27090752000</v>
+        <v>25821122900</v>
       </c>
       <c r="F93">
-        <v>46873842000</v>
+        <v>40672149900</v>
       </c>
       <c r="G93">
         <v>50320000</v>
@@ -5028,13 +5028,13 @@
         <v>4725900</v>
       </c>
       <c r="I93">
-        <v>74014914000</v>
+        <v>66543592800</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-20T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>10513667797000</v>
+        <v>9471931076500</v>
       </c>
       <c r="L93">
         <v>651997500</v>
@@ -5043,13 +5043,13 @@
         <v>763100</v>
       </c>
       <c r="N93">
-        <v>19783090000</v>
+        <v>14851027000</v>
       </c>
       <c r="O93">
         <v>-171832400</v>
       </c>
       <c r="P93">
-        <v>-2518818658000</v>
+        <v>-2210739345700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>64700</v>
       </c>
       <c r="E94">
-        <v>35656948000</v>
+        <v>32510397700</v>
       </c>
       <c r="F94">
-        <v>62302335000</v>
+        <v>59503936200</v>
       </c>
       <c r="G94">
-        <v>694592000</v>
+        <v>662624000</v>
       </c>
       <c r="H94">
         <v>6160100</v>
       </c>
       <c r="I94">
-        <v>98653875000</v>
+        <v>92676957900</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-20T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>10612321672000</v>
+        <v>9564608034400</v>
       </c>
       <c r="L94">
         <v>658157600</v>
@@ -5093,13 +5093,13 @@
         <v>1628800</v>
       </c>
       <c r="N94">
-        <v>26645387000</v>
+        <v>26993538500</v>
       </c>
       <c r="O94">
         <v>-170203600</v>
       </c>
       <c r="P94">
-        <v>-2492173271000</v>
+        <v>-2183745807200</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>52500</v>
       </c>
       <c r="E95">
-        <v>114160749000</v>
+        <v>100750272900</v>
       </c>
       <c r="F95">
-        <v>29807994000</v>
+        <v>28156547100</v>
       </c>
       <c r="G95">
         <v>628063000</v>
@@ -5128,13 +5128,13 @@
         <v>8754600</v>
       </c>
       <c r="I95">
-        <v>144596806000</v>
+        <v>129534883000</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-20T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>10756918478000</v>
+        <v>9694142917400</v>
       </c>
       <c r="L95">
         <v>666912200</v>
@@ -5143,13 +5143,13 @@
         <v>-4961900</v>
       </c>
       <c r="N95">
-        <v>-84352755000</v>
+        <v>-72593725800</v>
       </c>
       <c r="O95">
         <v>-175165500</v>
       </c>
       <c r="P95">
-        <v>-2576526026000</v>
+        <v>-2256339533000</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>60300</v>
       </c>
       <c r="E96">
-        <v>51080336000</v>
+        <v>43859863700</v>
       </c>
       <c r="F96">
-        <v>24225112000</v>
+        <v>20556584200</v>
       </c>
       <c r="G96">
         <v>1040792000</v>
@@ -5178,13 +5178,13 @@
         <v>4953900</v>
       </c>
       <c r="I96">
-        <v>76346240000</v>
+        <v>65457239900</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-20T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>10833264718000</v>
+        <v>9759600157300</v>
       </c>
       <c r="L96">
         <v>671866100</v>
@@ -5193,13 +5193,13 @@
         <v>-1503400</v>
       </c>
       <c r="N96">
-        <v>-26855224000</v>
+        <v>-23303279500</v>
       </c>
       <c r="O96">
         <v>-176668900</v>
       </c>
       <c r="P96">
-        <v>-2603381250000</v>
+        <v>-2279642812500</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>17600</v>
       </c>
       <c r="E97">
-        <v>21410302000</v>
+        <v>20362351000</v>
       </c>
       <c r="F97">
-        <v>29824142000</v>
+        <v>24763507700</v>
       </c>
       <c r="G97">
-        <v>441557000</v>
+        <v>437061500</v>
       </c>
       <c r="H97">
         <v>3255100</v>
       </c>
       <c r="I97">
-        <v>51676001000</v>
+        <v>45562920200</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-20T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>10884940719000</v>
+        <v>9805163077500</v>
       </c>
       <c r="L97">
         <v>675121200</v>
@@ -5243,13 +5243,13 @@
         <v>434700</v>
       </c>
       <c r="N97">
-        <v>8413840000</v>
+        <v>4401156700</v>
       </c>
       <c r="O97">
         <v>-176234200</v>
       </c>
       <c r="P97">
-        <v>-2594967410000</v>
+        <v>-2275241655800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>31500</v>
       </c>
       <c r="E98">
-        <v>34526600000</v>
+        <v>32391037700</v>
       </c>
       <c r="F98">
-        <v>45190929000</v>
+        <v>42302220600</v>
       </c>
       <c r="G98">
-        <v>871517000</v>
+        <v>842745800</v>
       </c>
       <c r="H98">
         <v>5008100</v>
       </c>
       <c r="I98">
-        <v>80589046000</v>
+        <v>75536004100</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-20T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>10965529765000</v>
+        <v>9880699081600</v>
       </c>
       <c r="L98">
         <v>680129300</v>
@@ -5293,13 +5293,13 @@
         <v>638800</v>
       </c>
       <c r="N98">
-        <v>10664329000</v>
+        <v>9911182900</v>
       </c>
       <c r="O98">
         <v>-175595400</v>
       </c>
       <c r="P98">
-        <v>-2584303081000</v>
+        <v>-2265330472900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>15300</v>
       </c>
       <c r="E99">
-        <v>36772009000</v>
+        <v>30061825900</v>
       </c>
       <c r="F99">
-        <v>46418596000</v>
+        <v>43300317400</v>
       </c>
       <c r="G99">
-        <v>248485000</v>
+        <v>242790700</v>
       </c>
       <c r="H99">
         <v>5102600</v>
       </c>
       <c r="I99">
-        <v>83439090000</v>
+        <v>73604934000</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-20T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>11048968855000</v>
+        <v>9954304015600</v>
       </c>
       <c r="L99">
         <v>685231900</v>
@@ -5343,13 +5343,13 @@
         <v>778500</v>
       </c>
       <c r="N99">
-        <v>9646587000</v>
+        <v>13238491500</v>
       </c>
       <c r="O99">
         <v>-174816900</v>
       </c>
       <c r="P99">
-        <v>-2574656494000</v>
+        <v>-2252091981400</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>3100</v>
       </c>
       <c r="E100">
-        <v>27083250000</v>
+        <v>26220213900</v>
       </c>
       <c r="F100">
-        <v>61923509000</v>
+        <v>40731722000</v>
       </c>
       <c r="G100">
         <v>162140000</v>
@@ -5378,13 +5378,13 @@
         <v>4756400</v>
       </c>
       <c r="I100">
-        <v>89168899000</v>
+        <v>67114075900</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-20T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>11138137754000</v>
+        <v>10021418091500</v>
       </c>
       <c r="L100">
         <v>689988300</v>
@@ -5393,13 +5393,13 @@
         <v>1851900</v>
       </c>
       <c r="N100">
-        <v>34840259000</v>
+        <v>14511508100</v>
       </c>
       <c r="O100">
         <v>-172965000</v>
       </c>
       <c r="P100">
-        <v>-2539816235000</v>
+        <v>-2237580473300</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>56100</v>
       </c>
       <c r="E101">
-        <v>19308322000</v>
+        <v>18102429100</v>
       </c>
       <c r="F101">
-        <v>113610361000</v>
+        <v>96535253200</v>
       </c>
       <c r="G101">
-        <v>551133000</v>
+        <v>514269900</v>
       </c>
       <c r="H101">
         <v>7677700</v>
       </c>
       <c r="I101">
-        <v>133469816000</v>
+        <v>115151952200</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-20T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>11271607570000</v>
+        <v>10136570043700</v>
       </c>
       <c r="L101">
         <v>697666000</v>
@@ -5443,13 +5443,13 @@
         <v>4877600</v>
       </c>
       <c r="N101">
-        <v>94302039000</v>
+        <v>78432824100</v>
       </c>
       <c r="O101">
         <v>-168087400</v>
       </c>
       <c r="P101">
-        <v>-2445514196000</v>
+        <v>-2159147649200</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>204300</v>
       </c>
       <c r="E102">
-        <v>30829134000</v>
+        <v>30034029900</v>
       </c>
       <c r="F102">
-        <v>279395129000</v>
+        <v>251980770800</v>
       </c>
       <c r="G102">
         <v>3279012000</v>
@@ -5478,13 +5478,13 @@
         <v>18790700</v>
       </c>
       <c r="I102">
-        <v>313503275000</v>
+        <v>285293812700</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-20T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>11585110845000</v>
+        <v>10421863856400</v>
       </c>
       <c r="L102">
         <v>716456700</v>
@@ -5493,13 +5493,13 @@
         <v>14593000</v>
       </c>
       <c r="N102">
-        <v>248565995000</v>
+        <v>221946740900</v>
       </c>
       <c r="O102">
         <v>-153494400</v>
       </c>
       <c r="P102">
-        <v>-2196948201000</v>
+        <v>-1937200908300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>127500</v>
       </c>
       <c r="E103">
-        <v>63495222000</v>
+        <v>60458561700</v>
       </c>
       <c r="F103">
-        <v>180317626000</v>
+        <v>159693570700</v>
       </c>
       <c r="G103">
         <v>2301003000</v>
@@ -5528,13 +5528,13 @@
         <v>15965000</v>
       </c>
       <c r="I103">
-        <v>246113851000</v>
+        <v>222453135400</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-20T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>11831224696000</v>
+        <v>10644316991800</v>
       </c>
       <c r="L103">
         <v>732421700</v>
@@ -5543,13 +5543,13 @@
         <v>8106700</v>
       </c>
       <c r="N103">
-        <v>116822404000</v>
+        <v>99235009000</v>
       </c>
       <c r="O103">
         <v>-145387700</v>
       </c>
       <c r="P103">
-        <v>-2080125797000</v>
+        <v>-1837965899300</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>176000</v>
       </c>
       <c r="E104">
-        <v>121216951000</v>
+        <v>108276204700</v>
       </c>
       <c r="F104">
-        <v>69386924000</v>
+        <v>63696620000</v>
       </c>
       <c r="G104">
-        <v>2669177000</v>
+        <v>2658787400</v>
       </c>
       <c r="H104">
         <v>11856200</v>
       </c>
       <c r="I104">
-        <v>193273052000</v>
+        <v>174631612100</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-20T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>12024497748000</v>
+        <v>10818948603900</v>
       </c>
       <c r="L104">
         <v>744277900</v>
@@ -5593,13 +5593,13 @@
         <v>-3523000</v>
       </c>
       <c r="N104">
-        <v>-51830027000</v>
+        <v>-44579584700</v>
       </c>
       <c r="O104">
         <v>-148910700</v>
       </c>
       <c r="P104">
-        <v>-2131955824000</v>
+        <v>-1882545484000</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>48800</v>
       </c>
       <c r="E105">
-        <v>66729030000</v>
+        <v>59980785000</v>
       </c>
       <c r="F105">
-        <v>37687890000</v>
+        <v>34545235800</v>
       </c>
       <c r="G105">
         <v>900983000</v>
@@ -5628,13 +5628,13 @@
         <v>6317800</v>
       </c>
       <c r="I105">
-        <v>105317903000</v>
+        <v>95427003800</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-20T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>12129815651000</v>
+        <v>10914375607700</v>
       </c>
       <c r="L105">
         <v>750595700</v>
@@ -5643,13 +5643,13 @@
         <v>-2235600</v>
       </c>
       <c r="N105">
-        <v>-29041140000</v>
+        <v>-25435549200</v>
       </c>
       <c r="O105">
         <v>-151146300</v>
       </c>
       <c r="P105">
-        <v>-2160996964000</v>
+        <v>-1907981033200</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>15400</v>
       </c>
       <c r="E106">
-        <v>36531642000</v>
+        <v>31976002200</v>
       </c>
       <c r="F106">
-        <v>42514129000</v>
+        <v>39062883700</v>
       </c>
       <c r="G106">
         <v>250586000</v>
@@ -5678,13 +5678,13 @@
         <v>4895100</v>
       </c>
       <c r="I106">
-        <v>79296357000</v>
+        <v>71289471900</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-20T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>12209112008000</v>
+        <v>10985665079600</v>
       </c>
       <c r="L106">
         <v>755490800</v>
@@ -5693,13 +5693,13 @@
         <v>-175300</v>
       </c>
       <c r="N106">
-        <v>5982487000</v>
+        <v>7086881500</v>
       </c>
       <c r="O106">
         <v>-151321600</v>
       </c>
       <c r="P106">
-        <v>-2155014477000</v>
+        <v>-1900894151700</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>48800</v>
       </c>
       <c r="E107">
-        <v>31760869000</v>
+        <v>29893138600</v>
       </c>
       <c r="F107">
-        <v>53280934000</v>
+        <v>50441676100</v>
       </c>
       <c r="G107">
         <v>481950000</v>
@@ -5728,13 +5728,13 @@
         <v>5283100</v>
       </c>
       <c r="I107">
-        <v>85523753000</v>
+        <v>80816764700</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-20T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>12294635761000</v>
+        <v>11066481844300</v>
       </c>
       <c r="L107">
         <v>760773900</v>
@@ -5743,13 +5743,13 @@
         <v>914700</v>
       </c>
       <c r="N107">
-        <v>21520065000</v>
+        <v>20548537500</v>
       </c>
       <c r="O107">
         <v>-150406900</v>
       </c>
       <c r="P107">
-        <v>-2133494412000</v>
+        <v>-1880345614200</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>28800</v>
       </c>
       <c r="E108">
-        <v>21617730000</v>
+        <v>20211537600</v>
       </c>
       <c r="F108">
-        <v>98000095000</v>
+        <v>82731279100</v>
       </c>
       <c r="G108">
         <v>737640000</v>
@@ -5778,13 +5778,13 @@
         <v>6619400</v>
       </c>
       <c r="I108">
-        <v>120355465000</v>
+        <v>103680456700</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-20T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>12414991226000</v>
+        <v>11170162301000</v>
       </c>
       <c r="L108">
         <v>767393300</v>
@@ -5793,13 +5793,13 @@
         <v>3647800</v>
       </c>
       <c r="N108">
-        <v>76382365000</v>
+        <v>62519741500</v>
       </c>
       <c r="O108">
         <v>-146759100</v>
       </c>
       <c r="P108">
-        <v>-2057112047000</v>
+        <v>-1817825872700</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>53800</v>
       </c>
       <c r="E109">
-        <v>24511373000</v>
+        <v>22473313100</v>
       </c>
       <c r="F109">
-        <v>147972025000</v>
+        <v>121979943100</v>
       </c>
       <c r="G109">
-        <v>995082000</v>
+        <v>464513100</v>
       </c>
       <c r="H109">
         <v>9216600</v>
       </c>
       <c r="I109">
-        <v>173478480000</v>
+        <v>144917769300</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-20T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>12588469706000</v>
+        <v>11315080070300</v>
       </c>
       <c r="L109">
         <v>776609900</v>
@@ -5843,13 +5843,13 @@
         <v>6085800</v>
       </c>
       <c r="N109">
-        <v>123460652000</v>
+        <v>99506630000</v>
       </c>
       <c r="O109">
         <v>-140673300</v>
       </c>
       <c r="P109">
-        <v>-1933651395000</v>
+        <v>-1718319242700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>103200</v>
       </c>
       <c r="E110">
-        <v>35367815000</v>
+        <v>33243741200</v>
       </c>
       <c r="F110">
-        <v>190198920000</v>
+        <v>173512323300</v>
       </c>
       <c r="G110">
         <v>2030381000</v>
@@ -5878,13 +5878,13 @@
         <v>13418200</v>
       </c>
       <c r="I110">
-        <v>227597116000</v>
+        <v>208786445500</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-20T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>12816066822000</v>
+        <v>11523866515800</v>
       </c>
       <c r="L110">
         <v>790028100</v>
@@ -5893,13 +5893,13 @@
         <v>8896800</v>
       </c>
       <c r="N110">
-        <v>154831105000</v>
+        <v>140268582100</v>
       </c>
       <c r="O110">
         <v>-131776500</v>
       </c>
       <c r="P110">
-        <v>-1778820290000</v>
+        <v>-1578050660600</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>171600</v>
       </c>
       <c r="E111">
-        <v>51225798000</v>
+        <v>48810515700</v>
       </c>
       <c r="F111">
-        <v>299360734000</v>
+        <v>271840781500</v>
       </c>
       <c r="G111">
         <v>3349865000</v>
@@ -5928,13 +5928,13 @@
         <v>21406100</v>
       </c>
       <c r="I111">
-        <v>353936397000</v>
+        <v>324001162200</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-20T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>13170003219000</v>
+        <v>11847867678000</v>
       </c>
       <c r="L111">
         <v>811434200</v>
@@ -5943,13 +5943,13 @@
         <v>14945500</v>
       </c>
       <c r="N111">
-        <v>248134936000</v>
+        <v>223030265800</v>
       </c>
       <c r="O111">
         <v>-116831000</v>
       </c>
       <c r="P111">
-        <v>-1530685354000</v>
+        <v>-1355020394800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>55000</v>
       </c>
       <c r="E112">
-        <v>112206826000</v>
+        <v>101201342500</v>
       </c>
       <c r="F112">
-        <v>144775051000</v>
+        <v>133031006800</v>
       </c>
       <c r="G112">
         <v>1089950000</v>
@@ -5978,13 +5978,13 @@
         <v>15613200</v>
       </c>
       <c r="I112">
-        <v>258071827000</v>
+        <v>235322299300</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-20T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>13428075046000</v>
+        <v>12083189977300</v>
       </c>
       <c r="L112">
         <v>827047400</v>
@@ -5993,13 +5993,13 @@
         <v>1556200</v>
       </c>
       <c r="N112">
-        <v>32568225000</v>
+        <v>31829664300</v>
       </c>
       <c r="O112">
         <v>-115274800</v>
       </c>
       <c r="P112">
-        <v>-1498117129000</v>
+        <v>-1323190730500</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>79600</v>
       </c>
       <c r="E113">
-        <v>130334980000</v>
+        <v>120429595300</v>
       </c>
       <c r="F113">
-        <v>74149444000</v>
+        <v>69666231700</v>
       </c>
       <c r="G113">
-        <v>1382779000</v>
+        <v>1369392400</v>
       </c>
       <c r="H113">
         <v>11809700</v>
       </c>
       <c r="I113">
-        <v>205867203000</v>
+        <v>191465219400</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-20T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>13633942249000</v>
+        <v>12274655196700</v>
       </c>
       <c r="L113">
         <v>838857100</v>
@@ -6043,13 +6043,13 @@
         <v>-4005900</v>
       </c>
       <c r="N113">
-        <v>-56185536000</v>
+        <v>-50763363600</v>
       </c>
       <c r="O113">
         <v>-119280700</v>
       </c>
       <c r="P113">
-        <v>-1554302665000</v>
+        <v>-1373954094100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>106100</v>
       </c>
       <c r="E114">
-        <v>114325614000</v>
+        <v>104241708000</v>
       </c>
       <c r="F114">
-        <v>86202553000</v>
+        <v>74223044500</v>
       </c>
       <c r="G114">
-        <v>1733435000</v>
+        <v>1727840600</v>
       </c>
       <c r="H114">
         <v>11539800</v>
       </c>
       <c r="I114">
-        <v>202261602000</v>
+        <v>180192593100</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-20T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>13836203851000</v>
+        <v>12454847789800</v>
       </c>
       <c r="L114">
         <v>850396900</v>
@@ -6093,13 +6093,13 @@
         <v>-2949900</v>
       </c>
       <c r="N114">
-        <v>-28123061000</v>
+        <v>-30018663500</v>
       </c>
       <c r="O114">
         <v>-122230600</v>
       </c>
       <c r="P114">
-        <v>-1582425726000</v>
+        <v>-1403972757600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>177200</v>
       </c>
       <c r="E115">
-        <v>79892795000</v>
+        <v>66160541000</v>
       </c>
       <c r="F115">
-        <v>91540020000</v>
+        <v>79301970300</v>
       </c>
       <c r="G115">
-        <v>2282315000</v>
+        <v>2031865700</v>
       </c>
       <c r="H115">
         <v>11695100</v>
       </c>
       <c r="I115">
-        <v>173715130000</v>
+        <v>147494377000</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-20T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>14009918981000</v>
+        <v>12602342166800</v>
       </c>
       <c r="L115">
         <v>862092000</v>
@@ -6143,13 +6143,13 @@
         <v>-150500</v>
       </c>
       <c r="N115">
-        <v>11647225000</v>
+        <v>13141429300</v>
       </c>
       <c r="O115">
         <v>-122381100</v>
       </c>
       <c r="P115">
-        <v>-1570778501000</v>
+        <v>-1390831328300</v>
       </c>
     </row>
     <row r="116">
@@ -6166,7 +6166,7 @@
         <v>500</v>
       </c>
       <c r="E116">
-        <v>226175000</v>
+        <v>124277000</v>
       </c>
       <c r="F116">
         <v>145857000</v>
@@ -6178,13 +6178,13 @@
         <v>28500</v>
       </c>
       <c r="I116">
-        <v>377082000</v>
+        <v>275184000</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-20T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>14010296063000</v>
+        <v>12602617350800</v>
       </c>
       <c r="L116">
         <v>862120500</v>
@@ -6193,13 +6193,13 @@
         <v>-4000</v>
       </c>
       <c r="N116">
-        <v>-80318000</v>
+        <v>21580000</v>
       </c>
       <c r="O116">
         <v>-122385100</v>
       </c>
       <c r="P116">
-        <v>-1570858819000</v>
+        <v>-1390809748300</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-20T14:36:00.000Z</v>
       </c>
       <c r="K117">
-        <v>14010297073000</v>
+        <v>12602618360800</v>
       </c>
       <c r="L117">
         <v>862120600</v>
@@ -6249,7 +6249,7 @@
         <v>-122385000</v>
       </c>
       <c r="P117">
-        <v>-1570857809000</v>
+        <v>-1390808738300</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-20T14:38:00.000Z</v>
       </c>
       <c r="K118">
-        <v>14010307173000</v>
+        <v>12602628460800</v>
       </c>
       <c r="L118">
         <v>862121600</v>
@@ -6299,7 +6299,7 @@
         <v>-122384000</v>
       </c>
       <c r="P118">
-        <v>-1570847709000</v>
+        <v>-1390798638300</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-20T14:42:00.000Z</v>
       </c>
       <c r="K119">
-        <v>14010338483000</v>
+        <v>12602659770800</v>
       </c>
       <c r="L119">
         <v>862124700</v>
@@ -6349,7 +6349,7 @@
         <v>-122380900</v>
       </c>
       <c r="P119">
-        <v>-1570816399000</v>
+        <v>-1390767328300</v>
       </c>
     </row>
     <row r="120">
@@ -6366,25 +6366,25 @@
         <v>32345800</v>
       </c>
       <c r="E120">
-        <v>41743726000</v>
+        <v>37444129900</v>
       </c>
       <c r="F120">
-        <v>56265710000</v>
+        <v>54897679400</v>
       </c>
       <c r="G120">
-        <v>640849047000</v>
+        <v>502953081000</v>
       </c>
       <c r="H120">
         <v>39743900</v>
       </c>
       <c r="I120">
-        <v>738858483000</v>
+        <v>595294890300</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-20T14:44:00.000Z</v>
       </c>
       <c r="K120">
-        <v>14749196966000</v>
+        <v>13197954661100</v>
       </c>
       <c r="L120">
         <v>901868600</v>
@@ -6393,13 +6393,13 @@
         <v>-608300</v>
       </c>
       <c r="N120">
-        <v>14521984000</v>
+        <v>17453549500</v>
       </c>
       <c r="O120">
         <v>-122989200</v>
       </c>
       <c r="P120">
-        <v>-1556294415000</v>
+        <v>-1373313778800</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-20T14:46:00.000Z</v>
       </c>
       <c r="K121">
-        <v>14749205046000</v>
+        <v>13197962741100</v>
       </c>
       <c r="L121">
         <v>901869400</v>
@@ -6449,7 +6449,7 @@
         <v>-122988400</v>
       </c>
       <c r="P121">
-        <v>-1556286335000</v>
+        <v>-1373305698800</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-20T14:50:00.000Z</v>
       </c>
       <c r="K122">
-        <v>14749243426000</v>
+        <v>13198001121100</v>
       </c>
       <c r="L122">
         <v>901873200</v>
@@ -6499,7 +6499,7 @@
         <v>-122984600</v>
       </c>
       <c r="P122">
-        <v>-1556247955000</v>
+        <v>-1373267318800</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-20T14:52:00.000Z</v>
       </c>
       <c r="K123">
-        <v>14749259586000</v>
+        <v>13198017281100</v>
       </c>
       <c r="L123">
         <v>901874800</v>
@@ -6549,7 +6549,7 @@
         <v>-122983000</v>
       </c>
       <c r="P123">
-        <v>-1556231795000</v>
+        <v>-1373251158800</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2022-12-20T14:54:00.000Z</v>
       </c>
       <c r="K124">
-        <v>14749306046000</v>
+        <v>13198063741100</v>
       </c>
       <c r="L124">
         <v>901879400</v>
@@ -6599,7 +6599,7 @@
         <v>-122978700</v>
       </c>
       <c r="P124">
-        <v>-1556188365000</v>
+        <v>-1373207728800</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
+++ b/name/vnindex/20221220/VNINDEX_HOSE_5p_20221220.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-3418634600</v>
       </c>
+      <c r="Q2">
+        <v>52121282000</v>
+      </c>
+      <c r="R2">
+        <v>55539916600</v>
+      </c>
+      <c r="S2">
+        <v>3538000</v>
+      </c>
+      <c r="T2">
+        <v>4208600</v>
+      </c>
+      <c r="U2">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V2">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W2">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X2">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y2">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z2">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA2">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB2">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC2">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>12738966400</v>
       </c>
+      <c r="Q3">
+        <v>100992310900</v>
+      </c>
+      <c r="R3">
+        <v>88253344500</v>
+      </c>
+      <c r="S3">
+        <v>6494100</v>
+      </c>
+      <c r="T3">
+        <v>6282300</v>
+      </c>
+      <c r="U3">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V3">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W3">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X3">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y3">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z3">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA3">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB3">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC3">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-14642709100</v>
       </c>
+      <c r="Q4">
+        <v>136705838400</v>
+      </c>
+      <c r="R4">
+        <v>151348547500</v>
+      </c>
+      <c r="S4">
+        <v>8737700</v>
+      </c>
+      <c r="T4">
+        <v>10474400</v>
+      </c>
+      <c r="U4">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V4">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W4">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X4">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y4">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z4">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA4">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB4">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC4">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-49263826500</v>
       </c>
+      <c r="Q5">
+        <v>169811198600</v>
+      </c>
+      <c r="R5">
+        <v>219075025100</v>
+      </c>
+      <c r="S5">
+        <v>10945500</v>
+      </c>
+      <c r="T5">
+        <v>15154800</v>
+      </c>
+      <c r="U5">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V5">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W5">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X5">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y5">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z5">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA5">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB5">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC5">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-37304619800</v>
       </c>
+      <c r="Q6">
+        <v>225138845600</v>
+      </c>
+      <c r="R6">
+        <v>262443465400</v>
+      </c>
+      <c r="S6">
+        <v>14330300</v>
+      </c>
+      <c r="T6">
+        <v>18015300</v>
+      </c>
+      <c r="U6">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V6">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W6">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X6">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y6">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z6">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA6">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB6">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC6">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-19978170000</v>
       </c>
+      <c r="Q7">
+        <v>276846221500</v>
+      </c>
+      <c r="R7">
+        <v>296824391500</v>
+      </c>
+      <c r="S7">
+        <v>17915600</v>
+      </c>
+      <c r="T7">
+        <v>20554900</v>
+      </c>
+      <c r="U7">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V7">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W7">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X7">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y7">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z7">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA7">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB7">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC7">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>19195526900</v>
       </c>
+      <c r="Q8">
+        <v>333906140600</v>
+      </c>
+      <c r="R8">
+        <v>314710613700</v>
+      </c>
+      <c r="S8">
+        <v>21650900</v>
+      </c>
+      <c r="T8">
+        <v>21784000</v>
+      </c>
+      <c r="U8">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V8">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W8">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X8">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y8">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z8">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA8">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB8">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>42206650900</v>
       </c>
+      <c r="Q9">
+        <v>385543991900</v>
+      </c>
+      <c r="R9">
+        <v>343337341000</v>
+      </c>
+      <c r="S9">
+        <v>25527100</v>
+      </c>
+      <c r="T9">
+        <v>23676500</v>
+      </c>
+      <c r="U9">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V9">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W9">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X9">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y9">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z9">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA9">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB9">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC9">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>54383308200</v>
       </c>
+      <c r="Q10">
+        <v>428745392100</v>
+      </c>
+      <c r="R10">
+        <v>374362083900</v>
+      </c>
+      <c r="S10">
+        <v>28393300</v>
+      </c>
+      <c r="T10">
+        <v>25571300</v>
+      </c>
+      <c r="U10">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V10">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W10">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X10">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y10">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z10">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA10">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB10">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC10">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>27925811600</v>
       </c>
+      <c r="Q11">
+        <v>453401948600</v>
+      </c>
+      <c r="R11">
+        <v>425476137000</v>
+      </c>
+      <c r="S11">
+        <v>30113600</v>
+      </c>
+      <c r="T11">
+        <v>29290500</v>
+      </c>
+      <c r="U11">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V11">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W11">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X11">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y11">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z11">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA11">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB11">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC11">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-9092622400</v>
       </c>
+      <c r="Q12">
+        <v>478951418800</v>
+      </c>
+      <c r="R12">
+        <v>488044041200</v>
+      </c>
+      <c r="S12">
+        <v>31727700</v>
+      </c>
+      <c r="T12">
+        <v>33357400</v>
+      </c>
+      <c r="U12">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V12">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W12">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X12">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y12">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z12">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA12">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB12">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC12">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-63713834500</v>
       </c>
+      <c r="Q13">
+        <v>495111051900</v>
+      </c>
+      <c r="R13">
+        <v>558824886400</v>
+      </c>
+      <c r="S13">
+        <v>32960200</v>
+      </c>
+      <c r="T13">
+        <v>38011500</v>
+      </c>
+      <c r="U13">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V13">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W13">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X13">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y13">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z13">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA13">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB13">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC13">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-124720046400</v>
       </c>
+      <c r="Q14">
+        <v>511935686900</v>
+      </c>
+      <c r="R14">
+        <v>636655733300</v>
+      </c>
+      <c r="S14">
+        <v>33972500</v>
+      </c>
+      <c r="T14">
+        <v>42879600</v>
+      </c>
+      <c r="U14">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V14">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W14">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X14">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y14">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z14">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA14">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB14">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC14">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-155217532000</v>
       </c>
+      <c r="Q15">
+        <v>547083354700</v>
+      </c>
+      <c r="R15">
+        <v>702300886700</v>
+      </c>
+      <c r="S15">
+        <v>35932000</v>
+      </c>
+      <c r="T15">
+        <v>47299900</v>
+      </c>
+      <c r="U15">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V15">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W15">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X15">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y15">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z15">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA15">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB15">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC15">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-155083383200</v>
       </c>
+      <c r="Q16">
+        <v>589444889900</v>
+      </c>
+      <c r="R16">
+        <v>744528273100</v>
+      </c>
+      <c r="S16">
+        <v>38615100</v>
+      </c>
+      <c r="T16">
+        <v>50090900</v>
+      </c>
+      <c r="U16">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V16">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W16">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X16">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y16">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z16">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA16">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB16">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-149043679900</v>
       </c>
+      <c r="Q17">
+        <v>625472408800</v>
+      </c>
+      <c r="R17">
+        <v>774516088700</v>
+      </c>
+      <c r="S17">
+        <v>40847800</v>
+      </c>
+      <c r="T17">
+        <v>51894200</v>
+      </c>
+      <c r="U17">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V17">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W17">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X17">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y17">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z17">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA17">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB17">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC17">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-166770361300</v>
       </c>
+      <c r="Q18">
+        <v>643047627600</v>
+      </c>
+      <c r="R18">
+        <v>809817988900</v>
+      </c>
+      <c r="S18">
+        <v>42233400</v>
+      </c>
+      <c r="T18">
+        <v>54047600</v>
+      </c>
+      <c r="U18">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V18">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W18">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X18">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y18">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z18">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA18">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB18">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC18">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-184695804800</v>
       </c>
+      <c r="Q19">
+        <v>676201694800</v>
+      </c>
+      <c r="R19">
+        <v>860897499600</v>
+      </c>
+      <c r="S19">
+        <v>44180400</v>
+      </c>
+      <c r="T19">
+        <v>57801400</v>
+      </c>
+      <c r="U19">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V19">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W19">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X19">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y19">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z19">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA19">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB19">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC19">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-216745341300</v>
       </c>
+      <c r="Q20">
+        <v>695733685100</v>
+      </c>
+      <c r="R20">
+        <v>912479026400</v>
+      </c>
+      <c r="S20">
+        <v>45386200</v>
+      </c>
+      <c r="T20">
+        <v>61662700</v>
+      </c>
+      <c r="U20">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V20">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W20">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X20">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y20">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z20">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA20">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB20">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC20">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-321784024400</v>
       </c>
+      <c r="Q21">
+        <v>711124244700</v>
+      </c>
+      <c r="R21">
+        <v>1032908269100</v>
+      </c>
+      <c r="S21">
+        <v>46428500</v>
+      </c>
+      <c r="T21">
+        <v>70033600</v>
+      </c>
+      <c r="U21">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V21">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W21">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X21">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y21">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z21">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA21">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB21">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC21">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-422066374700</v>
       </c>
+      <c r="Q22">
+        <v>738276149600</v>
+      </c>
+      <c r="R22">
+        <v>1160342524300</v>
+      </c>
+      <c r="S22">
+        <v>48193600</v>
+      </c>
+      <c r="T22">
+        <v>78641400</v>
+      </c>
+      <c r="U22">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V22">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W22">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X22">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y22">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z22">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA22">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB22">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-495834989000</v>
       </c>
+      <c r="Q23">
+        <v>787751752100</v>
+      </c>
+      <c r="R23">
+        <v>1283586741100</v>
+      </c>
+      <c r="S23">
+        <v>50958500</v>
+      </c>
+      <c r="T23">
+        <v>86467500</v>
+      </c>
+      <c r="U23">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V23">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W23">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X23">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y23">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z23">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA23">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB23">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC23">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-500962539700</v>
       </c>
+      <c r="Q24">
+        <v>840858182700</v>
+      </c>
+      <c r="R24">
+        <v>1341820722400</v>
+      </c>
+      <c r="S24">
+        <v>54509800</v>
+      </c>
+      <c r="T24">
+        <v>91060900</v>
+      </c>
+      <c r="U24">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V24">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W24">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X24">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y24">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z24">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA24">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB24">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-487991895300</v>
       </c>
+      <c r="Q25">
+        <v>887521364000</v>
+      </c>
+      <c r="R25">
+        <v>1375513259300</v>
+      </c>
+      <c r="S25">
+        <v>57216900</v>
+      </c>
+      <c r="T25">
+        <v>92968800</v>
+      </c>
+      <c r="U25">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V25">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W25">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X25">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y25">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z25">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA25">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB25">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC25">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-482328840000</v>
       </c>
+      <c r="Q26">
+        <v>920447442600</v>
+      </c>
+      <c r="R26">
+        <v>1402776282600</v>
+      </c>
+      <c r="S26">
+        <v>59299700</v>
+      </c>
+      <c r="T26">
+        <v>94826100</v>
+      </c>
+      <c r="U26">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V26">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W26">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X26">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y26">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z26">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA26">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB26">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-512693820600</v>
       </c>
+      <c r="Q27">
+        <v>935827241600</v>
+      </c>
+      <c r="R27">
+        <v>1448521062200</v>
+      </c>
+      <c r="S27">
+        <v>60309300</v>
+      </c>
+      <c r="T27">
+        <v>98525100</v>
+      </c>
+      <c r="U27">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V27">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W27">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X27">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y27">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z27">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA27">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB27">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC27">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-536392179100</v>
       </c>
+      <c r="Q28">
+        <v>959671891000</v>
+      </c>
+      <c r="R28">
+        <v>1496064070100</v>
+      </c>
+      <c r="S28">
+        <v>61779500</v>
+      </c>
+      <c r="T28">
+        <v>101642900</v>
+      </c>
+      <c r="U28">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V28">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W28">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X28">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y28">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z28">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA28">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB28">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC28">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-570234374700</v>
       </c>
+      <c r="Q29">
+        <v>981521994500</v>
+      </c>
+      <c r="R29">
+        <v>1551756369200</v>
+      </c>
+      <c r="S29">
+        <v>63267300</v>
+      </c>
+      <c r="T29">
+        <v>105277500</v>
+      </c>
+      <c r="U29">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V29">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W29">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X29">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y29">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z29">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA29">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB29">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-657622608300</v>
       </c>
+      <c r="Q30">
+        <v>1002593705500</v>
+      </c>
+      <c r="R30">
+        <v>1660216313800</v>
+      </c>
+      <c r="S30">
+        <v>64618100</v>
+      </c>
+      <c r="T30">
+        <v>111912600</v>
+      </c>
+      <c r="U30">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V30">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W30">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X30">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y30">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z30">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA30">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB30">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC30">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-762098114300</v>
       </c>
+      <c r="Q31">
+        <v>1029885440600</v>
+      </c>
+      <c r="R31">
+        <v>1791983554900</v>
+      </c>
+      <c r="S31">
+        <v>66302000</v>
+      </c>
+      <c r="T31">
+        <v>121220300</v>
+      </c>
+      <c r="U31">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V31">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W31">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X31">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y31">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z31">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA31">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB31">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC31">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-818136115300</v>
       </c>
+      <c r="Q32">
+        <v>1072571837800</v>
+      </c>
+      <c r="R32">
+        <v>1890707953100</v>
+      </c>
+      <c r="S32">
+        <v>68923800</v>
+      </c>
+      <c r="T32">
+        <v>128133900</v>
+      </c>
+      <c r="U32">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V32">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W32">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X32">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y32">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z32">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA32">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB32">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC32">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-804566308300</v>
       </c>
+      <c r="Q33">
+        <v>1156442623500</v>
+      </c>
+      <c r="R33">
+        <v>1961008931800</v>
+      </c>
+      <c r="S33">
+        <v>73689300</v>
+      </c>
+      <c r="T33">
+        <v>132834600</v>
+      </c>
+      <c r="U33">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V33">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W33">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X33">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y33">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z33">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA33">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB33">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC33">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-780149866700</v>
       </c>
+      <c r="Q34">
+        <v>1218991445400</v>
+      </c>
+      <c r="R34">
+        <v>1999141312100</v>
+      </c>
+      <c r="S34">
+        <v>77611500</v>
+      </c>
+      <c r="T34">
+        <v>135221400</v>
+      </c>
+      <c r="U34">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V34">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W34">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X34">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y34">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z34">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA34">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB34">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC34">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-810088739100</v>
       </c>
+      <c r="Q35">
+        <v>1250696996500</v>
+      </c>
+      <c r="R35">
+        <v>2060785735600</v>
+      </c>
+      <c r="S35">
+        <v>79532000</v>
+      </c>
+      <c r="T35">
+        <v>138941000</v>
+      </c>
+      <c r="U35">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V35">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W35">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X35">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y35">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z35">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA35">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB35">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC35">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-899252925300</v>
       </c>
+      <c r="Q36">
+        <v>1271830640000</v>
+      </c>
+      <c r="R36">
+        <v>2171083565300</v>
+      </c>
+      <c r="S36">
+        <v>80821400</v>
+      </c>
+      <c r="T36">
+        <v>146015800</v>
+      </c>
+      <c r="U36">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V36">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W36">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X36">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y36">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z36">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA36">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB36">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC36">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-992529336200</v>
       </c>
+      <c r="Q37">
+        <v>1299187208500</v>
+      </c>
+      <c r="R37">
+        <v>2291716544700</v>
+      </c>
+      <c r="S37">
+        <v>82561700</v>
+      </c>
+      <c r="T37">
+        <v>155859500</v>
+      </c>
+      <c r="U37">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V37">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W37">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X37">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y37">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z37">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA37">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB37">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC37">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-1097141013200</v>
       </c>
+      <c r="Q38">
+        <v>1330237185200</v>
+      </c>
+      <c r="R38">
+        <v>2427378198400</v>
+      </c>
+      <c r="S38">
+        <v>84389100</v>
+      </c>
+      <c r="T38">
+        <v>166412700</v>
+      </c>
+      <c r="U38">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V38">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W38">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X38">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y38">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z38">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA38">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB38">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC38">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-1216343227600</v>
       </c>
+      <c r="Q39">
+        <v>1356549703100</v>
+      </c>
+      <c r="R39">
+        <v>2572892930700</v>
+      </c>
+      <c r="S39">
+        <v>86261600</v>
+      </c>
+      <c r="T39">
+        <v>176382600</v>
+      </c>
+      <c r="U39">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V39">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W39">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X39">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y39">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z39">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA39">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB39">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC39">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-1230528707000</v>
       </c>
+      <c r="Q40">
+        <v>1427793062500</v>
+      </c>
+      <c r="R40">
+        <v>2658321769500</v>
+      </c>
+      <c r="S40">
+        <v>90864600</v>
+      </c>
+      <c r="T40">
+        <v>182202600</v>
+      </c>
+      <c r="U40">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V40">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W40">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X40">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y40">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z40">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA40">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB40">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC40">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-1204021537100</v>
       </c>
+      <c r="Q41">
+        <v>1495608242800</v>
+      </c>
+      <c r="R41">
+        <v>2699629779900</v>
+      </c>
+      <c r="S41">
+        <v>95604100</v>
+      </c>
+      <c r="T41">
+        <v>185899100</v>
+      </c>
+      <c r="U41">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V41">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W41">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X41">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y41">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z41">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA41">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB41">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC41">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-1191444819900</v>
       </c>
+      <c r="Q42">
+        <v>1536510551300</v>
+      </c>
+      <c r="R42">
+        <v>2727955371200</v>
+      </c>
+      <c r="S42">
+        <v>98449600</v>
+      </c>
+      <c r="T42">
+        <v>187966400</v>
+      </c>
+      <c r="U42">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V42">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W42">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X42">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y42">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z42">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA42">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB42">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC42">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-1169566219900</v>
       </c>
+      <c r="Q43">
+        <v>1578917633200</v>
+      </c>
+      <c r="R43">
+        <v>2748483853100</v>
+      </c>
+      <c r="S43">
+        <v>101052900</v>
+      </c>
+      <c r="T43">
+        <v>189444000</v>
+      </c>
+      <c r="U43">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V43">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W43">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X43">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y43">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z43">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA43">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB43">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-1165834195100</v>
       </c>
+      <c r="Q44">
+        <v>1614772789000</v>
+      </c>
+      <c r="R44">
+        <v>2780606984100</v>
+      </c>
+      <c r="S44">
+        <v>103409200</v>
+      </c>
+      <c r="T44">
+        <v>191475600</v>
+      </c>
+      <c r="U44">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V44">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W44">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X44">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y44">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z44">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA44">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB44">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC44">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-1146043241400</v>
       </c>
+      <c r="Q45">
+        <v>1658916452000</v>
+      </c>
+      <c r="R45">
+        <v>2804959693400</v>
+      </c>
+      <c r="S45">
+        <v>106124200</v>
+      </c>
+      <c r="T45">
+        <v>192739200</v>
+      </c>
+      <c r="U45">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V45">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W45">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X45">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y45">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z45">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA45">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB45">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC45">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-1145268938500</v>
       </c>
+      <c r="Q46">
+        <v>1689904865700</v>
+      </c>
+      <c r="R46">
+        <v>2835173804200</v>
+      </c>
+      <c r="S46">
+        <v>108102700</v>
+      </c>
+      <c r="T46">
+        <v>194539200</v>
+      </c>
+      <c r="U46">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V46">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W46">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X46">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y46">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z46">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA46">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB46">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC46">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-1188654992100</v>
       </c>
+      <c r="Q47">
+        <v>1710015587200</v>
+      </c>
+      <c r="R47">
+        <v>2898670579300</v>
+      </c>
+      <c r="S47">
+        <v>109287700</v>
+      </c>
+      <c r="T47">
+        <v>198338800</v>
+      </c>
+      <c r="U47">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V47">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W47">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X47">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y47">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z47">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA47">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB47">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC47">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-1220931938400</v>
       </c>
+      <c r="Q48">
+        <v>1727517111600</v>
+      </c>
+      <c r="R48">
+        <v>2948449050000</v>
+      </c>
+      <c r="S48">
+        <v>110233000</v>
+      </c>
+      <c r="T48">
+        <v>201698600</v>
+      </c>
+      <c r="U48">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V48">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W48">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X48">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y48">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z48">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA48">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB48">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC48">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-1237065765400</v>
       </c>
+      <c r="Q49">
+        <v>1751756778100</v>
+      </c>
+      <c r="R49">
+        <v>2988822543500</v>
+      </c>
+      <c r="S49">
+        <v>111702600</v>
+      </c>
+      <c r="T49">
+        <v>203996100</v>
+      </c>
+      <c r="U49">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V49">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W49">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X49">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y49">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z49">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA49">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB49">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC49">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-1236756247300</v>
       </c>
+      <c r="Q50">
+        <v>1778150665700</v>
+      </c>
+      <c r="R50">
+        <v>3014906913000</v>
+      </c>
+      <c r="S50">
+        <v>113186100</v>
+      </c>
+      <c r="T50">
+        <v>205682800</v>
+      </c>
+      <c r="U50">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V50">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W50">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X50">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y50">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z50">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA50">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB50">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-1234602941400</v>
       </c>
+      <c r="Q51">
+        <v>1798843328600</v>
+      </c>
+      <c r="R51">
+        <v>3033446270000</v>
+      </c>
+      <c r="S51">
+        <v>114478400</v>
+      </c>
+      <c r="T51">
+        <v>206889300</v>
+      </c>
+      <c r="U51">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V51">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W51">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X51">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y51">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z51">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA51">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB51">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC51">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-1231919586200</v>
       </c>
+      <c r="Q52">
+        <v>1823445519700</v>
+      </c>
+      <c r="R52">
+        <v>3055365105900</v>
+      </c>
+      <c r="S52">
+        <v>116012700</v>
+      </c>
+      <c r="T52">
+        <v>208209700</v>
+      </c>
+      <c r="U52">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V52">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W52">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X52">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y52">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z52">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA52">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB52">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC52">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-1221020714500</v>
       </c>
+      <c r="Q53">
+        <v>1851046696300</v>
+      </c>
+      <c r="R53">
+        <v>3072067410800</v>
+      </c>
+      <c r="S53">
+        <v>117565000</v>
+      </c>
+      <c r="T53">
+        <v>209197500</v>
+      </c>
+      <c r="U53">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V53">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W53">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X53">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y53">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z53">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA53">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB53">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-1191575762900</v>
       </c>
+      <c r="Q54">
+        <v>1892596151900</v>
+      </c>
+      <c r="R54">
+        <v>3084171914800</v>
+      </c>
+      <c r="S54">
+        <v>120048300</v>
+      </c>
+      <c r="T54">
+        <v>209987000</v>
+      </c>
+      <c r="U54">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V54">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W54">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X54">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y54">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z54">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA54">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB54">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC54">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-1171090150600</v>
       </c>
+      <c r="Q55">
+        <v>1927431253200</v>
+      </c>
+      <c r="R55">
+        <v>3098521403800</v>
+      </c>
+      <c r="S55">
+        <v>122159300</v>
+      </c>
+      <c r="T55">
+        <v>211074400</v>
+      </c>
+      <c r="U55">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V55">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W55">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X55">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y55">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z55">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA55">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB55">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC55">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-1169263721400</v>
       </c>
+      <c r="Q56">
+        <v>1954629552500</v>
+      </c>
+      <c r="R56">
+        <v>3123893273900</v>
+      </c>
+      <c r="S56">
+        <v>124104200</v>
+      </c>
+      <c r="T56">
+        <v>212878600</v>
+      </c>
+      <c r="U56">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V56">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W56">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X56">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y56">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z56">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA56">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB56">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC56">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-1176394204400</v>
       </c>
+      <c r="Q57">
+        <v>1978928179100</v>
+      </c>
+      <c r="R57">
+        <v>3155322383500</v>
+      </c>
+      <c r="S57">
+        <v>125454700</v>
+      </c>
+      <c r="T57">
+        <v>214619000</v>
+      </c>
+      <c r="U57">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V57">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W57">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X57">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y57">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z57">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA57">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB57">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC57">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-1191002073900</v>
       </c>
+      <c r="Q58">
+        <v>1997586258000</v>
+      </c>
+      <c r="R58">
+        <v>3188588331900</v>
+      </c>
+      <c r="S58">
+        <v>126584000</v>
+      </c>
+      <c r="T58">
+        <v>216783700</v>
+      </c>
+      <c r="U58">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V58">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W58">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X58">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y58">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z58">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA58">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB58">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC58">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-1219760710500</v>
       </c>
+      <c r="Q59">
+        <v>2011738883900</v>
+      </c>
+      <c r="R59">
+        <v>3231499594400</v>
+      </c>
+      <c r="S59">
+        <v>127413000</v>
+      </c>
+      <c r="T59">
+        <v>219329800</v>
+      </c>
+      <c r="U59">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V59">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W59">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X59">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y59">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z59">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA59">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB59">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC59">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-1231781894900</v>
       </c>
+      <c r="Q60">
+        <v>2026548052300</v>
+      </c>
+      <c r="R60">
+        <v>3258329947200</v>
+      </c>
+      <c r="S60">
+        <v>128229200</v>
+      </c>
+      <c r="T60">
+        <v>221212800</v>
+      </c>
+      <c r="U60">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V60">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W60">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X60">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y60">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z60">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA60">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB60">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC60">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-1257836027200</v>
       </c>
+      <c r="Q61">
+        <v>2040105107500</v>
+      </c>
+      <c r="R61">
+        <v>3297941134700</v>
+      </c>
+      <c r="S61">
+        <v>129041200</v>
+      </c>
+      <c r="T61">
+        <v>223975800</v>
+      </c>
+      <c r="U61">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V61">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W61">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X61">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y61">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z61">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA61">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB61">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC61">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-1283360013700</v>
       </c>
+      <c r="Q62">
+        <v>2056704520400</v>
+      </c>
+      <c r="R62">
+        <v>3340064534100</v>
+      </c>
+      <c r="S62">
+        <v>129993600</v>
+      </c>
+      <c r="T62">
+        <v>226796900</v>
+      </c>
+      <c r="U62">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V62">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W62">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X62">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y62">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z62">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA62">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB62">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC62">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-1357544482300</v>
       </c>
+      <c r="Q63">
+        <v>2072095794700</v>
+      </c>
+      <c r="R63">
+        <v>3429640277000</v>
+      </c>
+      <c r="S63">
+        <v>130922100</v>
+      </c>
+      <c r="T63">
+        <v>232309400</v>
+      </c>
+      <c r="U63">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V63">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W63">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X63">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y63">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z63">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA63">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB63">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC63">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-1459337327200</v>
       </c>
+      <c r="Q64">
+        <v>2087683238900</v>
+      </c>
+      <c r="R64">
+        <v>3547020566100</v>
+      </c>
+      <c r="S64">
+        <v>131973400</v>
+      </c>
+      <c r="T64">
+        <v>240186200</v>
+      </c>
+      <c r="U64">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V64">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W64">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X64">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y64">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z64">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA64">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB64">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC64">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-1595252318300</v>
       </c>
+      <c r="Q65">
+        <v>2107096354200</v>
+      </c>
+      <c r="R65">
+        <v>3702348672500</v>
+      </c>
+      <c r="S65">
+        <v>133320800</v>
+      </c>
+      <c r="T65">
+        <v>250705600</v>
+      </c>
+      <c r="U65">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V65">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W65">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X65">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y65">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z65">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA65">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB65">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC65">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-1674280023700</v>
       </c>
+      <c r="Q66">
+        <v>2130962379400</v>
+      </c>
+      <c r="R66">
+        <v>3805242403100</v>
+      </c>
+      <c r="S66">
+        <v>134919800</v>
+      </c>
+      <c r="T66">
+        <v>258582400</v>
+      </c>
+      <c r="U66">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V66">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W66">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X66">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y66">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z66">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA66">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB66">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC66">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-1708504154500</v>
       </c>
+      <c r="Q67">
+        <v>2158955833100</v>
+      </c>
+      <c r="R67">
+        <v>3867459987600</v>
+      </c>
+      <c r="S67">
+        <v>136661200</v>
+      </c>
+      <c r="T67">
+        <v>262638200</v>
+      </c>
+      <c r="U67">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V67">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W67">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X67">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y67">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z67">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA67">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB67">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC67">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-1738538449300</v>
       </c>
+      <c r="Q68">
+        <v>2191835528800</v>
+      </c>
+      <c r="R68">
+        <v>3930373978100</v>
+      </c>
+      <c r="S68">
+        <v>138714800</v>
+      </c>
+      <c r="T68">
+        <v>267254200</v>
+      </c>
+      <c r="U68">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V68">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W68">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X68">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y68">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z68">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA68">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB68">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC68">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-1775431947800</v>
       </c>
+      <c r="Q69">
+        <v>2214362377500</v>
+      </c>
+      <c r="R69">
+        <v>3989794325300</v>
+      </c>
+      <c r="S69">
+        <v>140338300</v>
+      </c>
+      <c r="T69">
+        <v>271368900</v>
+      </c>
+      <c r="U69">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V69">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W69">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X69">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y69">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z69">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA69">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB69">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC69">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-1774850021800</v>
       </c>
+      <c r="Q70">
+        <v>2214968603500</v>
+      </c>
+      <c r="R70">
+        <v>3989818625300</v>
+      </c>
+      <c r="S70">
+        <v>140402000</v>
+      </c>
+      <c r="T70">
+        <v>271370700</v>
+      </c>
+      <c r="U70">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V70">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W70">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X70">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y70">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z70">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA70">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB70">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-1795257735800</v>
       </c>
+      <c r="Q71">
+        <v>2467441720700</v>
+      </c>
+      <c r="R71">
+        <v>4262699456500</v>
+      </c>
+      <c r="S71">
+        <v>157383100</v>
+      </c>
+      <c r="T71">
+        <v>293182400</v>
+      </c>
+      <c r="U71">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V71">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W71">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X71">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y71">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z71">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA71">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB71">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC71">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-1962117168000</v>
       </c>
+      <c r="Q72">
+        <v>2518704229700</v>
+      </c>
+      <c r="R72">
+        <v>4480821397700</v>
+      </c>
+      <c r="S72">
+        <v>160693600</v>
+      </c>
+      <c r="T72">
+        <v>310766000</v>
+      </c>
+      <c r="U72">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V72">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W72">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X72">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y72">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z72">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA72">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB72">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC72">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-2031661695900</v>
       </c>
+      <c r="Q73">
+        <v>2586141716800</v>
+      </c>
+      <c r="R73">
+        <v>4617803412700</v>
+      </c>
+      <c r="S73">
+        <v>165121600</v>
+      </c>
+      <c r="T73">
+        <v>321890800</v>
+      </c>
+      <c r="U73">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V73">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W73">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X73">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y73">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z73">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA73">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB73">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC73">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-2067660786700</v>
       </c>
+      <c r="Q74">
+        <v>2656215911100</v>
+      </c>
+      <c r="R74">
+        <v>4723876697800</v>
+      </c>
+      <c r="S74">
+        <v>170363900</v>
+      </c>
+      <c r="T74">
+        <v>329123200</v>
+      </c>
+      <c r="U74">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V74">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W74">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X74">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y74">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z74">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA74">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB74">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC74">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-2066428055200</v>
       </c>
+      <c r="Q75">
+        <v>2713272240700</v>
+      </c>
+      <c r="R75">
+        <v>4779700295900</v>
+      </c>
+      <c r="S75">
+        <v>174854000</v>
+      </c>
+      <c r="T75">
+        <v>333796900</v>
+      </c>
+      <c r="U75">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V75">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W75">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X75">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y75">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z75">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA75">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB75">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC75">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-2100682130000</v>
       </c>
+      <c r="Q76">
+        <v>2749318064000</v>
+      </c>
+      <c r="R76">
+        <v>4850000194000</v>
+      </c>
+      <c r="S76">
+        <v>177831100</v>
+      </c>
+      <c r="T76">
+        <v>339107100</v>
+      </c>
+      <c r="U76">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V76">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W76">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X76">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y76">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z76">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA76">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB76">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC76">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-2164777551700</v>
       </c>
+      <c r="Q77">
+        <v>2787943332800</v>
+      </c>
+      <c r="R77">
+        <v>4952720884500</v>
+      </c>
+      <c r="S77">
+        <v>180410000</v>
+      </c>
+      <c r="T77">
+        <v>346003800</v>
+      </c>
+      <c r="U77">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V77">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W77">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X77">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y77">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z77">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA77">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB77">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC77">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-2184052941900</v>
       </c>
+      <c r="Q78">
+        <v>2833910516400</v>
+      </c>
+      <c r="R78">
+        <v>5017963458300</v>
+      </c>
+      <c r="S78">
+        <v>184036100</v>
+      </c>
+      <c r="T78">
+        <v>351337700</v>
+      </c>
+      <c r="U78">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V78">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W78">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X78">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y78">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z78">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA78">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB78">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC78">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-2157734492200</v>
       </c>
+      <c r="Q79">
+        <v>2904751181600</v>
+      </c>
+      <c r="R79">
+        <v>5062485673800</v>
+      </c>
+      <c r="S79">
+        <v>188903500</v>
+      </c>
+      <c r="T79">
+        <v>354979400</v>
+      </c>
+      <c r="U79">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V79">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W79">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X79">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y79">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z79">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA79">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB79">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC79">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-2099629942000</v>
       </c>
+      <c r="Q80">
+        <v>2990953592100</v>
+      </c>
+      <c r="R80">
+        <v>5090583534100</v>
+      </c>
+      <c r="S80">
+        <v>194754200</v>
+      </c>
+      <c r="T80">
+        <v>356839600</v>
+      </c>
+      <c r="U80">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V80">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W80">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X80">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y80">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z80">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA80">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB80">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC80">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-2072048140400</v>
       </c>
+      <c r="Q81">
+        <v>3062744397900</v>
+      </c>
+      <c r="R81">
+        <v>5134792538300</v>
+      </c>
+      <c r="S81">
+        <v>199713300</v>
+      </c>
+      <c r="T81">
+        <v>359641600</v>
+      </c>
+      <c r="U81">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V81">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W81">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X81">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y81">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z81">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA81">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB81">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC81">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-2122754926100</v>
       </c>
+      <c r="Q82">
+        <v>3098441275500</v>
+      </c>
+      <c r="R82">
+        <v>5221196201600</v>
+      </c>
+      <c r="S82">
+        <v>202351600</v>
+      </c>
+      <c r="T82">
+        <v>366512000</v>
+      </c>
+      <c r="U82">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V82">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W82">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X82">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y82">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z82">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA82">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB82">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC82">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-2204952467900</v>
       </c>
+      <c r="Q83">
+        <v>3127862933400</v>
+      </c>
+      <c r="R83">
+        <v>5332815401300</v>
+      </c>
+      <c r="S83">
+        <v>204373600</v>
+      </c>
+      <c r="T83">
+        <v>374281000</v>
+      </c>
+      <c r="U83">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V83">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W83">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X83">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y83">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z83">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA83">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB83">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC83">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-2263916883600</v>
       </c>
+      <c r="Q84">
+        <v>3151325563400</v>
+      </c>
+      <c r="R84">
+        <v>5415242447000</v>
+      </c>
+      <c r="S84">
+        <v>206129500</v>
+      </c>
+      <c r="T84">
+        <v>379917000</v>
+      </c>
+      <c r="U84">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V84">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W84">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X84">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y84">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z84">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA84">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB84">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC84">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-2306918768200</v>
       </c>
+      <c r="Q85">
+        <v>3193628092600</v>
+      </c>
+      <c r="R85">
+        <v>5500546860800</v>
+      </c>
+      <c r="S85">
+        <v>209083100</v>
+      </c>
+      <c r="T85">
+        <v>385922900</v>
+      </c>
+      <c r="U85">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V85">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W85">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X85">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y85">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z85">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA85">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB85">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC85">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-2313289330600</v>
       </c>
+      <c r="Q86">
+        <v>3235514304700</v>
+      </c>
+      <c r="R86">
+        <v>5548803635300</v>
+      </c>
+      <c r="S86">
+        <v>211873900</v>
+      </c>
+      <c r="T86">
+        <v>390385900</v>
+      </c>
+      <c r="U86">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V86">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W86">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X86">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y86">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z86">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA86">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB86">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC86">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-2305584939400</v>
       </c>
+      <c r="Q87">
+        <v>3296794528200</v>
+      </c>
+      <c r="R87">
+        <v>5602379467600</v>
+      </c>
+      <c r="S87">
+        <v>217131600</v>
+      </c>
+      <c r="T87">
+        <v>394812500</v>
+      </c>
+      <c r="U87">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V87">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W87">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X87">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y87">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z87">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA87">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB87">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC87">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-2305783899400</v>
       </c>
+      <c r="Q88">
+        <v>3335427731700</v>
+      </c>
+      <c r="R88">
+        <v>5641211631100</v>
+      </c>
+      <c r="S88">
+        <v>219823800</v>
+      </c>
+      <c r="T88">
+        <v>397819600</v>
+      </c>
+      <c r="U88">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V88">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W88">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X88">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y88">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z88">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA88">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB88">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-2309645177600</v>
       </c>
+      <c r="Q89">
+        <v>3372108945000</v>
+      </c>
+      <c r="R89">
+        <v>5681754122600</v>
+      </c>
+      <c r="S89">
+        <v>222646400</v>
+      </c>
+      <c r="T89">
+        <v>400416300</v>
+      </c>
+      <c r="U89">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V89">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W89">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X89">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y89">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z89">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA89">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB89">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC89">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-2293925920400</v>
       </c>
+      <c r="Q90">
+        <v>3414944621500</v>
+      </c>
+      <c r="R90">
+        <v>5708870541900</v>
+      </c>
+      <c r="S90">
+        <v>225735200</v>
+      </c>
+      <c r="T90">
+        <v>402811600</v>
+      </c>
+      <c r="U90">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V90">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W90">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X90">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y90">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z90">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA90">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB90">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC90">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-2243106148200</v>
       </c>
+      <c r="Q91">
+        <v>3492388482600</v>
+      </c>
+      <c r="R91">
+        <v>5735494630800</v>
+      </c>
+      <c r="S91">
+        <v>230182900</v>
+      </c>
+      <c r="T91">
+        <v>404643400</v>
+      </c>
+      <c r="U91">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V91">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W91">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X91">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y91">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z91">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA91">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB91">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC91">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-2225590372700</v>
       </c>
+      <c r="Q92">
+        <v>3533231412500</v>
+      </c>
+      <c r="R92">
+        <v>5758821785200</v>
+      </c>
+      <c r="S92">
+        <v>233660400</v>
+      </c>
+      <c r="T92">
+        <v>406255900</v>
+      </c>
+      <c r="U92">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V92">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W92">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X92">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y92">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z92">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA92">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB92">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC92">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-2210739345700</v>
       </c>
+      <c r="Q93">
+        <v>3573903562400</v>
+      </c>
+      <c r="R93">
+        <v>5784642908100</v>
+      </c>
+      <c r="S93">
+        <v>236404000</v>
+      </c>
+      <c r="T93">
+        <v>408236400</v>
+      </c>
+      <c r="U93">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V93">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W93">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X93">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y93">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z93">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA93">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB93">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC93">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-2183745807200</v>
       </c>
+      <c r="Q94">
+        <v>3633407498600</v>
+      </c>
+      <c r="R94">
+        <v>5817153305800</v>
+      </c>
+      <c r="S94">
+        <v>240266100</v>
+      </c>
+      <c r="T94">
+        <v>410469700</v>
+      </c>
+      <c r="U94">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V94">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W94">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X94">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y94">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z94">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA94">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB94">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC94">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-2256339533000</v>
       </c>
+      <c r="Q95">
+        <v>3661564045700</v>
+      </c>
+      <c r="R95">
+        <v>5917903578700</v>
+      </c>
+      <c r="S95">
+        <v>242136200</v>
+      </c>
+      <c r="T95">
+        <v>417301700</v>
+      </c>
+      <c r="U95">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V95">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W95">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X95">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y95">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z95">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA95">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB95">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC95">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-2279642812500</v>
       </c>
+      <c r="Q96">
+        <v>3682120629900</v>
+      </c>
+      <c r="R96">
+        <v>5961763442400</v>
+      </c>
+      <c r="S96">
+        <v>243831300</v>
+      </c>
+      <c r="T96">
+        <v>420500200</v>
+      </c>
+      <c r="U96">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V96">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W96">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X96">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y96">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z96">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA96">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB96">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC96">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-2275241655800</v>
       </c>
+      <c r="Q97">
+        <v>3706884137600</v>
+      </c>
+      <c r="R97">
+        <v>5982125793400</v>
+      </c>
+      <c r="S97">
+        <v>245667400</v>
+      </c>
+      <c r="T97">
+        <v>421901600</v>
+      </c>
+      <c r="U97">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V97">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W97">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X97">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y97">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z97">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA97">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB97">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC97">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-2265330472900</v>
       </c>
+      <c r="Q98">
+        <v>3749186358200</v>
+      </c>
+      <c r="R98">
+        <v>6014516831100</v>
+      </c>
+      <c r="S98">
+        <v>248475100</v>
+      </c>
+      <c r="T98">
+        <v>424070500</v>
+      </c>
+      <c r="U98">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V98">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W98">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X98">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y98">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z98">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA98">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB98">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC98">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-2252091981400</v>
       </c>
+      <c r="Q99">
+        <v>3792486675600</v>
+      </c>
+      <c r="R99">
+        <v>6044578657000</v>
+      </c>
+      <c r="S99">
+        <v>251408000</v>
+      </c>
+      <c r="T99">
+        <v>426224900</v>
+      </c>
+      <c r="U99">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V99">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W99">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X99">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y99">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z99">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA99">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB99">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC99">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-2237580473300</v>
       </c>
+      <c r="Q100">
+        <v>3833218397600</v>
+      </c>
+      <c r="R100">
+        <v>6070798870900</v>
+      </c>
+      <c r="S100">
+        <v>254710600</v>
+      </c>
+      <c r="T100">
+        <v>427675600</v>
+      </c>
+      <c r="U100">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V100">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W100">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X100">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y100">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z100">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA100">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB100">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC100">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-2159147649200</v>
       </c>
+      <c r="Q101">
+        <v>3929753650800</v>
+      </c>
+      <c r="R101">
+        <v>6088901300000</v>
+      </c>
+      <c r="S101">
+        <v>260960200</v>
+      </c>
+      <c r="T101">
+        <v>429047600</v>
+      </c>
+      <c r="U101">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V101">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W101">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X101">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y101">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z101">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA101">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB101">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC101">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-1937200908300</v>
       </c>
+      <c r="Q102">
+        <v>4181734421600</v>
+      </c>
+      <c r="R102">
+        <v>6118935329900</v>
+      </c>
+      <c r="S102">
+        <v>277549900</v>
+      </c>
+      <c r="T102">
+        <v>431044300</v>
+      </c>
+      <c r="U102">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V102">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W102">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X102">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y102">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z102">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA102">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB102">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC102">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-1837965899300</v>
       </c>
+      <c r="Q103">
+        <v>4341427992300</v>
+      </c>
+      <c r="R103">
+        <v>6179393891600</v>
+      </c>
+      <c r="S103">
+        <v>289522000</v>
+      </c>
+      <c r="T103">
+        <v>434909700</v>
+      </c>
+      <c r="U103">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V103">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W103">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X103">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y103">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z103">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA103">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB103">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC103">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-1882545484000</v>
       </c>
+      <c r="Q104">
+        <v>4405124612300</v>
+      </c>
+      <c r="R104">
+        <v>6287670096300</v>
+      </c>
+      <c r="S104">
+        <v>293600600</v>
+      </c>
+      <c r="T104">
+        <v>442511300</v>
+      </c>
+      <c r="U104">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V104">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W104">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X104">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y104">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z104">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA104">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB104">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC104">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-1907981033200</v>
       </c>
+      <c r="Q105">
+        <v>4439669848100</v>
+      </c>
+      <c r="R105">
+        <v>6347650881300</v>
+      </c>
+      <c r="S105">
+        <v>295617300</v>
+      </c>
+      <c r="T105">
+        <v>446763600</v>
+      </c>
+      <c r="U105">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V105">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W105">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X105">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y105">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z105">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA105">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB105">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC105">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-1900894151700</v>
       </c>
+      <c r="Q106">
+        <v>4478732731800</v>
+      </c>
+      <c r="R106">
+        <v>6379626883500</v>
+      </c>
+      <c r="S106">
+        <v>297969500</v>
+      </c>
+      <c r="T106">
+        <v>449291100</v>
+      </c>
+      <c r="U106">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V106">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W106">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X106">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y106">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z106">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA106">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB106">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC106">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-1880345614200</v>
       </c>
+      <c r="Q107">
+        <v>4529174407900</v>
+      </c>
+      <c r="R107">
+        <v>6409520022100</v>
+      </c>
+      <c r="S107">
+        <v>301044000</v>
+      </c>
+      <c r="T107">
+        <v>451450900</v>
+      </c>
+      <c r="U107">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V107">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W107">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X107">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y107">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z107">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA107">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB107">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC107">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-1817825872700</v>
       </c>
+      <c r="Q108">
+        <v>4611905687000</v>
+      </c>
+      <c r="R108">
+        <v>6429731559700</v>
+      </c>
+      <c r="S108">
+        <v>306163200</v>
+      </c>
+      <c r="T108">
+        <v>452922300</v>
+      </c>
+      <c r="U108">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V108">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W108">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X108">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y108">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z108">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA108">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB108">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC108">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-1718319242700</v>
       </c>
+      <c r="Q109">
+        <v>4733885630100</v>
+      </c>
+      <c r="R109">
+        <v>6452204872800</v>
+      </c>
+      <c r="S109">
+        <v>313787500</v>
+      </c>
+      <c r="T109">
+        <v>454460800</v>
+      </c>
+      <c r="U109">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V109">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W109">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X109">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y109">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z109">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA109">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB109">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC109">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-1578050660600</v>
       </c>
+      <c r="Q110">
+        <v>4907397953400</v>
+      </c>
+      <c r="R110">
+        <v>6485448614000</v>
+      </c>
+      <c r="S110">
+        <v>324893400</v>
+      </c>
+      <c r="T110">
+        <v>456669900</v>
+      </c>
+      <c r="U110">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V110">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W110">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X110">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y110">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z110">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA110">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB110">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC110">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-1355020394800</v>
       </c>
+      <c r="Q111">
+        <v>5179238734900</v>
+      </c>
+      <c r="R111">
+        <v>6534259129700</v>
+      </c>
+      <c r="S111">
+        <v>342983400</v>
+      </c>
+      <c r="T111">
+        <v>459814400</v>
+      </c>
+      <c r="U111">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V111">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W111">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X111">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y111">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z111">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA111">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB111">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC111">
+        <v>20</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-1323190730500</v>
       </c>
+      <c r="Q112">
+        <v>5312269741700</v>
+      </c>
+      <c r="R112">
+        <v>6635460472200</v>
+      </c>
+      <c r="S112">
+        <v>351540600</v>
+      </c>
+      <c r="T112">
+        <v>466815400</v>
+      </c>
+      <c r="U112">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V112">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W112">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X112">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y112">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z112">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA112">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB112">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC112">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1373954094100</v>
       </c>
+      <c r="Q113">
+        <v>5381935973400</v>
+      </c>
+      <c r="R113">
+        <v>6755890067500</v>
+      </c>
+      <c r="S113">
+        <v>355402700</v>
+      </c>
+      <c r="T113">
+        <v>474683400</v>
+      </c>
+      <c r="U113">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V113">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W113">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X113">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y113">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z113">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA113">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB113">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC113">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-1403972757600</v>
       </c>
+      <c r="Q114">
+        <v>5456159017900</v>
+      </c>
+      <c r="R114">
+        <v>6860131775500</v>
+      </c>
+      <c r="S114">
+        <v>359644600</v>
+      </c>
+      <c r="T114">
+        <v>481875200</v>
+      </c>
+      <c r="U114">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V114">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W114">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X114">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y114">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z114">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA114">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB114">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC114">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-1390831328300</v>
       </c>
+      <c r="Q115">
+        <v>5535460988200</v>
+      </c>
+      <c r="R115">
+        <v>6926292316500</v>
+      </c>
+      <c r="S115">
+        <v>365328300</v>
+      </c>
+      <c r="T115">
+        <v>487709400</v>
+      </c>
+      <c r="U115">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V115">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W115">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X115">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y115">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z115">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA115">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB115">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC115">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-1390809748300</v>
       </c>
+      <c r="Q116">
+        <v>5535606845200</v>
+      </c>
+      <c r="R116">
+        <v>6926416593500</v>
+      </c>
+      <c r="S116">
+        <v>365340300</v>
+      </c>
+      <c r="T116">
+        <v>487725400</v>
+      </c>
+      <c r="U116">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V116">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W116">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X116">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y116">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z116">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA116">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB116">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-1390808738300</v>
       </c>
+      <c r="Q117">
+        <v>5535607855200</v>
+      </c>
+      <c r="R117">
+        <v>6926416593500</v>
+      </c>
+      <c r="S117">
+        <v>365340400</v>
+      </c>
+      <c r="T117">
+        <v>487725400</v>
+      </c>
+      <c r="U117">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V117">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W117">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X117">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y117">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z117">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA117">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB117">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-1390798638300</v>
       </c>
+      <c r="Q118">
+        <v>5535617955200</v>
+      </c>
+      <c r="R118">
+        <v>6926416593500</v>
+      </c>
+      <c r="S118">
+        <v>365341400</v>
+      </c>
+      <c r="T118">
+        <v>487725400</v>
+      </c>
+      <c r="U118">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V118">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W118">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X118">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y118">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z118">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA118">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB118">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-1390767328300</v>
       </c>
+      <c r="Q119">
+        <v>5535649265200</v>
+      </c>
+      <c r="R119">
+        <v>6926416593500</v>
+      </c>
+      <c r="S119">
+        <v>365344500</v>
+      </c>
+      <c r="T119">
+        <v>487725400</v>
+      </c>
+      <c r="U119">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V119">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W119">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X119">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y119">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z119">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA119">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB119">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-1373313778800</v>
       </c>
+      <c r="Q120">
+        <v>5590546944600</v>
+      </c>
+      <c r="R120">
+        <v>6963860723400</v>
+      </c>
+      <c r="S120">
+        <v>368739400</v>
+      </c>
+      <c r="T120">
+        <v>491728600</v>
+      </c>
+      <c r="U120">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V120">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W120">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X120">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y120">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z120">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA120">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB120">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC120">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-1373305698800</v>
       </c>
+      <c r="Q121">
+        <v>5590555024600</v>
+      </c>
+      <c r="R121">
+        <v>6963860723400</v>
+      </c>
+      <c r="S121">
+        <v>368740200</v>
+      </c>
+      <c r="T121">
+        <v>491728600</v>
+      </c>
+      <c r="U121">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V121">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W121">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X121">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y121">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z121">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA121">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB121">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-1373267318800</v>
       </c>
+      <c r="Q122">
+        <v>5590593404600</v>
+      </c>
+      <c r="R122">
+        <v>6963860723400</v>
+      </c>
+      <c r="S122">
+        <v>368744000</v>
+      </c>
+      <c r="T122">
+        <v>491728600</v>
+      </c>
+      <c r="U122">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V122">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W122">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X122">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y122">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z122">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA122">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB122">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>-1373251158800</v>
       </c>
+      <c r="Q123">
+        <v>5590609564600</v>
+      </c>
+      <c r="R123">
+        <v>6963860723400</v>
+      </c>
+      <c r="S123">
+        <v>368745600</v>
+      </c>
+      <c r="T123">
+        <v>491728600</v>
+      </c>
+      <c r="U123">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V123">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W123">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X123">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y123">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z123">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA123">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB123">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,10 +11398,49 @@
       <c r="P124">
         <v>-1373207728800</v>
       </c>
+      <c r="Q124">
+        <v>5590652994600</v>
+      </c>
+      <c r="R124">
+        <v>6963860723400</v>
+      </c>
+      <c r="S124">
+        <v>368749900</v>
+      </c>
+      <c r="T124">
+        <v>491728600</v>
+      </c>
+      <c r="U124">
+        <v>45452463370.7</v>
+      </c>
+      <c r="V124">
+        <v>56616753848.8</v>
+      </c>
+      <c r="W124">
+        <v>107301331228.5</v>
+      </c>
+      <c r="X124">
+        <v>7332352.8</v>
+      </c>
+      <c r="Y124">
+        <v>2997966.7</v>
+      </c>
+      <c r="Z124">
+        <v>3997793.5</v>
+      </c>
+      <c r="AA124">
+        <v>-999826.8</v>
+      </c>
+      <c r="AB124">
+        <v>-11164290478</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P124"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC124"/>
   </ignoredErrors>
 </worksheet>
 </file>